--- a/src/test/resources/DataSheet/Data.xlsx
+++ b/src/test/resources/DataSheet/Data.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5685" windowWidth="11520" windowHeight="1170" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="5685" windowWidth="11520" windowHeight="1170" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OrderDetails" sheetId="5" r:id="rId1"/>
     <sheet name="CustomerDetails" sheetId="4" r:id="rId2"/>
+    <sheet name="RAPDetails" sheetId="6" r:id="rId3"/>
+    <sheet name="PultoDetails" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CustomerDetails!$A$1:$A$109</definedName>
@@ -292,8 +294,138 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A202" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+INV</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A203" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+INV</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A241" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+INV</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A242" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+INV</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A243" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+INV</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8860" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10377" uniqueCount="1341">
   <si>
     <t>AutomationID</t>
   </si>
@@ -2351,6 +2483,1971 @@
   </si>
   <si>
     <t>05/24/2017 04:44:52</t>
+  </si>
+  <si>
+    <t>CustomerRef</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>DenomValue</t>
+  </si>
+  <si>
+    <t>Famount</t>
+  </si>
+  <si>
+    <t>ProcessedDate</t>
+  </si>
+  <si>
+    <t>Auto0000011</t>
+  </si>
+  <si>
+    <t>Process Purchase order</t>
+  </si>
+  <si>
+    <t>USD992C472</t>
+  </si>
+  <si>
+    <t>AMAL</t>
+  </si>
+  <si>
+    <t>Auto0000012</t>
+  </si>
+  <si>
+    <t>USD9937BFA</t>
+  </si>
+  <si>
+    <t>Auto0000002</t>
+  </si>
+  <si>
+    <t>Process mutliple purchase orders</t>
+  </si>
+  <si>
+    <t>USD992CF90</t>
+  </si>
+  <si>
+    <t>RDPC</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Auto0000003</t>
+  </si>
+  <si>
+    <t>USD992CFAA</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>Auto0000004</t>
+  </si>
+  <si>
+    <t>USD992CFAF</t>
+  </si>
+  <si>
+    <t>Auto2222221</t>
+  </si>
+  <si>
+    <t>Process Sale order</t>
+  </si>
+  <si>
+    <t>USD9937B98</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Auto0000013</t>
+  </si>
+  <si>
+    <t>USD9937C4E</t>
+  </si>
+  <si>
+    <t>Auto1111111</t>
+  </si>
+  <si>
+    <t>Process Purchase order for foreign Checks</t>
+  </si>
+  <si>
+    <t>Auto1111112</t>
+  </si>
+  <si>
+    <t>Process Purchase order for foreign Currencies</t>
+  </si>
+  <si>
+    <t>Auto1111113</t>
+  </si>
+  <si>
+    <t>Process Sale order for foreign Currencies</t>
+  </si>
+  <si>
+    <t>Autotest1</t>
+  </si>
+  <si>
+    <t>Check and update order status of sale orders</t>
+  </si>
+  <si>
+    <t>Autotest2</t>
+  </si>
+  <si>
+    <t>Auto113850_1</t>
+  </si>
+  <si>
+    <t>USD9939225</t>
+  </si>
+  <si>
+    <t>Auto113850_2</t>
+  </si>
+  <si>
+    <t>USD9939270</t>
+  </si>
+  <si>
+    <t>Auto113850_3</t>
+  </si>
+  <si>
+    <t>USD993928B</t>
+  </si>
+  <si>
+    <t>2017/05/08 14:06:32</t>
+  </si>
+  <si>
+    <t>Auto113850_4</t>
+  </si>
+  <si>
+    <t>USD99392AD</t>
+  </si>
+  <si>
+    <t>Auto114921_1</t>
+  </si>
+  <si>
+    <t>USD99392CB</t>
+  </si>
+  <si>
+    <t>Auto114921_2</t>
+  </si>
+  <si>
+    <t>USD9939327</t>
+  </si>
+  <si>
+    <t>Auto114921_3</t>
+  </si>
+  <si>
+    <t>USD993934F</t>
+  </si>
+  <si>
+    <t>2017/05/08 14:53:55</t>
+  </si>
+  <si>
+    <t>Auto114921_4</t>
+  </si>
+  <si>
+    <t>USD9939375</t>
+  </si>
+  <si>
+    <t>Auto4417333_1</t>
+  </si>
+  <si>
+    <t>USD993939B</t>
+  </si>
+  <si>
+    <t>Auto4417333_2</t>
+  </si>
+  <si>
+    <t>USD99393B1</t>
+  </si>
+  <si>
+    <t>Auto4417333_3</t>
+  </si>
+  <si>
+    <t>USD99393C8</t>
+  </si>
+  <si>
+    <t>2017/05/08 15:17:40</t>
+  </si>
+  <si>
+    <t>Auto4417333_4</t>
+  </si>
+  <si>
+    <t>USD99393E6</t>
+  </si>
+  <si>
+    <t>Auto22214349_1</t>
+  </si>
+  <si>
+    <t>Online Sale Foreign Currency with denom next Day</t>
+  </si>
+  <si>
+    <t>USD993942B</t>
+  </si>
+  <si>
+    <t>Auto22214349_2</t>
+  </si>
+  <si>
+    <t>Online Sale Foreign Currency single CCY priority overnight</t>
+  </si>
+  <si>
+    <t>USD9939463</t>
+  </si>
+  <si>
+    <t>Auto22214349_3</t>
+  </si>
+  <si>
+    <t>Online Purchase Foreign Currency single CCY</t>
+  </si>
+  <si>
+    <t>USD993949B</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2017/05/08 15:26:41</t>
+  </si>
+  <si>
+    <t>Auto22214349_4</t>
+  </si>
+  <si>
+    <t>Online Purchase Foreign Currency Multi CCY</t>
+  </si>
+  <si>
+    <t>USD99394B1</t>
+  </si>
+  <si>
+    <t>Auto126586_3</t>
+  </si>
+  <si>
+    <t>USD99394B2</t>
+  </si>
+  <si>
+    <t>2017/05/08 15:32:35</t>
+  </si>
+  <si>
+    <t>Auto126586_4</t>
+  </si>
+  <si>
+    <t>USD99394BF</t>
+  </si>
+  <si>
+    <t>Auto11227_1</t>
+  </si>
+  <si>
+    <t>USD9939510</t>
+  </si>
+  <si>
+    <t>Auto11227_2</t>
+  </si>
+  <si>
+    <t>USD9939517</t>
+  </si>
+  <si>
+    <t>Auto11227_3</t>
+  </si>
+  <si>
+    <t>USD9939526</t>
+  </si>
+  <si>
+    <t>2017/05/08 15:38:37</t>
+  </si>
+  <si>
+    <t>Auto11227_4</t>
+  </si>
+  <si>
+    <t>USD9939584</t>
+  </si>
+  <si>
+    <t>Auto129530_1</t>
+  </si>
+  <si>
+    <t>USD9939606</t>
+  </si>
+  <si>
+    <t>Auto129530_2</t>
+  </si>
+  <si>
+    <t>USD9939645</t>
+  </si>
+  <si>
+    <t>Auto129530_3</t>
+  </si>
+  <si>
+    <t>USD99395D4</t>
+  </si>
+  <si>
+    <t>2017/05/08 16:08:27</t>
+  </si>
+  <si>
+    <t>Auto129530_4</t>
+  </si>
+  <si>
+    <t>USD99395E9</t>
+  </si>
+  <si>
+    <t>Auto22214264_1</t>
+  </si>
+  <si>
+    <t>USD993981C</t>
+  </si>
+  <si>
+    <t>Auto22214264_2</t>
+  </si>
+  <si>
+    <t>USD9939824</t>
+  </si>
+  <si>
+    <t>Auto22214264_3</t>
+  </si>
+  <si>
+    <t>USD99397D8</t>
+  </si>
+  <si>
+    <t>2017/05/08 16:02:45</t>
+  </si>
+  <si>
+    <t>Auto22214264_4</t>
+  </si>
+  <si>
+    <t>USD9939841</t>
+  </si>
+  <si>
+    <t>Auto22214337_1</t>
+  </si>
+  <si>
+    <t>USD9939B12</t>
+  </si>
+  <si>
+    <t>Auto22214337_2</t>
+  </si>
+  <si>
+    <t>USD9939B8A</t>
+  </si>
+  <si>
+    <t>Auto22214337_3</t>
+  </si>
+  <si>
+    <t>USD9939885</t>
+  </si>
+  <si>
+    <t>2017/05/08 15:56:47</t>
+  </si>
+  <si>
+    <t>Auto22214337_4</t>
+  </si>
+  <si>
+    <t>USD99398F8</t>
+  </si>
+  <si>
+    <t>Auto22214384_1</t>
+  </si>
+  <si>
+    <t>USD9939C17</t>
+  </si>
+  <si>
+    <t>Auto22214384_2</t>
+  </si>
+  <si>
+    <t>USD9939C60</t>
+  </si>
+  <si>
+    <t>Auto22214384_3</t>
+  </si>
+  <si>
+    <t>USD9939C85</t>
+  </si>
+  <si>
+    <t>2017/05/08 15:50:57</t>
+  </si>
+  <si>
+    <t>Auto22214384_4</t>
+  </si>
+  <si>
+    <t>USD9939CCC</t>
+  </si>
+  <si>
+    <t>Auto22214413_1</t>
+  </si>
+  <si>
+    <t>USD9939A3E</t>
+  </si>
+  <si>
+    <t>Auto22214413_2</t>
+  </si>
+  <si>
+    <t>USD9939AC3</t>
+  </si>
+  <si>
+    <t>Auto22214413_3</t>
+  </si>
+  <si>
+    <t>USD9939A70</t>
+  </si>
+  <si>
+    <t>2017/05/08 15:44:33</t>
+  </si>
+  <si>
+    <t>Auto22214413_4</t>
+  </si>
+  <si>
+    <t>USD9939A78</t>
+  </si>
+  <si>
+    <t>Auto22214416_1</t>
+  </si>
+  <si>
+    <t>Online | Sale | Multi CCY |w Denom | Next Day Delivery | Change delivery address</t>
+  </si>
+  <si>
+    <t>USD9939F93</t>
+  </si>
+  <si>
+    <t>Auto22214416_2</t>
+  </si>
+  <si>
+    <t>USD9939F82</t>
+  </si>
+  <si>
+    <t>Auto22214416_3</t>
+  </si>
+  <si>
+    <t>USD9939EF0</t>
+  </si>
+  <si>
+    <t>2017/05/09 14:33:56</t>
+  </si>
+  <si>
+    <t>Auto22214416_4</t>
+  </si>
+  <si>
+    <t>USD9939F4E</t>
+  </si>
+  <si>
+    <t>Auto22214426_1</t>
+  </si>
+  <si>
+    <t>USD9939FC1</t>
+  </si>
+  <si>
+    <t>Auto22214426_2</t>
+  </si>
+  <si>
+    <t>USD9939FD5</t>
+  </si>
+  <si>
+    <t>Auto22214426_3</t>
+  </si>
+  <si>
+    <t>USD993A005</t>
+  </si>
+  <si>
+    <t>2017/05/09 14:40:20</t>
+  </si>
+  <si>
+    <t>Auto22214426_4</t>
+  </si>
+  <si>
+    <t>USD993A02A</t>
+  </si>
+  <si>
+    <t>Auto22214437_1</t>
+  </si>
+  <si>
+    <t>USD993A069</t>
+  </si>
+  <si>
+    <t>Auto22214437_2</t>
+  </si>
+  <si>
+    <t>USD993A103</t>
+  </si>
+  <si>
+    <t>Auto22214437_3</t>
+  </si>
+  <si>
+    <t>USD993A147</t>
+  </si>
+  <si>
+    <t>2017/05/09 14:46:28</t>
+  </si>
+  <si>
+    <t>Auto22214437_4</t>
+  </si>
+  <si>
+    <t>USD993A1A5</t>
+  </si>
+  <si>
+    <t>Auto22214641_1</t>
+  </si>
+  <si>
+    <t>USD993A1D0</t>
+  </si>
+  <si>
+    <t>Auto22214641_2</t>
+  </si>
+  <si>
+    <t>USD993A230</t>
+  </si>
+  <si>
+    <t>Auto22214641_3</t>
+  </si>
+  <si>
+    <t>USD993A277</t>
+  </si>
+  <si>
+    <t>2017/05/09 14:52:14</t>
+  </si>
+  <si>
+    <t>Auto22214641_4</t>
+  </si>
+  <si>
+    <t>USD993A27B</t>
+  </si>
+  <si>
+    <t>Auto22214724_1</t>
+  </si>
+  <si>
+    <t>USD993A2C8</t>
+  </si>
+  <si>
+    <t>Auto22214724_2</t>
+  </si>
+  <si>
+    <t>USD993A2E7</t>
+  </si>
+  <si>
+    <t>Auto22214724_3</t>
+  </si>
+  <si>
+    <t>USD993A345</t>
+  </si>
+  <si>
+    <t>2017/05/09 14:58:13</t>
+  </si>
+  <si>
+    <t>Auto22214724_4</t>
+  </si>
+  <si>
+    <t>USD993A362</t>
+  </si>
+  <si>
+    <t>Auto22214730_1</t>
+  </si>
+  <si>
+    <t>USD993A683</t>
+  </si>
+  <si>
+    <t>Auto22214730_2</t>
+  </si>
+  <si>
+    <t>USD993A695</t>
+  </si>
+  <si>
+    <t>Auto22214730_3</t>
+  </si>
+  <si>
+    <t>USD993A3A6</t>
+  </si>
+  <si>
+    <t>2017/05/09 15:03:58</t>
+  </si>
+  <si>
+    <t>Auto22214730_4</t>
+  </si>
+  <si>
+    <t>USD993A3FF</t>
+  </si>
+  <si>
+    <t>Auto22214989_1</t>
+  </si>
+  <si>
+    <t>USD993A41C</t>
+  </si>
+  <si>
+    <t>Auto22214989_2</t>
+  </si>
+  <si>
+    <t>USD993A44C</t>
+  </si>
+  <si>
+    <t>Auto22214989_3</t>
+  </si>
+  <si>
+    <t>USD993A47F</t>
+  </si>
+  <si>
+    <t>2017/05/09 15:09:53</t>
+  </si>
+  <si>
+    <t>Auto22214989_4</t>
+  </si>
+  <si>
+    <t>USD993A49A</t>
+  </si>
+  <si>
+    <t>Auto11226_1</t>
+  </si>
+  <si>
+    <t>USD9939E0D</t>
+  </si>
+  <si>
+    <t>Auto11226_2</t>
+  </si>
+  <si>
+    <t>USD9939E7A</t>
+  </si>
+  <si>
+    <t>Auto11226_3</t>
+  </si>
+  <si>
+    <t>USD9939EAB</t>
+  </si>
+  <si>
+    <t>2017/05/09 15:15:37</t>
+  </si>
+  <si>
+    <t>Auto11226_4</t>
+  </si>
+  <si>
+    <t>USD9939EED</t>
+  </si>
+  <si>
+    <t>Auto881247_1</t>
+  </si>
+  <si>
+    <t>USD993A0B2</t>
+  </si>
+  <si>
+    <t>Auto881247_2</t>
+  </si>
+  <si>
+    <t>USD993A8DD</t>
+  </si>
+  <si>
+    <t>Auto881247_3</t>
+  </si>
+  <si>
+    <t>USD993A8FF</t>
+  </si>
+  <si>
+    <t>2017/05/09 15:22:05</t>
+  </si>
+  <si>
+    <t>Auto881247_4</t>
+  </si>
+  <si>
+    <t>USD993A93A</t>
+  </si>
+  <si>
+    <t>Auto13571_1</t>
+  </si>
+  <si>
+    <t>USD993A964</t>
+  </si>
+  <si>
+    <t>Auto13571_2</t>
+  </si>
+  <si>
+    <t>USD993AA4F</t>
+  </si>
+  <si>
+    <t>Auto13571_3</t>
+  </si>
+  <si>
+    <t>USD993AC1C</t>
+  </si>
+  <si>
+    <t>2017/05/09 15:28:09</t>
+  </si>
+  <si>
+    <t>Auto13571_4</t>
+  </si>
+  <si>
+    <t>USD993AC2D</t>
+  </si>
+  <si>
+    <t>Auto16974_1</t>
+  </si>
+  <si>
+    <t>USD993AB8B</t>
+  </si>
+  <si>
+    <t>Auto16974_2</t>
+  </si>
+  <si>
+    <t>USD993ABA9</t>
+  </si>
+  <si>
+    <t>Auto16974_3</t>
+  </si>
+  <si>
+    <t>USD993ABC2</t>
+  </si>
+  <si>
+    <t>2017/05/09 15:33:53</t>
+  </si>
+  <si>
+    <t>Auto16974_4</t>
+  </si>
+  <si>
+    <t>USD993ABD0</t>
+  </si>
+  <si>
+    <t>Auto29116_1</t>
+  </si>
+  <si>
+    <t>USD993A78F</t>
+  </si>
+  <si>
+    <t>Auto29116_2</t>
+  </si>
+  <si>
+    <t>USD993A7E3</t>
+  </si>
+  <si>
+    <t>Auto29116_3</t>
+  </si>
+  <si>
+    <t>USD993AAFF</t>
+  </si>
+  <si>
+    <t>2017/05/11 08:43:30</t>
+  </si>
+  <si>
+    <t>Auto29116_4</t>
+  </si>
+  <si>
+    <t>USD993AB4E</t>
+  </si>
+  <si>
+    <t>Auto19340_1</t>
+  </si>
+  <si>
+    <t>Auto19340_2</t>
+  </si>
+  <si>
+    <t>Auto19340_3</t>
+  </si>
+  <si>
+    <t>Auto19340_4</t>
+  </si>
+  <si>
+    <t>Auto126187_1</t>
+  </si>
+  <si>
+    <t>Auto126187_2</t>
+  </si>
+  <si>
+    <t>Auto126187_3</t>
+  </si>
+  <si>
+    <t>Auto126187_4</t>
+  </si>
+  <si>
+    <t>USD993B090</t>
+  </si>
+  <si>
+    <t>Auto126548_1</t>
+  </si>
+  <si>
+    <t>USD993B0E5</t>
+  </si>
+  <si>
+    <t>Auto126548_2</t>
+  </si>
+  <si>
+    <t>USD993B10F</t>
+  </si>
+  <si>
+    <t>Auto126548_3</t>
+  </si>
+  <si>
+    <t>USD993B171</t>
+  </si>
+  <si>
+    <t>2017/05/11 08:54:48</t>
+  </si>
+  <si>
+    <t>Auto126548_4</t>
+  </si>
+  <si>
+    <t>Auto91066_1</t>
+  </si>
+  <si>
+    <t>USD993AD12</t>
+  </si>
+  <si>
+    <t>Auto91066_2</t>
+  </si>
+  <si>
+    <t>USD993AD33</t>
+  </si>
+  <si>
+    <t>Auto91066_3</t>
+  </si>
+  <si>
+    <t>USD993AC82</t>
+  </si>
+  <si>
+    <t>2017/05/11 09:01:37</t>
+  </si>
+  <si>
+    <t>Auto91066_4</t>
+  </si>
+  <si>
+    <t>USD993ACDA</t>
+  </si>
+  <si>
+    <t>Auto91084_1</t>
+  </si>
+  <si>
+    <t>USD993AE53</t>
+  </si>
+  <si>
+    <t>Auto91084_2</t>
+  </si>
+  <si>
+    <t>USD993AF7B</t>
+  </si>
+  <si>
+    <t>Auto91084_3</t>
+  </si>
+  <si>
+    <t>USD993AD68</t>
+  </si>
+  <si>
+    <t>2017/05/11 09:08:13</t>
+  </si>
+  <si>
+    <t>Auto91084_4</t>
+  </si>
+  <si>
+    <t>USD993AEA1</t>
+  </si>
+  <si>
+    <t>Auto91212_1</t>
+  </si>
+  <si>
+    <t>USD993AD6D</t>
+  </si>
+  <si>
+    <t>Auto91212_2</t>
+  </si>
+  <si>
+    <t>USD993AD8D</t>
+  </si>
+  <si>
+    <t>Auto113008_3</t>
+  </si>
+  <si>
+    <t>USD993B5C3</t>
+  </si>
+  <si>
+    <t>Auto114040_3</t>
+  </si>
+  <si>
+    <t>USD993C47C</t>
+  </si>
+  <si>
+    <t>Auto116198_3</t>
+  </si>
+  <si>
+    <t>USD993BF5B</t>
+  </si>
+  <si>
+    <t>Auto118970_3</t>
+  </si>
+  <si>
+    <t>USD993C073</t>
+  </si>
+  <si>
+    <t>Auto124973_3</t>
+  </si>
+  <si>
+    <t>USD993C264</t>
+  </si>
+  <si>
+    <t>Auto127875_3</t>
+  </si>
+  <si>
+    <t>USD993B98F</t>
+  </si>
+  <si>
+    <t>Auto128103_3</t>
+  </si>
+  <si>
+    <t>USD993BA40</t>
+  </si>
+  <si>
+    <t>Auto128282_3</t>
+  </si>
+  <si>
+    <t>USD993BAB6</t>
+  </si>
+  <si>
+    <t>Auto128586_3</t>
+  </si>
+  <si>
+    <t>USD993BB50</t>
+  </si>
+  <si>
+    <t>Auto128748_3</t>
+  </si>
+  <si>
+    <t>USD993BB80</t>
+  </si>
+  <si>
+    <t>Auto129526_3</t>
+  </si>
+  <si>
+    <t>USD993BC6C</t>
+  </si>
+  <si>
+    <t>Auto129666_3</t>
+  </si>
+  <si>
+    <t>USD993C5E2</t>
+  </si>
+  <si>
+    <t>Auto129989_3</t>
+  </si>
+  <si>
+    <t>USD993BE32</t>
+  </si>
+  <si>
+    <t>Auto131320_3</t>
+  </si>
+  <si>
+    <t>USD993BF00</t>
+  </si>
+  <si>
+    <t>Auto131786_3</t>
+  </si>
+  <si>
+    <t>USD993C2DA</t>
+  </si>
+  <si>
+    <t>Auto19333_3</t>
+  </si>
+  <si>
+    <t>USD993B1DD</t>
+  </si>
+  <si>
+    <t>Auto4423786_3</t>
+  </si>
+  <si>
+    <t>USD993B6B2</t>
+  </si>
+  <si>
+    <t>Auto133_1</t>
+  </si>
+  <si>
+    <t>USD994409B</t>
+  </si>
+  <si>
+    <t>Auto133_2</t>
+  </si>
+  <si>
+    <t>USD9942973</t>
+  </si>
+  <si>
+    <t>Auto133_3</t>
+  </si>
+  <si>
+    <t>USD99429A5</t>
+  </si>
+  <si>
+    <t>2017/05/23 13:03:12</t>
+  </si>
+  <si>
+    <t>Auto133_4</t>
+  </si>
+  <si>
+    <t>USD99429C6</t>
+  </si>
+  <si>
+    <t>Auto133_5</t>
+  </si>
+  <si>
+    <t>USD99429E9</t>
+  </si>
+  <si>
+    <t>CQ</t>
+  </si>
+  <si>
+    <t>Auto133_6</t>
+  </si>
+  <si>
+    <t>USD99429F2</t>
+  </si>
+  <si>
+    <t>Auto133_7</t>
+  </si>
+  <si>
+    <t>USD9942A55</t>
+  </si>
+  <si>
+    <t>Auto133_8</t>
+  </si>
+  <si>
+    <t>USD9942AA1</t>
+  </si>
+  <si>
+    <t>Auto148_1</t>
+  </si>
+  <si>
+    <t>USD9942ACF</t>
+  </si>
+  <si>
+    <t>Auto148_2</t>
+  </si>
+  <si>
+    <t>USD9942ADA</t>
+  </si>
+  <si>
+    <t>Auto148_3</t>
+  </si>
+  <si>
+    <t>USD9942B31</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Auto148_4</t>
+  </si>
+  <si>
+    <t>USD9942B6D</t>
+  </si>
+  <si>
+    <t>Auto1182_1</t>
+  </si>
+  <si>
+    <t>USD9942B7A</t>
+  </si>
+  <si>
+    <t>Auto1182_2</t>
+  </si>
+  <si>
+    <t>USD9942B84</t>
+  </si>
+  <si>
+    <t>Auto1182_3</t>
+  </si>
+  <si>
+    <t>USD9942BD8</t>
+  </si>
+  <si>
+    <t>2017/05/23 15:08:52</t>
+  </si>
+  <si>
+    <t>Auto1182_4</t>
+  </si>
+  <si>
+    <t>USD9942BF7</t>
+  </si>
+  <si>
+    <t>Auto1182_5</t>
+  </si>
+  <si>
+    <t>USD9942C34</t>
+  </si>
+  <si>
+    <t>Auto1182_6</t>
+  </si>
+  <si>
+    <t>USD9942C7E</t>
+  </si>
+  <si>
+    <t>Auto1182_7</t>
+  </si>
+  <si>
+    <t>USD9942CB6</t>
+  </si>
+  <si>
+    <t>Auto1182_8</t>
+  </si>
+  <si>
+    <t>USD9942D34</t>
+  </si>
+  <si>
+    <t>Auto8856_1</t>
+  </si>
+  <si>
+    <t>USD9942D67</t>
+  </si>
+  <si>
+    <t>Auto8856_2</t>
+  </si>
+  <si>
+    <t>USD9942D6C</t>
+  </si>
+  <si>
+    <t>Auto8856_3</t>
+  </si>
+  <si>
+    <t>USD9942DC2</t>
+  </si>
+  <si>
+    <t>2017/05/23 15:42:44</t>
+  </si>
+  <si>
+    <t>Auto8856_4</t>
+  </si>
+  <si>
+    <t>USD9942E0E</t>
+  </si>
+  <si>
+    <t>Auto8856_5</t>
+  </si>
+  <si>
+    <t>USD9942E63</t>
+  </si>
+  <si>
+    <t>Auto8856_6</t>
+  </si>
+  <si>
+    <t>USD9942E70</t>
+  </si>
+  <si>
+    <t>Auto19064_1</t>
+  </si>
+  <si>
+    <t>USD9942E93</t>
+  </si>
+  <si>
+    <t>Auto19064_2</t>
+  </si>
+  <si>
+    <t>USD9942EA2</t>
+  </si>
+  <si>
+    <t>Auto19064_3</t>
+  </si>
+  <si>
+    <t>USD9942ECB</t>
+  </si>
+  <si>
+    <t>2017/05/23 15:47:48</t>
+  </si>
+  <si>
+    <t>Auto19064_4</t>
+  </si>
+  <si>
+    <t>USD9942F14</t>
+  </si>
+  <si>
+    <t>Auto19064_5</t>
+  </si>
+  <si>
+    <t>USD9942F70</t>
+  </si>
+  <si>
+    <t>Auto19064_6</t>
+  </si>
+  <si>
+    <t>USD9942F8D</t>
+  </si>
+  <si>
+    <t>Auto19064_7</t>
+  </si>
+  <si>
+    <t>USD9942FAB</t>
+  </si>
+  <si>
+    <t>Auto19064_8</t>
+  </si>
+  <si>
+    <t>USD9942FB4</t>
+  </si>
+  <si>
+    <t>USD9942FDB</t>
+  </si>
+  <si>
+    <t>USD9942FEE</t>
+  </si>
+  <si>
+    <t>USD994305A</t>
+  </si>
+  <si>
+    <t>Auto113850_5</t>
+  </si>
+  <si>
+    <t>USD99430AC</t>
+  </si>
+  <si>
+    <t>Auto113850_6</t>
+  </si>
+  <si>
+    <t>USD99430C3</t>
+  </si>
+  <si>
+    <t>Auto113850_7</t>
+  </si>
+  <si>
+    <t>USD994311D</t>
+  </si>
+  <si>
+    <t>Auto113850_8</t>
+  </si>
+  <si>
+    <t>USD994312A</t>
+  </si>
+  <si>
+    <t>Auto114702_1</t>
+  </si>
+  <si>
+    <t>USD9943152</t>
+  </si>
+  <si>
+    <t>Auto114702_2</t>
+  </si>
+  <si>
+    <t>USD99431AF</t>
+  </si>
+  <si>
+    <t>Auto114702_3</t>
+  </si>
+  <si>
+    <t>USD9943201</t>
+  </si>
+  <si>
+    <t>2017/05/23 16:03:32</t>
+  </si>
+  <si>
+    <t>Auto114702_4</t>
+  </si>
+  <si>
+    <t>USD9943205</t>
+  </si>
+  <si>
+    <t>Auto114702_5</t>
+  </si>
+  <si>
+    <t>USD994322C</t>
+  </si>
+  <si>
+    <t>Auto114702_6</t>
+  </si>
+  <si>
+    <t>USD9943278</t>
+  </si>
+  <si>
+    <t>USD994328F</t>
+  </si>
+  <si>
+    <t>USD99432D4</t>
+  </si>
+  <si>
+    <t>USD9943368</t>
+  </si>
+  <si>
+    <t>Auto116772_1</t>
+  </si>
+  <si>
+    <t>USD99433C0</t>
+  </si>
+  <si>
+    <t>Auto116772_2</t>
+  </si>
+  <si>
+    <t>USD994341C</t>
+  </si>
+  <si>
+    <t>Auto116772_3</t>
+  </si>
+  <si>
+    <t>USD994346A</t>
+  </si>
+  <si>
+    <t>Auto116772_4</t>
+  </si>
+  <si>
+    <t>USD9943494</t>
+  </si>
+  <si>
+    <t>Auto116772_5</t>
+  </si>
+  <si>
+    <t>USD99434BB</t>
+  </si>
+  <si>
+    <t>Auto116772_6</t>
+  </si>
+  <si>
+    <t>USD9943500</t>
+  </si>
+  <si>
+    <t>Auto116772_7</t>
+  </si>
+  <si>
+    <t>Wholesale | Purchase | Single CCY | w Denom | Next Day</t>
+  </si>
+  <si>
+    <t>USD9943564</t>
+  </si>
+  <si>
+    <t>Auto116772_8</t>
+  </si>
+  <si>
+    <t>Auto116772_9</t>
+  </si>
+  <si>
+    <t>Onsite | Sale | Single CCY |w Denom |</t>
+  </si>
+  <si>
+    <t>Auto116772_10</t>
+  </si>
+  <si>
+    <t>Onsite | Purchase | Sineg CCY |</t>
+  </si>
+  <si>
+    <t>USD9943570</t>
+  </si>
+  <si>
+    <t>Auto117605_1</t>
+  </si>
+  <si>
+    <t>USD99435B6</t>
+  </si>
+  <si>
+    <t>Auto117605_2</t>
+  </si>
+  <si>
+    <t>USD99435FC</t>
+  </si>
+  <si>
+    <t>Auto117605_3</t>
+  </si>
+  <si>
+    <t>USD9943628</t>
+  </si>
+  <si>
+    <t>Auto117605_4</t>
+  </si>
+  <si>
+    <t>USD9943675</t>
+  </si>
+  <si>
+    <t>Auto117605_5</t>
+  </si>
+  <si>
+    <t>USD99436B5</t>
+  </si>
+  <si>
+    <t>Auto117605_6</t>
+  </si>
+  <si>
+    <t>USD9943709</t>
+  </si>
+  <si>
+    <t>Auto117605_7</t>
+  </si>
+  <si>
+    <t>USD994373F</t>
+  </si>
+  <si>
+    <t>Auto117605_8</t>
+  </si>
+  <si>
+    <t>USD9943767</t>
+  </si>
+  <si>
+    <t>Auto119042_1</t>
+  </si>
+  <si>
+    <t>USD99437C0</t>
+  </si>
+  <si>
+    <t>Auto119042_2</t>
+  </si>
+  <si>
+    <t>USD9943806</t>
+  </si>
+  <si>
+    <t>Auto119042_3</t>
+  </si>
+  <si>
+    <t>USD9943816</t>
+  </si>
+  <si>
+    <t>Auto119042_4</t>
+  </si>
+  <si>
+    <t>USD9943871</t>
+  </si>
+  <si>
+    <t>Auto119042_5</t>
+  </si>
+  <si>
+    <t>USD994389B</t>
+  </si>
+  <si>
+    <t>Auto119042_6</t>
+  </si>
+  <si>
+    <t>USD99438D7</t>
+  </si>
+  <si>
+    <t>Auto119234_1</t>
+  </si>
+  <si>
+    <t>USD99438EB</t>
+  </si>
+  <si>
+    <t>Auto119234_2</t>
+  </si>
+  <si>
+    <t>USD9943900</t>
+  </si>
+  <si>
+    <t>Auto119234_3</t>
+  </si>
+  <si>
+    <t>USD994391A</t>
+  </si>
+  <si>
+    <t>Auto119234_4</t>
+  </si>
+  <si>
+    <t>USD994392F</t>
+  </si>
+  <si>
+    <t>Auto119410_1</t>
+  </si>
+  <si>
+    <t>USD994398C</t>
+  </si>
+  <si>
+    <t>Auto119410_2</t>
+  </si>
+  <si>
+    <t>USD99439DE</t>
+  </si>
+  <si>
+    <t>Auto119410_3</t>
+  </si>
+  <si>
+    <t>USD9943A12</t>
+  </si>
+  <si>
+    <t>Auto119410_4</t>
+  </si>
+  <si>
+    <t>USD9943A73</t>
+  </si>
+  <si>
+    <t>Auto119445_1</t>
+  </si>
+  <si>
+    <t>USD9943A7B</t>
+  </si>
+  <si>
+    <t>Auto119445_2</t>
+  </si>
+  <si>
+    <t>USD9943AC3</t>
+  </si>
+  <si>
+    <t>Auto119445_3</t>
+  </si>
+  <si>
+    <t>USD9943AF0</t>
+  </si>
+  <si>
+    <t>Auto119445_4</t>
+  </si>
+  <si>
+    <t>USD9943B51</t>
+  </si>
+  <si>
+    <t>Auto119445_5</t>
+  </si>
+  <si>
+    <t>USD9943B86</t>
+  </si>
+  <si>
+    <t>Auto119445_6</t>
+  </si>
+  <si>
+    <t>USD9943BB4</t>
+  </si>
+  <si>
+    <t>Auto119445_7</t>
+  </si>
+  <si>
+    <t>USD9943BD4</t>
+  </si>
+  <si>
+    <t>Auto119445_8</t>
+  </si>
+  <si>
+    <t>USD9943BEB</t>
+  </si>
+  <si>
+    <t>Auto120317_1</t>
+  </si>
+  <si>
+    <t>USD9943C23</t>
+  </si>
+  <si>
+    <t>Auto120317_2</t>
+  </si>
+  <si>
+    <t>USD9943C50</t>
+  </si>
+  <si>
+    <t>Auto120317_3</t>
+  </si>
+  <si>
+    <t>USD9943C9E</t>
+  </si>
+  <si>
+    <t>Auto120317_4</t>
+  </si>
+  <si>
+    <t>USD9943CC2</t>
+  </si>
+  <si>
+    <t>Auto120317_5</t>
+  </si>
+  <si>
+    <t>USD99440DB</t>
+  </si>
+  <si>
+    <t>Auto120317_6</t>
+  </si>
+  <si>
+    <t>USD9943D47</t>
+  </si>
+  <si>
+    <t>Auto120317_7</t>
+  </si>
+  <si>
+    <t>Auto120317_8</t>
+  </si>
+  <si>
+    <t>Auto120317_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onsite | Sale | Multi CCY |w Denom </t>
+  </si>
+  <si>
+    <t>Auto120317_10</t>
+  </si>
+  <si>
+    <t>USD9943D4B</t>
+  </si>
+  <si>
+    <t>Auto120944_1</t>
+  </si>
+  <si>
+    <t>USD9943D78</t>
+  </si>
+  <si>
+    <t>Auto120944_2</t>
+  </si>
+  <si>
+    <t>USD9943DA6</t>
+  </si>
+  <si>
+    <t>Auto120944_3</t>
+  </si>
+  <si>
+    <t>USD9943DE3</t>
+  </si>
+  <si>
+    <t>Auto120944_4</t>
+  </si>
+  <si>
+    <t>USD9943E1B</t>
+  </si>
+  <si>
+    <t>Auto124080_1</t>
+  </si>
+  <si>
+    <t>USD9943E7F</t>
+  </si>
+  <si>
+    <t>Auto124080_2</t>
+  </si>
+  <si>
+    <t>USD9943EA8</t>
+  </si>
+  <si>
+    <t>Auto124080_3</t>
+  </si>
+  <si>
+    <t>USD9943EAB</t>
+  </si>
+  <si>
+    <t>Auto124080_4</t>
+  </si>
+  <si>
+    <t>USD9943EE7</t>
+  </si>
+  <si>
+    <t>Auto124110_1</t>
+  </si>
+  <si>
+    <t>USD9943F02</t>
+  </si>
+  <si>
+    <t>Auto124110_2</t>
+  </si>
+  <si>
+    <t>USD9943F1F</t>
+  </si>
+  <si>
+    <t>Auto124110_3</t>
+  </si>
+  <si>
+    <t>USD9944017</t>
+  </si>
+  <si>
+    <t>Auto124110_4</t>
+  </si>
+  <si>
+    <t>USD994403D</t>
+  </si>
+  <si>
+    <t>2017/05/24 12:56:33</t>
+  </si>
+  <si>
+    <t>2017/05/24 13:04:54</t>
+  </si>
+  <si>
+    <t>2017/05/24 13:08:44</t>
+  </si>
+  <si>
+    <t>2017/05/24 13:13:33</t>
+  </si>
+  <si>
+    <t>2017/05/24 13:18:49</t>
+  </si>
+  <si>
+    <t>2017/05/24 14:14:54</t>
+  </si>
+  <si>
+    <t>2017/05/24 14:20:23</t>
+  </si>
+  <si>
+    <t>2017/05/24 14:25:54</t>
+  </si>
+  <si>
+    <t>2017/05/24 14:31:10</t>
+  </si>
+  <si>
+    <t>2017/05/24 14:34:58</t>
+  </si>
+  <si>
+    <t>2017/05/24 14:38:04</t>
+  </si>
+  <si>
+    <t>2017/05/24 14:43:15</t>
+  </si>
+  <si>
+    <t>USD994535F</t>
+  </si>
+  <si>
+    <t>2017/05/24 14:47:06</t>
+  </si>
+  <si>
+    <t>USD99453A0</t>
+  </si>
+  <si>
+    <t>2017/05/24 14:50:04</t>
+  </si>
+  <si>
+    <t>USD99453B5</t>
+  </si>
+  <si>
+    <t>USD994540C</t>
+  </si>
+  <si>
+    <t>USD994426B</t>
+  </si>
+  <si>
+    <t>USD9944309</t>
+  </si>
+  <si>
+    <t>USD99443A2</t>
+  </si>
+  <si>
+    <t>2017/05/24 14:55:17</t>
+  </si>
+  <si>
+    <t>USD99443D8</t>
+  </si>
+  <si>
+    <t>USD994443E</t>
+  </si>
+  <si>
+    <t>2017/05/24 14:59:00</t>
+  </si>
+  <si>
+    <t>USD994444A</t>
+  </si>
+  <si>
+    <t>2017/05/24 15:02:07</t>
+  </si>
+  <si>
+    <t>USD9944454</t>
+  </si>
+  <si>
+    <t>USD99444A7</t>
+  </si>
+  <si>
+    <t>USD9944518</t>
+  </si>
+  <si>
+    <t>USD9944578</t>
+  </si>
+  <si>
+    <t>USD99445E5</t>
+  </si>
+  <si>
+    <t>2017/05/24 15:07:18</t>
+  </si>
+  <si>
+    <t>USD9944604</t>
+  </si>
+  <si>
+    <t>USD994462D</t>
+  </si>
+  <si>
+    <t>2017/05/24 15:10:50</t>
+  </si>
+  <si>
+    <t>USD994465D</t>
+  </si>
+  <si>
+    <t>2017/05/24 15:14:02</t>
+  </si>
+  <si>
+    <t>USD99446BC</t>
+  </si>
+  <si>
+    <t>USD99446EB</t>
+  </si>
+  <si>
+    <t>USD9944707</t>
+  </si>
+  <si>
+    <t>USD9944752</t>
+  </si>
+  <si>
+    <t>USD9944781</t>
+  </si>
+  <si>
+    <t>2017/05/24 15:19:08</t>
+  </si>
+  <si>
+    <t>USD99447E2</t>
+  </si>
+  <si>
+    <t>USD9944840</t>
+  </si>
+  <si>
+    <t>2017/05/24 15:22:55</t>
+  </si>
+  <si>
+    <t>USD9944862</t>
+  </si>
+  <si>
+    <t>2017/05/24 15:25:59</t>
+  </si>
+  <si>
+    <t>USD9944876</t>
+  </si>
+  <si>
+    <t>USD9944892</t>
+  </si>
+  <si>
+    <t>USD99448E3</t>
+  </si>
+  <si>
+    <t>USD99448EB</t>
+  </si>
+  <si>
+    <t>USD9944909</t>
+  </si>
+  <si>
+    <t>2017/05/24 15:31:07</t>
+  </si>
+  <si>
+    <t>USD9944921</t>
+  </si>
+  <si>
+    <t>USD9944932</t>
+  </si>
+  <si>
+    <t>USD994498E</t>
+  </si>
+  <si>
+    <t>USD99449D7</t>
+  </si>
+  <si>
+    <t>2017/05/24 15:37:11</t>
+  </si>
+  <si>
+    <t>USD9944A19</t>
+  </si>
+  <si>
+    <t>USD9944A29</t>
+  </si>
+  <si>
+    <t>USD9944A2C</t>
+  </si>
+  <si>
+    <t>USD9944A6C</t>
+  </si>
+  <si>
+    <t>2017/05/24 15:43:11</t>
+  </si>
+  <si>
+    <t>USD9944AD0</t>
+  </si>
+  <si>
+    <t>USD9944AD1</t>
+  </si>
+  <si>
+    <t>USD9944AF4</t>
+  </si>
+  <si>
+    <t>USD9944B0D</t>
+  </si>
+  <si>
+    <t>USD9944B50</t>
+  </si>
+  <si>
+    <t>USD9944BA5</t>
+  </si>
+  <si>
+    <t>2017/05/24 15:48:44</t>
+  </si>
+  <si>
+    <t>USD9944BCA</t>
+  </si>
+  <si>
+    <t>USD9944C00</t>
+  </si>
+  <si>
+    <t>USD9944CA5</t>
+  </si>
+  <si>
+    <t>USD9944D03</t>
+  </si>
+  <si>
+    <t>2017/05/24 15:54:26</t>
+  </si>
+  <si>
+    <t>USD9944D18</t>
+  </si>
+  <si>
+    <t>USD9944D47</t>
+  </si>
+  <si>
+    <t>USD9944D92</t>
+  </si>
+  <si>
+    <t>PurchaseType</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>ConfigDeliveryType</t>
+  </si>
+  <si>
+    <t>DeliveryType</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>MultipleCurrencies</t>
+  </si>
+  <si>
+    <t>OtherFee</t>
+  </si>
+  <si>
+    <t>TellerName</t>
+  </si>
+  <si>
+    <t>CollectionDate</t>
+  </si>
+  <si>
+    <t>DeliveryFee</t>
+  </si>
+  <si>
+    <t>AuthUname</t>
+  </si>
+  <si>
+    <t>AuthPwd</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Chelsea Groton Bank</t>
+  </si>
+  <si>
+    <t>Account Holder</t>
+  </si>
+  <si>
+    <t>Test Test</t>
+  </si>
+  <si>
+    <t>AutoTest</t>
+  </si>
+  <si>
+    <t>testuser</t>
+  </si>
+  <si>
+    <t>Next Day - Home Branch</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Australian Dollar#1000#5,10#100,50</t>
+  </si>
+  <si>
+    <t>AutoChelsea1</t>
+  </si>
+  <si>
+    <t>AutoChelsea2</t>
+  </si>
+  <si>
+    <t>Pluto purchase order</t>
+  </si>
+  <si>
+    <t>Pluto Sale order</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>PurchaseOrder</t>
+  </si>
+  <si>
+    <t>SaleOrder</t>
+  </si>
+  <si>
+    <t>TransType</t>
+  </si>
+  <si>
+    <t>29668</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Australian Dollar#1000#NA#NA|Foreign Currency#Canadian Dollar#1000#NA#NA|Foreign Currency#Euro#1000#NA#NA</t>
   </si>
 </sst>
 </file>
@@ -2425,7 +4522,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2492,8 +4589,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2516,11 +4625,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2560,6 +4706,31 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2864,9 +5035,9 @@
   <dimension ref="A1:AJ135"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17772,9 +19943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30410,4 +32581,5360 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H364"/>
+  <sheetViews>
+    <sheetView topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="G361" sqref="G361"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="81.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>686</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>687</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>688</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>689</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>690</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>692</v>
+      </c>
+      <c r="C2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>695</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>692</v>
+      </c>
+      <c r="C3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>697</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>698</v>
+      </c>
+      <c r="C4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D4" t="s">
+        <v>700</v>
+      </c>
+      <c r="E4" t="s">
+        <v>545</v>
+      </c>
+      <c r="F4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>702</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>698</v>
+      </c>
+      <c r="C5" t="s">
+        <v>703</v>
+      </c>
+      <c r="D5" t="s">
+        <v>700</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>705</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>698</v>
+      </c>
+      <c r="C6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D6" t="s">
+        <v>694</v>
+      </c>
+      <c r="E6" t="s">
+        <v>545</v>
+      </c>
+      <c r="F6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>707</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>708</v>
+      </c>
+      <c r="C7" t="s">
+        <v>709</v>
+      </c>
+      <c r="D7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>711</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>692</v>
+      </c>
+      <c r="C8" t="s">
+        <v>712</v>
+      </c>
+      <c r="D8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>713</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>715</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>717</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>722</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>724</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>726</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>727</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>694</v>
+      </c>
+      <c r="E16" t="s">
+        <v>545</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>729</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>731</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>733</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>735</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>736</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>694</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>738</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>740</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>745</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>694</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>747</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
+        <v>749</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>750</v>
+      </c>
+      <c r="C26" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
+        <v>752</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>753</v>
+      </c>
+      <c r="C27" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>756</v>
+      </c>
+      <c r="C28" t="s">
+        <v>757</v>
+      </c>
+      <c r="D28" t="s">
+        <v>694</v>
+      </c>
+      <c r="E28" t="s">
+        <v>758</v>
+      </c>
+      <c r="F28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
+        <v>760</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="C29" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>764</v>
+      </c>
+      <c r="D30" t="s">
+        <v>694</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>773</v>
+      </c>
+      <c r="D34" t="s">
+        <v>694</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>775</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>782</v>
+      </c>
+      <c r="D38" t="s">
+        <v>694</v>
+      </c>
+      <c r="E38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>786</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>791</v>
+      </c>
+      <c r="D42" t="s">
+        <v>694</v>
+      </c>
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
+        <v>800</v>
+      </c>
+      <c r="D46" t="s">
+        <v>694</v>
+      </c>
+      <c r="E46" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" t="s">
+        <v>809</v>
+      </c>
+      <c r="D50" t="s">
+        <v>694</v>
+      </c>
+      <c r="E50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" t="s">
+        <v>818</v>
+      </c>
+      <c r="D54" t="s">
+        <v>694</v>
+      </c>
+      <c r="E54" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="47" t="s">
+        <v>822</v>
+      </c>
+      <c r="B56" s="47" t="s">
+        <v>823</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="47" t="s">
+        <v>825</v>
+      </c>
+      <c r="B57" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="47" t="s">
+        <v>827</v>
+      </c>
+      <c r="B58" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>828</v>
+      </c>
+      <c r="D58" t="s">
+        <v>694</v>
+      </c>
+      <c r="E58" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="47" t="s">
+        <v>830</v>
+      </c>
+      <c r="B59" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="47" t="s">
+        <v>832</v>
+      </c>
+      <c r="B60" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="47" t="s">
+        <v>834</v>
+      </c>
+      <c r="B61" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="48" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="47" t="s">
+        <v>836</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="49" t="s">
+        <v>837</v>
+      </c>
+      <c r="D62" t="s">
+        <v>694</v>
+      </c>
+      <c r="E62" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="47" t="s">
+        <v>839</v>
+      </c>
+      <c r="B63" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="49" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="47" t="s">
+        <v>841</v>
+      </c>
+      <c r="B64" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="49" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="47" t="s">
+        <v>843</v>
+      </c>
+      <c r="B65" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="49" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="47" t="s">
+        <v>845</v>
+      </c>
+      <c r="B66" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="49" t="s">
+        <v>846</v>
+      </c>
+      <c r="D66" t="s">
+        <v>694</v>
+      </c>
+      <c r="E66" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="47" t="s">
+        <v>848</v>
+      </c>
+      <c r="B67" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="47" t="s">
+        <v>850</v>
+      </c>
+      <c r="B68" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="49" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="47" t="s">
+        <v>852</v>
+      </c>
+      <c r="B69" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="49" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="47" t="s">
+        <v>854</v>
+      </c>
+      <c r="B70" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="49" t="s">
+        <v>855</v>
+      </c>
+      <c r="D70" t="s">
+        <v>694</v>
+      </c>
+      <c r="E70" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" t="s">
+        <v>84</v>
+      </c>
+      <c r="G70" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="47" t="s">
+        <v>857</v>
+      </c>
+      <c r="B71" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="49" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="47" t="s">
+        <v>859</v>
+      </c>
+      <c r="B72" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="49" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="47" t="s">
+        <v>861</v>
+      </c>
+      <c r="B73" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="49" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="47" t="s">
+        <v>863</v>
+      </c>
+      <c r="B74" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="49" t="s">
+        <v>864</v>
+      </c>
+      <c r="D74" t="s">
+        <v>694</v>
+      </c>
+      <c r="E74" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" t="s">
+        <v>84</v>
+      </c>
+      <c r="G74" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="47" t="s">
+        <v>866</v>
+      </c>
+      <c r="B75" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="49" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="47" t="s">
+        <v>868</v>
+      </c>
+      <c r="B76" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="49" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="47" t="s">
+        <v>870</v>
+      </c>
+      <c r="B77" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C77" s="49" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="47" t="s">
+        <v>872</v>
+      </c>
+      <c r="B78" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="49" t="s">
+        <v>873</v>
+      </c>
+      <c r="D78" t="s">
+        <v>694</v>
+      </c>
+      <c r="E78" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" t="s">
+        <v>84</v>
+      </c>
+      <c r="G78" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="47" t="s">
+        <v>875</v>
+      </c>
+      <c r="B79" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="49" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="47" t="s">
+        <v>877</v>
+      </c>
+      <c r="B80" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" s="49" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="47" t="s">
+        <v>879</v>
+      </c>
+      <c r="B81" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" s="49" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="47" t="s">
+        <v>881</v>
+      </c>
+      <c r="B82" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="49" t="s">
+        <v>882</v>
+      </c>
+      <c r="D82" t="s">
+        <v>694</v>
+      </c>
+      <c r="E82" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" t="s">
+        <v>84</v>
+      </c>
+      <c r="G82" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="47" t="s">
+        <v>884</v>
+      </c>
+      <c r="B83" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="49" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="47" t="s">
+        <v>886</v>
+      </c>
+      <c r="B84" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="49" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="47" t="s">
+        <v>888</v>
+      </c>
+      <c r="B85" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" s="49" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="47" t="s">
+        <v>890</v>
+      </c>
+      <c r="B86" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="49" t="s">
+        <v>891</v>
+      </c>
+      <c r="D86" t="s">
+        <v>694</v>
+      </c>
+      <c r="E86" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" t="s">
+        <v>84</v>
+      </c>
+      <c r="G86" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="47" t="s">
+        <v>893</v>
+      </c>
+      <c r="B87" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" s="49" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="47" t="s">
+        <v>895</v>
+      </c>
+      <c r="B88" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C88" s="49" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="47" t="s">
+        <v>897</v>
+      </c>
+      <c r="B89" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" s="49" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="47" t="s">
+        <v>899</v>
+      </c>
+      <c r="B90" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="49" t="s">
+        <v>900</v>
+      </c>
+      <c r="D90" t="s">
+        <v>694</v>
+      </c>
+      <c r="E90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F90" t="s">
+        <v>84</v>
+      </c>
+      <c r="G90" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="47" t="s">
+        <v>902</v>
+      </c>
+      <c r="B91" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="49" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="47" t="s">
+        <v>904</v>
+      </c>
+      <c r="B92" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" s="49" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="47" t="s">
+        <v>906</v>
+      </c>
+      <c r="B93" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C93" s="49" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="47" t="s">
+        <v>908</v>
+      </c>
+      <c r="B94" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="49" t="s">
+        <v>909</v>
+      </c>
+      <c r="D94" t="s">
+        <v>694</v>
+      </c>
+      <c r="E94" t="s">
+        <v>91</v>
+      </c>
+      <c r="F94" t="s">
+        <v>84</v>
+      </c>
+      <c r="G94" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="47" t="s">
+        <v>911</v>
+      </c>
+      <c r="B95" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C95" s="49" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="47" t="s">
+        <v>913</v>
+      </c>
+      <c r="B96" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" s="49" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="47" t="s">
+        <v>915</v>
+      </c>
+      <c r="B97" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" s="49" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="47" t="s">
+        <v>917</v>
+      </c>
+      <c r="B98" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" s="49" t="s">
+        <v>918</v>
+      </c>
+      <c r="D98" t="s">
+        <v>694</v>
+      </c>
+      <c r="E98" t="s">
+        <v>91</v>
+      </c>
+      <c r="F98" t="s">
+        <v>84</v>
+      </c>
+      <c r="G98" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="B99" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="49" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="50" t="s">
+        <v>922</v>
+      </c>
+      <c r="B100" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" s="51" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="50" t="s">
+        <v>924</v>
+      </c>
+      <c r="B101" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" s="51" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="50" t="s">
+        <v>926</v>
+      </c>
+      <c r="B102" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" s="51" t="s">
+        <v>927</v>
+      </c>
+      <c r="D102" t="s">
+        <v>694</v>
+      </c>
+      <c r="E102" t="s">
+        <v>91</v>
+      </c>
+      <c r="F102" t="s">
+        <v>84</v>
+      </c>
+      <c r="G102" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="50" t="s">
+        <v>929</v>
+      </c>
+      <c r="B103" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C103" s="51" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="50" t="s">
+        <v>931</v>
+      </c>
+      <c r="B104" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C104" s="52" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="50" t="s">
+        <v>932</v>
+      </c>
+      <c r="B105" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105" s="52" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="50" t="s">
+        <v>933</v>
+      </c>
+      <c r="B106" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C106" s="52" t="s">
+        <v>873</v>
+      </c>
+      <c r="E106" t="s">
+        <v>91</v>
+      </c>
+      <c r="F106" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="50" t="s">
+        <v>934</v>
+      </c>
+      <c r="B107" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" s="52" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="53" t="s">
+        <v>935</v>
+      </c>
+      <c r="B108" s="50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="53" t="s">
+        <v>936</v>
+      </c>
+      <c r="B109" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="53" t="s">
+        <v>937</v>
+      </c>
+      <c r="B110" s="50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="53" t="s">
+        <v>938</v>
+      </c>
+      <c r="B111" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" s="51" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="53" t="s">
+        <v>940</v>
+      </c>
+      <c r="B112" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" s="51" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="53" t="s">
+        <v>942</v>
+      </c>
+      <c r="B113" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" s="51" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="53" t="s">
+        <v>944</v>
+      </c>
+      <c r="B114" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C114" s="51" t="s">
+        <v>945</v>
+      </c>
+      <c r="D114" t="s">
+        <v>694</v>
+      </c>
+      <c r="E114" t="s">
+        <v>91</v>
+      </c>
+      <c r="F114" t="s">
+        <v>84</v>
+      </c>
+      <c r="G114" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="53" t="s">
+        <v>947</v>
+      </c>
+      <c r="B115" s="50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="50" t="s">
+        <v>948</v>
+      </c>
+      <c r="B116" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C116" s="52" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="50" t="s">
+        <v>950</v>
+      </c>
+      <c r="B117" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C117" s="52" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="50" t="s">
+        <v>952</v>
+      </c>
+      <c r="B118" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C118" s="52" t="s">
+        <v>953</v>
+      </c>
+      <c r="D118" t="s">
+        <v>694</v>
+      </c>
+      <c r="E118" t="s">
+        <v>91</v>
+      </c>
+      <c r="F118" t="s">
+        <v>84</v>
+      </c>
+      <c r="G118" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="50" t="s">
+        <v>955</v>
+      </c>
+      <c r="B119" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C119" s="52" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="50" t="s">
+        <v>957</v>
+      </c>
+      <c r="B120" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C120" s="52" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="50" t="s">
+        <v>959</v>
+      </c>
+      <c r="B121" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121" s="51" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="50" t="s">
+        <v>961</v>
+      </c>
+      <c r="B122" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C122" s="52" t="s">
+        <v>962</v>
+      </c>
+      <c r="D122" t="s">
+        <v>694</v>
+      </c>
+      <c r="E122" t="s">
+        <v>91</v>
+      </c>
+      <c r="F122" t="s">
+        <v>84</v>
+      </c>
+      <c r="G122" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="50" t="s">
+        <v>964</v>
+      </c>
+      <c r="B123" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C123" s="52" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="50" t="s">
+        <v>966</v>
+      </c>
+      <c r="B124" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C124" s="52" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="50" t="s">
+        <v>968</v>
+      </c>
+      <c r="B125" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C125" s="52" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="50" t="s">
+        <v>970</v>
+      </c>
+      <c r="B126" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C126" s="50" t="s">
+        <v>971</v>
+      </c>
+      <c r="E126" t="s">
+        <v>91</v>
+      </c>
+      <c r="F126" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="50" t="s">
+        <v>972</v>
+      </c>
+      <c r="B127" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C127" s="50" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="50" t="s">
+        <v>974</v>
+      </c>
+      <c r="B128" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C128" s="50" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="50" t="s">
+        <v>976</v>
+      </c>
+      <c r="B129" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C129" s="50" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="50" t="s">
+        <v>978</v>
+      </c>
+      <c r="B130" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C130" s="50" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="50" t="s">
+        <v>980</v>
+      </c>
+      <c r="B131" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C131" s="50" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="50" t="s">
+        <v>982</v>
+      </c>
+      <c r="B132" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" s="50" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="50" t="s">
+        <v>984</v>
+      </c>
+      <c r="B133" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C133" s="50" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="50" t="s">
+        <v>986</v>
+      </c>
+      <c r="B134" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C134" s="50" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="50" t="s">
+        <v>988</v>
+      </c>
+      <c r="B135" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C135" s="50" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="50" t="s">
+        <v>990</v>
+      </c>
+      <c r="B136" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C136" s="50" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="50" t="s">
+        <v>992</v>
+      </c>
+      <c r="B137" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" s="50" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="50" t="s">
+        <v>994</v>
+      </c>
+      <c r="B138" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C138" s="50" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="50" t="s">
+        <v>996</v>
+      </c>
+      <c r="B139" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C139" s="50" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="50" t="s">
+        <v>998</v>
+      </c>
+      <c r="B140" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C140" s="50" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="50" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B141" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C141" s="50" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E141" t="s">
+        <v>758</v>
+      </c>
+      <c r="F141" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="50" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B142" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C142" s="50" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E142" t="s">
+        <v>91</v>
+      </c>
+      <c r="F142" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D145" t="s">
+        <v>694</v>
+      </c>
+      <c r="E145" t="s">
+        <v>545</v>
+      </c>
+      <c r="F145" t="s">
+        <v>84</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="12" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="12" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E147" t="s">
+        <v>545</v>
+      </c>
+      <c r="F147" t="s">
+        <v>111</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="12" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E148" t="s">
+        <v>81</v>
+      </c>
+      <c r="F148" t="s">
+        <v>116</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="26" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="26" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="26" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E153" t="s">
+        <v>91</v>
+      </c>
+      <c r="F153" t="s">
+        <v>81</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="26" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="26" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="26" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="26" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D157" t="s">
+        <v>694</v>
+      </c>
+      <c r="E157" t="s">
+        <v>91</v>
+      </c>
+      <c r="F157" t="s">
+        <v>116</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="54" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="54" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E159" t="s">
+        <v>545</v>
+      </c>
+      <c r="F159" t="s">
+        <v>111</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="54" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E160" t="s">
+        <v>91</v>
+      </c>
+      <c r="F160" t="s">
+        <v>116</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="54" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="54" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="26" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="26" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="26" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D165" t="s">
+        <v>694</v>
+      </c>
+      <c r="E165" t="s">
+        <v>91</v>
+      </c>
+      <c r="F165" t="s">
+        <v>81</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="26" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="26" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="26" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="26" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="26" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="26" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D171" t="s">
+        <v>694</v>
+      </c>
+      <c r="E171" t="s">
+        <v>758</v>
+      </c>
+      <c r="F171" t="s">
+        <v>84</v>
+      </c>
+      <c r="G171" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="26" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="26" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E173" t="s">
+        <v>91</v>
+      </c>
+      <c r="F173" t="s">
+        <v>111</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="26" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E174" t="s">
+        <v>545</v>
+      </c>
+      <c r="F174" t="s">
+        <v>116</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="26" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="26" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="26" t="s">
+        <v>722</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="26" t="s">
+        <v>724</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="26" t="s">
+        <v>726</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C179" t="s">
+        <v>727</v>
+      </c>
+      <c r="E179" t="s">
+        <v>545</v>
+      </c>
+      <c r="F179" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="26" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E181" t="s">
+        <v>545</v>
+      </c>
+      <c r="F181" t="s">
+        <v>111</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="26" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E182" t="s">
+        <v>545</v>
+      </c>
+      <c r="F182" t="s">
+        <v>116</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="26" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="26" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="26" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="26" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D187" t="s">
+        <v>694</v>
+      </c>
+      <c r="E187" t="s">
+        <v>545</v>
+      </c>
+      <c r="F187" t="s">
+        <v>81</v>
+      </c>
+      <c r="G187" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H187" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="26" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="26" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="26" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C193" t="s">
+        <v>736</v>
+      </c>
+      <c r="E193" t="s">
+        <v>91</v>
+      </c>
+      <c r="F193" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="26" t="s">
+        <v>738</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="26" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="26" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E197" t="s">
+        <v>91</v>
+      </c>
+      <c r="F197" t="s">
+        <v>116</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="26" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="26" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="26" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="26" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="26" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="26" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="26" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="26" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="26" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="26" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E207" t="s">
+        <v>545</v>
+      </c>
+      <c r="F207" t="s">
+        <v>116</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="26" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="26" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E209" t="s">
+        <v>81</v>
+      </c>
+      <c r="F209" t="s">
+        <v>111</v>
+      </c>
+      <c r="H209" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="26" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E210" t="s">
+        <v>91</v>
+      </c>
+      <c r="F210" t="s">
+        <v>116</v>
+      </c>
+      <c r="H210" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="26" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="26" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="26" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="26" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="26" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E215" t="s">
+        <v>91</v>
+      </c>
+      <c r="F215" t="s">
+        <v>81</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="26" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="26" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="26" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="26" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="26" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="26" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E221" t="s">
+        <v>758</v>
+      </c>
+      <c r="F221" t="s">
+        <v>84</v>
+      </c>
+      <c r="H221" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="26" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="26" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="26" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="26" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E225" t="s">
+        <v>545</v>
+      </c>
+      <c r="F225" t="s">
+        <v>84</v>
+      </c>
+      <c r="H225" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="26" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="26" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="26" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="26" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E229" t="s">
+        <v>545</v>
+      </c>
+      <c r="F229" t="s">
+        <v>81</v>
+      </c>
+      <c r="H229" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="26" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="26" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E231" t="s">
+        <v>91</v>
+      </c>
+      <c r="F231" t="s">
+        <v>111</v>
+      </c>
+      <c r="H231" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="26" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E232" t="s">
+        <v>91</v>
+      </c>
+      <c r="F232" t="s">
+        <v>116</v>
+      </c>
+      <c r="H232" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="26" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="26" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="26" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="26" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="26" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E237" t="s">
+        <v>91</v>
+      </c>
+      <c r="F237" t="s">
+        <v>81</v>
+      </c>
+      <c r="H237" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="26" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="26" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="26" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="26" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="26" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="26" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="26" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="26" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="26" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="26" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E247" t="s">
+        <v>91</v>
+      </c>
+      <c r="F247" t="s">
+        <v>116</v>
+      </c>
+      <c r="H247" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="26" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="26" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="26" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="26" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E251" t="s">
+        <v>545</v>
+      </c>
+      <c r="F251" t="s">
+        <v>116</v>
+      </c>
+      <c r="H251" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="26" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="26" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="26" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="26" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E255" t="s">
+        <v>91</v>
+      </c>
+      <c r="F255" t="s">
+        <v>81</v>
+      </c>
+      <c r="H255" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="26" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C257" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C258" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C259" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C260" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C261" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C262" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C263" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C264" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C265" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C266" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C267" t="s">
+        <v>447</v>
+      </c>
+      <c r="E267" t="s">
+        <v>91</v>
+      </c>
+      <c r="F267" t="s">
+        <v>116</v>
+      </c>
+      <c r="H267" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C268" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C269" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C270" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C271" t="s">
+        <v>549</v>
+      </c>
+      <c r="E271" t="s">
+        <v>91</v>
+      </c>
+      <c r="F271" t="s">
+        <v>81</v>
+      </c>
+      <c r="H271" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C272" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C273" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C274" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C275" t="s">
+        <v>462</v>
+      </c>
+      <c r="D275" t="s">
+        <v>694</v>
+      </c>
+      <c r="E275" t="s">
+        <v>91</v>
+      </c>
+      <c r="F275" t="s">
+        <v>81</v>
+      </c>
+      <c r="G275" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H275" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C276" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C277" t="s">
+        <v>468</v>
+      </c>
+      <c r="D277" t="s">
+        <v>694</v>
+      </c>
+      <c r="E277" t="s">
+        <v>545</v>
+      </c>
+      <c r="F277" t="s">
+        <v>111</v>
+      </c>
+      <c r="G277" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H277" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C278" t="s">
+        <v>471</v>
+      </c>
+      <c r="D278" t="s">
+        <v>694</v>
+      </c>
+      <c r="E278" t="s">
+        <v>91</v>
+      </c>
+      <c r="F278" t="s">
+        <v>116</v>
+      </c>
+      <c r="G278" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H278" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C279" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C280" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C281" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C282" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C283" t="s">
+        <v>486</v>
+      </c>
+      <c r="D283" t="s">
+        <v>694</v>
+      </c>
+      <c r="E283" t="s">
+        <v>758</v>
+      </c>
+      <c r="F283" t="s">
+        <v>84</v>
+      </c>
+      <c r="G283" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H283" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C284" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C285" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C286" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C287" t="s">
+        <v>495</v>
+      </c>
+      <c r="D287" t="s">
+        <v>694</v>
+      </c>
+      <c r="E287" t="s">
+        <v>91</v>
+      </c>
+      <c r="F287" t="s">
+        <v>81</v>
+      </c>
+      <c r="G287" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H287" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C288" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C289" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C290" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C291" t="s">
+        <v>575</v>
+      </c>
+      <c r="D291" t="s">
+        <v>694</v>
+      </c>
+      <c r="E291" t="s">
+        <v>545</v>
+      </c>
+      <c r="F291" t="s">
+        <v>81</v>
+      </c>
+      <c r="G291" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H291" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C292" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C293" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C294" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C295" t="s">
+        <v>555</v>
+      </c>
+      <c r="D295" t="s">
+        <v>694</v>
+      </c>
+      <c r="E295" t="s">
+        <v>545</v>
+      </c>
+      <c r="F295" t="s">
+        <v>116</v>
+      </c>
+      <c r="G295" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H295" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C296" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C297" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C298" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C299" t="s">
+        <v>508</v>
+      </c>
+      <c r="D299" t="s">
+        <v>694</v>
+      </c>
+      <c r="E299" t="s">
+        <v>91</v>
+      </c>
+      <c r="F299" t="s">
+        <v>81</v>
+      </c>
+      <c r="G299" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H299" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C300" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C301" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C302" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C303" t="s">
+        <v>516</v>
+      </c>
+      <c r="D303" t="s">
+        <v>694</v>
+      </c>
+      <c r="E303" t="s">
+        <v>545</v>
+      </c>
+      <c r="F303" t="s">
+        <v>84</v>
+      </c>
+      <c r="G303" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H303" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C304" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C305" t="s">
+        <v>522</v>
+      </c>
+      <c r="D305" t="s">
+        <v>694</v>
+      </c>
+      <c r="E305" t="s">
+        <v>91</v>
+      </c>
+      <c r="F305" t="s">
+        <v>111</v>
+      </c>
+      <c r="G305" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H305" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C306" t="s">
+        <v>525</v>
+      </c>
+      <c r="D306" t="s">
+        <v>694</v>
+      </c>
+      <c r="E306" t="s">
+        <v>545</v>
+      </c>
+      <c r="F306" t="s">
+        <v>116</v>
+      </c>
+      <c r="G306" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H306" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C307" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C308" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C309" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C310" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C311" t="s">
+        <v>538</v>
+      </c>
+      <c r="D311" t="s">
+        <v>694</v>
+      </c>
+      <c r="E311" t="s">
+        <v>545</v>
+      </c>
+      <c r="F311" t="s">
+        <v>81</v>
+      </c>
+      <c r="G311" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H311" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C312" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D313" t="s">
+        <v>694</v>
+      </c>
+      <c r="E313" t="s">
+        <v>545</v>
+      </c>
+      <c r="F313" t="s">
+        <v>111</v>
+      </c>
+      <c r="G313" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H313" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D314" t="s">
+        <v>694</v>
+      </c>
+      <c r="E314" t="s">
+        <v>545</v>
+      </c>
+      <c r="F314" t="s">
+        <v>116</v>
+      </c>
+      <c r="G314" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H314" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D319" t="s">
+        <v>694</v>
+      </c>
+      <c r="E319" t="s">
+        <v>91</v>
+      </c>
+      <c r="F319" t="s">
+        <v>81</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H319" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D321" t="s">
+        <v>694</v>
+      </c>
+      <c r="E321" t="s">
+        <v>81</v>
+      </c>
+      <c r="F321" t="s">
+        <v>111</v>
+      </c>
+      <c r="G321" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H321" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D322" t="s">
+        <v>694</v>
+      </c>
+      <c r="E322" t="s">
+        <v>91</v>
+      </c>
+      <c r="F322" t="s">
+        <v>116</v>
+      </c>
+      <c r="G322" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H322" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D327" t="s">
+        <v>694</v>
+      </c>
+      <c r="E327" t="s">
+        <v>91</v>
+      </c>
+      <c r="F327" t="s">
+        <v>116</v>
+      </c>
+      <c r="G327" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H327" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D329" t="s">
+        <v>694</v>
+      </c>
+      <c r="E329" t="s">
+        <v>91</v>
+      </c>
+      <c r="F329" t="s">
+        <v>111</v>
+      </c>
+      <c r="G329" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H329" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D330" t="s">
+        <v>694</v>
+      </c>
+      <c r="E330" t="s">
+        <v>91</v>
+      </c>
+      <c r="F330" t="s">
+        <v>116</v>
+      </c>
+      <c r="G330" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H330" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D335" t="s">
+        <v>694</v>
+      </c>
+      <c r="E335" t="s">
+        <v>545</v>
+      </c>
+      <c r="F335" t="s">
+        <v>116</v>
+      </c>
+      <c r="G335" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H335" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D337" t="s">
+        <v>694</v>
+      </c>
+      <c r="E337" t="s">
+        <v>545</v>
+      </c>
+      <c r="F337" t="s">
+        <v>111</v>
+      </c>
+      <c r="G337" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H337" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D338" t="s">
+        <v>694</v>
+      </c>
+      <c r="E338" t="s">
+        <v>81</v>
+      </c>
+      <c r="F338" t="s">
+        <v>116</v>
+      </c>
+      <c r="G338" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H338" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A340" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A341" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A342" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D343" t="s">
+        <v>694</v>
+      </c>
+      <c r="E343" t="s">
+        <v>758</v>
+      </c>
+      <c r="F343" t="s">
+        <v>84</v>
+      </c>
+      <c r="G343" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H343" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A345" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A346" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A347" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D347" t="s">
+        <v>694</v>
+      </c>
+      <c r="E347" t="s">
+        <v>91</v>
+      </c>
+      <c r="F347" t="s">
+        <v>81</v>
+      </c>
+      <c r="G347" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H347" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A348" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A349" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A350" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A351" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D351" t="s">
+        <v>694</v>
+      </c>
+      <c r="E351" t="s">
+        <v>758</v>
+      </c>
+      <c r="F351" t="s">
+        <v>84</v>
+      </c>
+      <c r="G351" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H351" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A352" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A353" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A354" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A355" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A356" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D357" t="s">
+        <v>694</v>
+      </c>
+      <c r="E357" t="s">
+        <v>545</v>
+      </c>
+      <c r="F357" t="s">
+        <v>84</v>
+      </c>
+      <c r="G357" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H357" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A358" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A359" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A360" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A361" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D361" t="s">
+        <v>694</v>
+      </c>
+      <c r="E361" t="s">
+        <v>545</v>
+      </c>
+      <c r="F361" t="s">
+        <v>81</v>
+      </c>
+      <c r="G361" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H361" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A362" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A363" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>1314</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>1315</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>1316</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>1317</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>1340</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>1324</v>
+      </c>
+      <c r="Q2" s="55" t="s">
+        <v>710</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>1325</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>1326</v>
+      </c>
+      <c r="V2" s="57" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>1327</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>1328</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>1324</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>1325</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="56" t="s">
+        <v>710</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>1326</v>
+      </c>
+      <c r="V3" s="57" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/DataSheet/Data.xlsx
+++ b/src/test/resources/DataSheet/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5685" windowWidth="11520" windowHeight="1170" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="5685" windowWidth="11520" windowHeight="1170" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OrderDetails" sheetId="5" r:id="rId1"/>
@@ -425,7 +425,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10163" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10257" uniqueCount="1207">
   <si>
     <t>AutomationID</t>
   </si>
@@ -3943,18 +3943,12 @@
     <t>Test Test</t>
   </si>
   <si>
-    <t>AutoTest</t>
-  </si>
-  <si>
     <t>testuser</t>
   </si>
   <si>
     <t>Next Day - Home Branch</t>
   </si>
   <si>
-    <t>Foreign Currency#Australian Dollar#1000#5,10#100,50</t>
-  </si>
-  <si>
     <t>AutoChelsea1</t>
   </si>
   <si>
@@ -3995,6 +3989,63 @@
   </si>
   <si>
     <t>ShippingCharge</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Canadian Dollar#1000#5,10#100,50</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>HomeTelephoneNo</t>
+  </si>
+  <si>
+    <t>Travelex</t>
+  </si>
+  <si>
+    <t>Paradigam</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>United States Of America - USA</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>AwayBranchLocation</t>
+  </si>
+  <si>
+    <t>AlternateTeller</t>
+  </si>
+  <si>
+    <t>AlternateTellerName</t>
+  </si>
+  <si>
+    <t>CollectionCheck</t>
+  </si>
+  <si>
+    <t>ConfigAdditionalInfo</t>
+  </si>
+  <si>
+    <t>AutoChelsea3</t>
+  </si>
+  <si>
+    <t>Drafts#Australian Dollar#1000#BenificiaryName,Address1,Address2,Mumbai,UNITED STATES OF AMERICA,California,517214,DraftComment</t>
+  </si>
+  <si>
+    <t>AutoChelsea4</t>
+  </si>
+  <si>
+    <t>Checks#Canadian Dollar#1000</t>
   </si>
 </sst>
 </file>
@@ -19492,7 +19543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AH3" sqref="AH3"/>
     </sheetView>
@@ -19629,10 +19680,10 @@
         <v>87</v>
       </c>
       <c r="AF1" s="6" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="AG1" s="6" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="AH1" s="6" t="s">
         <v>105</v>
@@ -37085,10 +37136,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37103,19 +37154,26 @@
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="131.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.42578125" customWidth="1"/>
+    <col min="19" max="19" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="17.42578125" customWidth="1"/>
+    <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -37123,7 +37181,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -37150,61 +37208,84 @@
         <v>1159</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>1160</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>1161</v>
-      </c>
       <c r="P1" s="6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AA1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>1164</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>1165</v>
-      </c>
-      <c r="U1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>1166</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>1167</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>1176</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>1178</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>1180</v>
-      </c>
       <c r="E2" s="26" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>1168</v>
@@ -37222,57 +37303,87 @@
         <v>43</v>
       </c>
       <c r="K2" s="55" t="s">
+        <v>1183</v>
+      </c>
+      <c r="L2" s="26" t="s">
         <v>1185</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="M2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="N2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="O2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="26" t="s">
-        <v>1187</v>
-      </c>
       <c r="P2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="W2" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="55" t="s">
+        <v>1199</v>
+      </c>
+      <c r="Z2" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="26" t="s">
         <v>1171</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="AB2" s="55" t="s">
         <v>557</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="AC2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="26" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AE2" s="26" t="s">
         <v>1172</v>
       </c>
-      <c r="S2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="26" t="s">
-        <v>1173</v>
-      </c>
-      <c r="V2" s="57" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AF2" s="57" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>1177</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="26" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>1179</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>1181</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>43</v>
@@ -37287,43 +37398,269 @@
         <v>11</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="K3" s="55" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>43</v>
+        <v>1188</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N3" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>1175</v>
+        <v>42</v>
       </c>
       <c r="P3" s="26" t="s">
+        <v>1193</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>1194</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>1195</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>1196</v>
+      </c>
+      <c r="T3" s="55" t="s">
+        <v>1197</v>
+      </c>
+      <c r="U3" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="V3" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="W3" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="55" t="s">
+        <v>1199</v>
+      </c>
+      <c r="Z3" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" s="26" t="s">
         <v>1171</v>
       </c>
-      <c r="Q3" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="26" t="s">
+      <c r="AB3" s="56" t="s">
+        <v>557</v>
+      </c>
+      <c r="AC3" s="56" t="s">
+        <v>557</v>
+      </c>
+      <c r="AD3" s="26" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AE3" s="26" t="s">
         <v>1172</v>
       </c>
-      <c r="S3" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="56" t="s">
+      <c r="AF3" s="57" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>1183</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>1204</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>1193</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>1194</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>1195</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>1196</v>
+      </c>
+      <c r="T4" s="55" t="s">
+        <v>1197</v>
+      </c>
+      <c r="U4" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="V4" s="55" t="s">
         <v>557</v>
       </c>
-      <c r="U3" s="26" t="s">
-        <v>1173</v>
-      </c>
-      <c r="V3" s="57" t="s">
-        <v>1186</v>
+      <c r="W4" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" s="55" t="s">
+        <v>1199</v>
+      </c>
+      <c r="Z4" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="26" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AB4" s="56" t="s">
+        <v>557</v>
+      </c>
+      <c r="AC4" s="56" t="s">
+        <v>557</v>
+      </c>
+      <c r="AD4" s="26" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AE4" s="26" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AF4" s="57" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>1183</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="W5" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" s="55" t="s">
+        <v>1199</v>
+      </c>
+      <c r="Z5" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA5" s="26" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AB5" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="AC5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD5" s="26" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AE5" s="26" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AF5" s="57" t="s">
+        <v>1184</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/DataSheet/Data.xlsx
+++ b/src/test/resources/DataSheet/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5685" windowWidth="11520" windowHeight="1170" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="5745" windowWidth="11520" windowHeight="1170" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OrderDetails" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Surve, Pravin:</t>
         </r>
@@ -43,7 +43,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 INV</t>
@@ -58,7 +58,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Surve, Pravin:</t>
         </r>
@@ -67,7 +67,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 INV</t>
@@ -82,7 +82,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Surve, Pravin:</t>
         </r>
@@ -91,7 +91,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 INV</t>
@@ -106,7 +106,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Surve, Pravin:</t>
         </r>
@@ -115,7 +115,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 INV</t>
@@ -154,7 +154,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Surve, Pravin:</t>
         </r>
@@ -163,7 +163,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 INV</t>
@@ -202,7 +202,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Surve, Pravin:</t>
         </r>
@@ -211,7 +211,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 INV</t>
@@ -226,7 +226,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Surve, Pravin:</t>
         </r>
@@ -235,7 +235,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 INV</t>
@@ -274,7 +274,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Surve, Pravin:</t>
         </r>
@@ -283,7 +283,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 INV</t>
@@ -424,8 +424,70 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Surve, Pravin</author>
+  </authors>
+  <commentList>
+    <comment ref="V1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Travelex Louisville
+Format:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Address 1#Address 2#Address 3#City#State#Telephone#ZipCode</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Format:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0 = today
+1 = tomorrow
+and so on.
+Max is 8</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10257" uniqueCount="1207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10889" uniqueCount="1284">
   <si>
     <t>AutomationID</t>
   </si>
@@ -3940,27 +4002,12 @@
     <t>Account Holder</t>
   </si>
   <si>
-    <t>Test Test</t>
-  </si>
-  <si>
     <t>testuser</t>
   </si>
   <si>
     <t>Next Day - Home Branch</t>
   </si>
   <si>
-    <t>AutoChelsea1</t>
-  </si>
-  <si>
-    <t>AutoChelsea2</t>
-  </si>
-  <si>
-    <t>Pluto purchase order</t>
-  </si>
-  <si>
-    <t>Pluto Sale order</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
@@ -3979,12 +4026,6 @@
     <t>29668</t>
   </si>
   <si>
-    <t>Test@123</t>
-  </si>
-  <si>
-    <t>Foreign Currency#Australian Dollar#1000#NA#NA|Foreign Currency#Canadian Dollar#1000#NA#NA|Foreign Currency#Euro#1000#NA#NA</t>
-  </si>
-  <si>
     <t>ServiceCharge</t>
   </si>
   <si>
@@ -4036,23 +4077,275 @@
     <t>ConfigAdditionalInfo</t>
   </si>
   <si>
-    <t>AutoChelsea3</t>
-  </si>
-  <si>
-    <t>Drafts#Australian Dollar#1000#BenificiaryName,Address1,Address2,Mumbai,UNITED STATES OF AMERICA,California,517214,DraftComment</t>
-  </si>
-  <si>
-    <t>AutoChelsea4</t>
-  </si>
-  <si>
-    <t>Checks#Canadian Dollar#1000</t>
+    <t>AutoChelsea_2</t>
+  </si>
+  <si>
+    <t>Purchase | Checks | Single |</t>
+  </si>
+  <si>
+    <t>Customer Type 1</t>
+  </si>
+  <si>
+    <t>AutoChelsea_3</t>
+  </si>
+  <si>
+    <t>29669</t>
+  </si>
+  <si>
+    <t>AutoChelsea_4</t>
+  </si>
+  <si>
+    <t>Purchase | FC+Checks | Mixed |</t>
+  </si>
+  <si>
+    <t>Non-Account Holder</t>
+  </si>
+  <si>
+    <t>29670</t>
+  </si>
+  <si>
+    <t>AutoChelsea_5</t>
+  </si>
+  <si>
+    <t>Purchase | FC | Single |</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>29671</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Canadian Dollar#1000#NA#NA</t>
+  </si>
+  <si>
+    <t>AutoChelsea_6</t>
+  </si>
+  <si>
+    <t>Purchase | FC | Multi |</t>
+  </si>
+  <si>
+    <t>Citigold</t>
+  </si>
+  <si>
+    <t>29672</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Neth. Antilles Guilder#1000#NA#NA|Foreign Currency#Aruba Florin#1000#NA#NA|Foreign Currency#Barbados Dollar#1000#NA#NA|Foreign Currency#Bulgarian Lev#1000#NA#NA|Foreign Currency#Bahraini Dinar#1000#NA#NA|Foreign Currency#Bermuda Dollar#1000#NA#NA|Foreign Currency#Brunei Dollar#1000#NA#NA|Foreign Currency#Bolivian Boliviano#1000#NA#NA</t>
+  </si>
+  <si>
+    <t>AutoChelsea_7</t>
+  </si>
+  <si>
+    <t>Private Banking</t>
+  </si>
+  <si>
+    <t>29673</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Brazilian Real#1000#NA#NA|Foreign Currency#Belize Dollar#1000#NA#NA|Foreign Currency#Canadian Dollar#1000#NA#NA|Foreign Currency#Swiss Franc#1000#NA#NA|Foreign Currency#Chilean Peso#1000#NA#NA|Foreign Currency#Chinese Renminbi#1000#NA#NA\Foreign Currency#Colombian Peso#1000#NA#NA</t>
+  </si>
+  <si>
+    <t>AutoChelsea_8</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>29674</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Costa Rica Colon#1000#NA#NA|Foreign Currency#Czech Koruna#1000#NA#NA|Foreign Currency#Danish Krone#1000#NA#NA|Foreign Currency#Dominican Peso#1000#NA#NA|Foreign Currency#Euro#1000#NA#NA\Foreign Currency#Fiji Dollar#1000#NA#NA</t>
+  </si>
+  <si>
+    <t>AutoChelsea_9</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>29675</t>
+  </si>
+  <si>
+    <t>AutoChelsea_10</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>29676</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Hungarian Forint#1000#NA#NA|Foreign Currency#Indonesian Rupiah#1000#NA#NA|Foreign Currency#Israeli Shekel#1000#NA#NA|Foreign Currency#Indian Rupee#1000#NA#NA|Foreign Currency#Iceland Krona#1000#NA#NA</t>
+  </si>
+  <si>
+    <t>AutoChelsea_11</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>29677</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Jamaican Dollar#1000#NA#NA|Foreign Currency#Jordanian Dinar#1000#NA#NA|Foreign Currency#Japanese Yen#1000#NA#NA|Foreign Currency#Kenyan Shilling#1000#NA#NA|Foreign Currency#Korean Won#1000#NA#NA|Foreign Currency#Kuwaiti Dinar#1000#NA#NA</t>
+  </si>
+  <si>
+    <t>AutoChelsea_12</t>
+  </si>
+  <si>
+    <t>CitiBusiness</t>
+  </si>
+  <si>
+    <t>29678</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Cayman Islands Dollar#1000#NA#NA|Foreign Currency#Sri Lanka Rupee#1000#NA#NA|Foreign Currency#Moroccan Dirham#1000#NA#NA|Foreign Currency#Mauritius Rupee#1000#NA#NA|Foreign Currency#Mexican Nuevo Peso#1000#NA#NA</t>
+  </si>
+  <si>
+    <t>Test Comments</t>
+  </si>
+  <si>
+    <t>Checks#Japanese Yen#2#NA#NA|Checks#Japanese Yen#2#NA#NA</t>
+  </si>
+  <si>
+    <t>Checks#British Pound#100#NA#NA</t>
+  </si>
+  <si>
+    <t>Foreign Currency#UAE Dirham#10#NA#NA|Checks#Euro#2#NA#NA</t>
+  </si>
+  <si>
+    <t>AutoChelsea_01</t>
+  </si>
+  <si>
+    <t>AutoChelsea_02</t>
+  </si>
+  <si>
+    <t>AutoChelsea_03</t>
+  </si>
+  <si>
+    <t>AutoChelsea_04</t>
+  </si>
+  <si>
+    <t>AutoChelsea_05</t>
+  </si>
+  <si>
+    <t>AutoChelsea_06</t>
+  </si>
+  <si>
+    <t>AutoChelsea_07</t>
+  </si>
+  <si>
+    <t>AutoChelsea_08</t>
+  </si>
+  <si>
+    <t>AutoChelsea_09</t>
+  </si>
+  <si>
+    <t>TRAVELEX LOUISVILLE</t>
+  </si>
+  <si>
+    <t>Purchase | Checks | Multi | Same CCY |</t>
+  </si>
+  <si>
+    <t>Sale | FC+Drafts | Mixed | Home Branch | Denom |</t>
+  </si>
+  <si>
+    <t>Sale | Drafts | Multi | Same CCY | Away Branch |</t>
+  </si>
+  <si>
+    <t>Sale | FC | Single | Home Delivery |</t>
+  </si>
+  <si>
+    <t>Sale | FC | Multi |</t>
+  </si>
+  <si>
+    <t>Next Day - Away Branch</t>
+  </si>
+  <si>
+    <t>Next Day - Home Delivery</t>
+  </si>
+  <si>
+    <t>Priority - Away Branch</t>
+  </si>
+  <si>
+    <t>Priority - Home Branch</t>
+  </si>
+  <si>
+    <t>Priority - Home Delivery</t>
+  </si>
+  <si>
+    <t>Secure - Away Branch</t>
+  </si>
+  <si>
+    <t>Secure - Home Branch</t>
+  </si>
+  <si>
+    <t>Secure - Home Delivery</t>
+  </si>
+  <si>
+    <t>29679</t>
+  </si>
+  <si>
+    <t>29680</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Canadian Dollar#1000#5,10#100,50|Drafts#Australian Dollar#1000#BenificiaryName,Address1,Address2,Mumbai,UNITED STATES OF AMERICA,California,517214,DraftComment</t>
+  </si>
+  <si>
+    <t>Drafts#Australian Dollar#1000#BenificiaryName,Address1,Address2,Mumbai,UNITED STATES OF AMERICA,California,517214,DraftComment|Drafts#Australian Dollar#1000#BenificiaryName,Address1,Address2,Mumbai,UNITED STATES OF AMERICA,California,517214,DraftComment</t>
+  </si>
+  <si>
+    <t>Foreign Currency#UAE Dirham#700#1,1,2,5,10,20#200,100,50,20,10,5 |Foreign Currency#Neth. Antilles Guilder#400#1,2,4,10#100,50,25,10|Foreign Currency#Argentine Peso#900#1,2,5,10,20#500,50,20,10,5</t>
+  </si>
+  <si>
+    <t>Foreign Currency#British Pound#10#NA#NA|Foreign Currency#Gibraltar Pound#10#NA#NA|Foreign Currency#Hong Kong Dollar#10#NA#NA|Foreign Currency#Honduras Lempira#10#NA#NA|Foreign Currency#Croatian Kuna#10#NA#NA</t>
+  </si>
+  <si>
+    <t>AutoChelsea_1</t>
+  </si>
+  <si>
+    <t>AdditionalInfo</t>
+  </si>
+  <si>
+    <t>Purchase | FC+Checks | Mixed |TRAVELEX LOUISVILLE</t>
+  </si>
+  <si>
+    <t>Address1#Address2#Address3#Albany#New York#123654789#12206</t>
+  </si>
+  <si>
+    <t>AutoChelsea_010</t>
+  </si>
+  <si>
+    <t>AutoChelsea_011</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Aruba Florin#500#10,4,2,2#10,25,50,100|Foreign Currency#Barbados Dollar#600#50,20,10,5,2,1#2,5,10,20,50,100|Foreign Currency#Bulgarian Lev#400#10,5,2,1#10,20,50,100</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Bahraini Dinar#500#100,20,10,10#1,5,10,20|Foreign Currency#Bermuda Dollar#500#50,20,10,5,2#2,5,10,20,50|Foreign Currency#Brazilian Real#300#5,4#20,50</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Canadian Dollar#500#20,10,5,2,1#5,10,20,50,100|Foreign Currency#Swiss Franc#500#10,5,2,2#10,20,50,100|Foreign Currency#Chilean Peso#18000#1,1,1,1#1000,2000,5000,10000</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Chinese Renminbi#500#5#100|Foreign Currency#Colombian Peso#80000#1,1,1#10000,20000,50000|Foreign Currency#Costa Rica Colon#38000#1,1,1,1,1#1000,2000,5000,10000,20000</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Czech Koruna#8800#1,1,1,1,1,1#100,200,500,1000,2000,5000|Foreign Currency#Dominican Peso#3900#2,1,1,1,1,1#50,100,200,500,1000,2000|Foreign Currency#Euro#1200#20,10,5,2,1,1,1#5,10,20,50,100,200,500</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Fiji Dollar#400#10,5,2,1#10,20,50,100|Foreign Currency#British Pound#500#20,10,5,4#5,10,20,50|Foreign Currency#Guatemala Quetzal#500#5,2,1,1#20,50,100,200</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Croatian Kuna#300#1,1#100,200|Foreign Currency#Hungarian Forint#38000#1,1,1,1,1#1000,2000,5000,10000,20000|Foreign Currency#Hong Kong Dollar#900#10,5,2,1,1#10,20,50,100,50|</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4107,17 +4400,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="14">
@@ -4264,7 +4551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4326,11 +4613,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19680,10 +19971,10 @@
         <v>87</v>
       </c>
       <c r="AF1" s="6" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="AG1" s="6" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="AH1" s="6" t="s">
         <v>105</v>
@@ -30910,8 +31201,8 @@
       <c r="AD123" s="43"/>
       <c r="AE123" s="43"/>
       <c r="AF123" s="43"/>
-      <c r="AG123" s="58"/>
-      <c r="AH123" s="58"/>
+      <c r="AG123" s="57"/>
+      <c r="AH123" s="57"/>
     </row>
     <row r="124" spans="1:34" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="19" t="s">
@@ -31462,8 +31753,8 @@
       <c r="AD129" s="43"/>
       <c r="AE129" s="43"/>
       <c r="AF129" s="43"/>
-      <c r="AG129" s="59"/>
-      <c r="AH129" s="59"/>
+      <c r="AG129" s="58"/>
+      <c r="AH129" s="58"/>
     </row>
     <row r="130" spans="1:34" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
@@ -37135,24 +37426,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" customWidth="1"/>
     <col min="12" max="12" width="131.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -37162,18 +37453,19 @@
     <col min="19" max="19" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.42578125" customWidth="1"/>
     <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" customWidth="1"/>
-    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="17.42578125" customWidth="1"/>
-    <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" customWidth="1"/>
+    <col min="24" max="24" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="17.42578125" customWidth="1"/>
+    <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -37181,7 +37473,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -37220,451 +37512,2389 @@
         <v>18</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="T1" s="6" t="s">
         <v>35</v>
       </c>
       <c r="U1" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>1272</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>1240</v>
+      </c>
+      <c r="M2" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X2" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="26" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AC2" s="60" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD2" s="61" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE2" s="26" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AF2" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>1239</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X3" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="26" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AC3" s="60" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD3" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE3" s="26" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AF3" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>1241</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X4" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB4" s="26" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AC4" s="60" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE4" s="26" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AF4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG4" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>1208</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>1209</v>
+      </c>
+      <c r="M5" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X5" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF5" s="59" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG5" s="26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>1214</v>
+      </c>
+      <c r="M6" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X6" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC6" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD6" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE6" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF6" s="59" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG6" s="26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="60" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L7" s="59" t="s">
+        <v>1218</v>
+      </c>
+      <c r="M7" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W7" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X7" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y7" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA7" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB7" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC7" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD7" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE7" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF7" s="59" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG7" s="26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>1221</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>1222</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X8" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y8" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF8" s="59" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG8" s="26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>1225</v>
+      </c>
+      <c r="L9" s="59" t="s">
+        <v>1270</v>
+      </c>
+      <c r="M9" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X9" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y9" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG9" s="59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="60" t="s">
+        <v>1228</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>1229</v>
+      </c>
+      <c r="M10" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X10" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y10" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z10" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA10" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB10" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC10" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD10" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE10" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF10" s="59" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG10" s="26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="60" t="s">
+        <v>1232</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>1233</v>
+      </c>
+      <c r="M11" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W11" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X11" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y11" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z11" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA11" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB11" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC11" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD11" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE11" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF11" s="59" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG11" s="26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="60" t="s">
+        <v>1236</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>1237</v>
+      </c>
+      <c r="M12" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X12" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y12" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z12" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA12" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB12" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC12" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD12" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE12" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF12" s="59" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG12" s="26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G13" s="59" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I13" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="59" t="s">
+        <v>1241</v>
+      </c>
+      <c r="M13" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" s="26" t="s">
+        <v>1274</v>
+      </c>
+      <c r="W13" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X13" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y13" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z13" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA13" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB13" s="26" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AC13" s="60" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD13" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE13" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF13" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG13" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="62" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>1265</v>
+      </c>
+      <c r="L14" s="59" t="s">
+        <v>1267</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>1187</v>
+      </c>
+      <c r="R14" s="26" t="s">
+        <v>1188</v>
+      </c>
+      <c r="S14" s="26" t="s">
+        <v>1189</v>
+      </c>
+      <c r="T14" s="55" t="s">
+        <v>1190</v>
+      </c>
+      <c r="U14" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="V14" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W14" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X14" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y14" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14" s="55" t="s">
         <v>1192</v>
       </c>
-      <c r="V1" s="6" t="s">
-        <v>1164</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>1198</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>1202</v>
-      </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AA14" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB14" s="26" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AC14" s="56" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD14" s="56" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE14" s="26" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AF14" s="26" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG14" s="26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="62" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K15" s="55" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L15" s="59" t="s">
+        <v>1268</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>1187</v>
+      </c>
+      <c r="R15" s="26" t="s">
+        <v>1188</v>
+      </c>
+      <c r="S15" s="26" t="s">
+        <v>1189</v>
+      </c>
+      <c r="T15" s="55" t="s">
+        <v>1190</v>
+      </c>
+      <c r="U15" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="V15" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W15" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X15" s="55" t="s">
+        <v>1265</v>
+      </c>
+      <c r="Y15" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z15" s="55" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AA15" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB15" s="26" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AC15" s="56" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD15" s="56" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE15" s="26" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AF15" s="26" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG15" s="26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="62" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>1258</v>
+      </c>
+      <c r="K16" s="55" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>1181</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>1187</v>
+      </c>
+      <c r="R16" s="26" t="s">
+        <v>1188</v>
+      </c>
+      <c r="S16" s="26" t="s">
+        <v>1189</v>
+      </c>
+      <c r="T16" s="55" t="s">
+        <v>1190</v>
+      </c>
+      <c r="U16" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="V16" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X16" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y16" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z16" s="55" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AA16" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB16" s="26" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AC16" s="56" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD16" s="56" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE16" s="26" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AF16" s="26" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG16" s="26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="62" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K17" s="55" t="s">
         <v>1200</v>
       </c>
-      <c r="Z1" s="6" t="s">
-        <v>1201</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>1162</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>1165</v>
-      </c>
-      <c r="AD1" s="6" t="s">
+      <c r="L17" s="26" t="s">
+        <v>1269</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="U17" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="V17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W17" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X17" s="55" t="s">
+        <v>1265</v>
+      </c>
+      <c r="Y17" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z17" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA17" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC17" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD17" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF17" s="26" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG17" s="26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="62" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K18" s="55" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S18" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="U18" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W18" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X18" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z18" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA18" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB18" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC18" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD18" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE18" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF18" s="26" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG18" s="26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="62" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K19" s="55" t="s">
+        <v>1208</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>1278</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="26" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Q19" s="26" t="s">
+        <v>1187</v>
+      </c>
+      <c r="R19" s="26" t="s">
+        <v>1188</v>
+      </c>
+      <c r="S19" s="26" t="s">
+        <v>1189</v>
+      </c>
+      <c r="T19" s="55" t="s">
+        <v>1190</v>
+      </c>
+      <c r="U19" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="V19" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W19" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X19" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y19" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z19" s="55" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AA19" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB19" s="26" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AC19" s="56" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD19" s="56" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE19" s="26" t="s">
         <v>1163</v>
       </c>
-      <c r="AE1" s="6" t="s">
-        <v>1166</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="AF19" s="26" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG19" s="26" t="s">
         <v>1174</v>
       </c>
-      <c r="B2" s="26" t="s">
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="62" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>1176</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G2" s="26" t="s">
+      <c r="D20" s="55" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="26" t="s">
         <v>1169</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>1170</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="55" t="s">
-        <v>1183</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>1185</v>
-      </c>
-      <c r="M2" s="26" t="s">
+      <c r="H20" s="26" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>1262</v>
+      </c>
+      <c r="K20" s="55" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M20" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N20" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O20" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" s="55" t="s">
+      <c r="P20" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R20" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="U20" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="V20" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" s="55" t="s">
         <v>557</v>
       </c>
-      <c r="W2" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" s="55" t="s">
-        <v>1199</v>
-      </c>
-      <c r="Z2" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="26" t="s">
+      <c r="X20" s="55" t="s">
+        <v>1265</v>
+      </c>
+      <c r="Y20" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z20" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA20" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB20" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC20" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD20" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE20" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF20" s="26" t="s">
         <v>1171</v>
       </c>
-      <c r="AB2" s="55" t="s">
+      <c r="AG20" s="26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="62" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K21" s="60" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>1280</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T21" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="V21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W21" s="55" t="s">
         <v>557</v>
       </c>
-      <c r="AC2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD2" s="26" t="s">
+      <c r="X21" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y21" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z21" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA21" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC21" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD21" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF21" s="26" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG21" s="26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="62" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K22" s="60" t="s">
+        <v>1221</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>1281</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Q22" s="26" t="s">
+        <v>1187</v>
+      </c>
+      <c r="R22" s="26" t="s">
+        <v>1188</v>
+      </c>
+      <c r="S22" s="26" t="s">
+        <v>1189</v>
+      </c>
+      <c r="T22" s="55" t="s">
+        <v>1190</v>
+      </c>
+      <c r="U22" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="V22" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W22" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X22" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y22" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z22" s="55" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AA22" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB22" s="26" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AC22" s="56" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD22" s="56" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE22" s="26" t="s">
         <v>1163</v>
       </c>
-      <c r="AE2" s="26" t="s">
+      <c r="AF22" s="26" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG22" s="26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="62" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="26" t="s">
         <v>1172</v>
       </c>
-      <c r="AF2" s="57" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="26" t="s">
+      <c r="K23" s="60" t="s">
+        <v>1225</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>1282</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="U23" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="V23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W23" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="X23" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y23" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z23" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA23" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC23" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD23" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF23" s="26" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG23" s="26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="62" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="26" t="s">
         <v>1169</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>1170</v>
-      </c>
-      <c r="I3" s="26" t="s">
+      <c r="H24" s="26" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I24" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>1173</v>
-      </c>
-      <c r="K3" s="55" t="s">
-        <v>1183</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>1188</v>
-      </c>
-      <c r="M3" s="26" t="s">
+      <c r="J24" s="26" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K24" s="60" t="s">
+        <v>1228</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M24" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N24" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O24" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="26" t="s">
-        <v>1193</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>1194</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>1195</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>1196</v>
-      </c>
-      <c r="T3" s="55" t="s">
-        <v>1197</v>
-      </c>
-      <c r="U3" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="V3" s="55" t="s">
+      <c r="P24" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q24" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="U24" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="V24" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W24" s="55" t="s">
         <v>557</v>
       </c>
-      <c r="W3" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y3" s="55" t="s">
-        <v>1199</v>
-      </c>
-      <c r="Z3" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" s="26" t="s">
+      <c r="X24" s="55" t="s">
+        <v>1265</v>
+      </c>
+      <c r="Y24" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z24" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA24" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB24" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC24" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD24" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE24" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF24" s="26" t="s">
         <v>1171</v>
       </c>
-      <c r="AB3" s="56" t="s">
-        <v>557</v>
-      </c>
-      <c r="AC3" s="56" t="s">
-        <v>557</v>
-      </c>
-      <c r="AD3" s="26" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AE3" s="26" t="s">
-        <v>1172</v>
-      </c>
-      <c r="AF3" s="57" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>1169</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>1170</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>1173</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>1183</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>1204</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>1193</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>1194</v>
-      </c>
-      <c r="R4" s="26" t="s">
-        <v>1195</v>
-      </c>
-      <c r="S4" s="26" t="s">
-        <v>1196</v>
-      </c>
-      <c r="T4" s="55" t="s">
-        <v>1197</v>
-      </c>
-      <c r="U4" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="V4" s="55" t="s">
-        <v>557</v>
-      </c>
-      <c r="W4" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="X4" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y4" s="55" t="s">
-        <v>1199</v>
-      </c>
-      <c r="Z4" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA4" s="26" t="s">
-        <v>1171</v>
-      </c>
-      <c r="AB4" s="56" t="s">
-        <v>557</v>
-      </c>
-      <c r="AC4" s="56" t="s">
-        <v>557</v>
-      </c>
-      <c r="AD4" s="26" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AE4" s="26" t="s">
-        <v>1172</v>
-      </c>
-      <c r="AF4" s="57" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>1169</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>1170</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>1183</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>1206</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="V5" s="55" t="s">
-        <v>557</v>
-      </c>
-      <c r="W5" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="X5" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" s="55" t="s">
-        <v>1199</v>
-      </c>
-      <c r="Z5" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA5" s="26" t="s">
-        <v>1171</v>
-      </c>
-      <c r="AB5" s="55" t="s">
-        <v>557</v>
-      </c>
-      <c r="AC5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD5" s="26" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AE5" s="26" t="s">
-        <v>1172</v>
-      </c>
-      <c r="AF5" s="57" t="s">
-        <v>1184</v>
+      <c r="AG24" s="26" t="s">
+        <v>1174</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="AC2:AC4 K8:K12 K14:K24" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/DataSheet/Data.xlsx
+++ b/src/test/resources/DataSheet/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5745" windowWidth="11520" windowHeight="1170" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="5865" windowWidth="11520" windowHeight="1110" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OrderDetails" sheetId="5" r:id="rId1"/>
@@ -487,7 +487,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10889" uniqueCount="1284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11615" uniqueCount="1335">
   <si>
     <t>AutomationID</t>
   </si>
@@ -4339,6 +4339,159 @@
   </si>
   <si>
     <t>Foreign Currency#Croatian Kuna#300#1,1#100,200|Foreign Currency#Hungarian Forint#38000#1,1,1,1,1#1000,2000,5000,10000,20000|Foreign Currency#Hong Kong Dollar#900#10,5,2,1,1#10,20,50,100,50|</t>
+  </si>
+  <si>
+    <t>US Bank</t>
+  </si>
+  <si>
+    <t>AutoUSBank_1</t>
+  </si>
+  <si>
+    <t>AutoUSBank_2</t>
+  </si>
+  <si>
+    <t>AutoUSBank_3</t>
+  </si>
+  <si>
+    <t>AutoUSBank_4</t>
+  </si>
+  <si>
+    <t>AutoUSBank_5</t>
+  </si>
+  <si>
+    <t>AutoUSBank_6</t>
+  </si>
+  <si>
+    <t>AutoUSBank_7</t>
+  </si>
+  <si>
+    <t>AutoUSBank_8</t>
+  </si>
+  <si>
+    <t>AutoUSBank_9</t>
+  </si>
+  <si>
+    <t>AutoUSBank_10</t>
+  </si>
+  <si>
+    <t>AutoUSBank_11</t>
+  </si>
+  <si>
+    <t>AutoUSBank_01</t>
+  </si>
+  <si>
+    <t>AutoUSBank_02</t>
+  </si>
+  <si>
+    <t>AutoUSBank_03</t>
+  </si>
+  <si>
+    <t>AutoUSBank_04</t>
+  </si>
+  <si>
+    <t>AutoUSBank_05</t>
+  </si>
+  <si>
+    <t>AutoUSBank_06</t>
+  </si>
+  <si>
+    <t>AutoUSBank_07</t>
+  </si>
+  <si>
+    <t>AutoUSBank_08</t>
+  </si>
+  <si>
+    <t>AutoUSBank_09</t>
+  </si>
+  <si>
+    <t>AutoUSBank_010</t>
+  </si>
+  <si>
+    <t>AutoUSBank_011</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>10007</t>
+  </si>
+  <si>
+    <t>10008</t>
+  </si>
+  <si>
+    <t>10009</t>
+  </si>
+  <si>
+    <t>10010</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>10012</t>
+  </si>
+  <si>
+    <t>10013</t>
+  </si>
+  <si>
+    <t>10014</t>
+  </si>
+  <si>
+    <t>10015</t>
+  </si>
+  <si>
+    <t>10016</t>
+  </si>
+  <si>
+    <t>10017</t>
+  </si>
+  <si>
+    <t>10018</t>
+  </si>
+  <si>
+    <t>10019</t>
+  </si>
+  <si>
+    <t>10020</t>
+  </si>
+  <si>
+    <t>10021</t>
+  </si>
+  <si>
+    <t>10022</t>
+  </si>
+  <si>
+    <t>9869</t>
+  </si>
+  <si>
+    <t>9870</t>
+  </si>
+  <si>
+    <t>9871</t>
+  </si>
+  <si>
+    <t>9872</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Indonesian Rupiah#1000#NA#NA|Foreign Currency#Israeli Shekel#1000#NA#NA|Foreign Currency#Indian Rupee#1000#NA#NA|Foreign Currency#Iceland Krona#1000#NA#NA</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Aruba Florin#500#10,4,2,2#10,25,50,100|Foreign Currency#Barbados Dollar#600#50,20,10,5,2,1#2,5,10,20,50,100</t>
+  </si>
+  <si>
+    <t>Foreign Currency#Neth. Antilles Guilder#1000#NA#NA|Foreign Currency#Aruba Florin#1000#NA#NA|Foreign Currency#Barbados Dollar#1000#NA#NA|Foreign Currency#Bahraini Dinar#1000#NA#NA|Foreign Currency#Bermuda Dollar#1000#NA#NA|Foreign Currency#Brunei Dollar#1000#NA#NA|Foreign Currency#Bolivian Boliviano#1000#NA#NA</t>
   </si>
 </sst>
 </file>
@@ -4407,7 +4560,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4486,6 +4639,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -4551,7 +4710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4609,19 +4768,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31201,8 +31369,8 @@
       <c r="AD123" s="43"/>
       <c r="AE123" s="43"/>
       <c r="AF123" s="43"/>
-      <c r="AG123" s="57"/>
-      <c r="AH123" s="57"/>
+      <c r="AG123" s="55"/>
+      <c r="AH123" s="55"/>
     </row>
     <row r="124" spans="1:34" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="19" t="s">
@@ -31753,8 +31921,8 @@
       <c r="AD129" s="43"/>
       <c r="AE129" s="43"/>
       <c r="AF129" s="43"/>
-      <c r="AG129" s="58"/>
-      <c r="AH129" s="58"/>
+      <c r="AG129" s="56"/>
+      <c r="AH129" s="56"/>
     </row>
     <row r="130" spans="1:34" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
@@ -37427,10 +37595,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="J16" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37567,2325 +37735,4547 @@
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="57" t="s">
         <v>1271</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="57" t="s">
         <v>1197</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>1175</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="58" t="s">
         <v>1173</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="57" t="s">
         <v>1174</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="57" t="s">
         <v>1168</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="57" t="s">
         <v>1169</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="57" t="s">
         <v>1198</v>
       </c>
-      <c r="I2" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="60" t="s">
+      <c r="I2" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="58" t="s">
         <v>1178</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="57" t="s">
         <v>1240</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="59" t="s">
+      <c r="O2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="55" t="s">
+      <c r="P2" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X2" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="59" t="s">
+      <c r="X2" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="26" t="s">
+      <c r="AB2" s="59" t="s">
         <v>1238</v>
       </c>
-      <c r="AC2" s="60" t="s">
+      <c r="AC2" s="58" t="s">
         <v>605</v>
       </c>
       <c r="AD2" s="61" t="s">
         <v>557</v>
       </c>
-      <c r="AE2" s="26" t="s">
+      <c r="AE2" s="59" t="s">
         <v>1163</v>
       </c>
-      <c r="AF2" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AF2" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="59" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="57" t="s">
         <v>1196</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="57" t="s">
         <v>1252</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="57" t="s">
         <v>1175</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="58" t="s">
         <v>1173</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="57" t="s">
         <v>1174</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="57" t="s">
         <v>1168</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="57" t="s">
         <v>1169</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="57" t="s">
         <v>1170</v>
       </c>
-      <c r="I3" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="60" t="s">
+      <c r="I3" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="58" t="s">
         <v>1200</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="57" t="s">
         <v>1239</v>
       </c>
-      <c r="M3" s="59" t="s">
+      <c r="M3" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="59" t="s">
+      <c r="N3" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="59" t="s">
+      <c r="O3" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="55" t="s">
+      <c r="P3" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X3" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB3" s="26" t="s">
+      <c r="X3" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="59" t="s">
         <v>1238</v>
       </c>
-      <c r="AC3" s="60" t="s">
+      <c r="AC3" s="58" t="s">
         <v>605</v>
       </c>
-      <c r="AD3" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE3" s="26" t="s">
+      <c r="AD3" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE3" s="59" t="s">
         <v>1163</v>
       </c>
-      <c r="AF3" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG3" s="26" t="s">
+      <c r="AF3" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" s="59" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="57" t="s">
         <v>1199</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="57" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="57" t="s">
         <v>1175</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="58" t="s">
         <v>1173</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="57" t="s">
         <v>1174</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="57" t="s">
         <v>1168</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="57" t="s">
         <v>1169</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="57" t="s">
         <v>1203</v>
       </c>
-      <c r="I4" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="60" t="s">
+      <c r="I4" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="58" t="s">
         <v>1204</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="57" t="s">
         <v>1241</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="N4" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="V4" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="55" t="s">
+      <c r="P4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X4" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z4" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA4" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB4" s="26" t="s">
+      <c r="X4" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB4" s="59" t="s">
         <v>1238</v>
       </c>
-      <c r="AC4" s="60" t="s">
+      <c r="AC4" s="58" t="s">
         <v>605</v>
       </c>
-      <c r="AD4" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE4" s="26" t="s">
+      <c r="AD4" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE4" s="59" t="s">
         <v>1163</v>
       </c>
-      <c r="AF4" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG4" s="26" t="s">
+      <c r="AF4" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG4" s="59" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="57" t="s">
         <v>1201</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>1206</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="57" t="s">
         <v>1175</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="58" t="s">
         <v>1173</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="57" t="s">
         <v>1174</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="57" t="s">
         <v>1168</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="57" t="s">
         <v>1169</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="57" t="s">
         <v>1207</v>
       </c>
-      <c r="I5" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="60" t="s">
+      <c r="I5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="58" t="s">
         <v>1208</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="57" t="s">
         <v>1209</v>
       </c>
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="59" t="s">
+      <c r="N5" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="59" t="s">
+      <c r="O5" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="V5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W5" s="55" t="s">
+      <c r="P5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X5" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA5" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB5" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC5" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD5" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE5" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF5" s="59" t="s">
+      <c r="X5" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF5" s="57" t="s">
         <v>1171</v>
       </c>
-      <c r="AG5" s="26" t="s">
+      <c r="AG5" s="59" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="57" t="s">
         <v>1205</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="57" t="s">
         <v>1211</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="57" t="s">
         <v>1175</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="58" t="s">
         <v>1173</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="57" t="s">
         <v>1174</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="57" t="s">
         <v>1168</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="57" t="s">
         <v>1169</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="57" t="s">
         <v>1212</v>
       </c>
-      <c r="I6" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="60" t="s">
+      <c r="I6" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="58" t="s">
         <v>1213</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="57" t="s">
         <v>1214</v>
       </c>
-      <c r="M6" s="59" t="s">
+      <c r="M6" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="59" t="s">
+      <c r="O6" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R6" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W6" s="55" t="s">
+      <c r="P6" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X6" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y6" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA6" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB6" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC6" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD6" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE6" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF6" s="59" t="s">
+      <c r="X6" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC6" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD6" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE6" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF6" s="57" t="s">
         <v>1171</v>
       </c>
-      <c r="AG6" s="26" t="s">
+      <c r="AG6" s="59" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="57" t="s">
         <v>1210</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="57" t="s">
         <v>1211</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="57" t="s">
         <v>1175</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="58" t="s">
         <v>1173</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="57" t="s">
         <v>1174</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="57" t="s">
         <v>1168</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="57" t="s">
         <v>1169</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="57" t="s">
         <v>1216</v>
       </c>
-      <c r="I7" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="60" t="s">
+      <c r="I7" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="58" t="s">
         <v>1217</v>
       </c>
-      <c r="L7" s="59" t="s">
+      <c r="L7" s="57" t="s">
         <v>1218</v>
       </c>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="59" t="s">
+      <c r="N7" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="59" t="s">
+      <c r="O7" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S7" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="V7" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W7" s="55" t="s">
+      <c r="P7" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W7" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X7" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y7" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z7" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA7" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB7" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC7" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD7" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE7" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF7" s="59" t="s">
+      <c r="X7" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y7" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA7" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB7" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC7" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD7" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE7" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF7" s="57" t="s">
         <v>1171</v>
       </c>
-      <c r="AG7" s="26" t="s">
+      <c r="AG7" s="59" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="57" t="s">
         <v>1215</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="57" t="s">
         <v>1211</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="57" t="s">
         <v>1175</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="58" t="s">
         <v>1173</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="57" t="s">
         <v>1174</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="57" t="s">
         <v>1168</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="57" t="s">
         <v>1169</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="57" t="s">
         <v>1220</v>
       </c>
-      <c r="I8" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="60" t="s">
+      <c r="I8" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="58" t="s">
         <v>1221</v>
       </c>
-      <c r="L8" s="59" t="s">
+      <c r="L8" s="57" t="s">
         <v>1222</v>
       </c>
-      <c r="M8" s="59" t="s">
+      <c r="M8" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="59" t="s">
+      <c r="N8" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="59" t="s">
+      <c r="O8" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T8" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="V8" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8" s="55" t="s">
+      <c r="P8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X8" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y8" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z8" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA8" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB8" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC8" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD8" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE8" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF8" s="59" t="s">
+      <c r="X8" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y8" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA8" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB8" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC8" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD8" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE8" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF8" s="57" t="s">
         <v>1171</v>
       </c>
-      <c r="AG8" s="26" t="s">
+      <c r="AG8" s="59" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="57" t="s">
         <v>1219</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="57" t="s">
         <v>1211</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="57" t="s">
         <v>1175</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="58" t="s">
         <v>1173</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="57" t="s">
         <v>1174</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="57" t="s">
         <v>1168</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="57" t="s">
         <v>1169</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="57" t="s">
         <v>1224</v>
       </c>
-      <c r="I9" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="60" t="s">
+      <c r="I9" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="58" t="s">
         <v>1225</v>
       </c>
-      <c r="L9" s="59" t="s">
+      <c r="L9" s="57" t="s">
         <v>1270</v>
       </c>
-      <c r="M9" s="59" t="s">
+      <c r="M9" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="59" t="s">
+      <c r="N9" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="59" t="s">
+      <c r="O9" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S9" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U9" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="V9" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W9" s="55" t="s">
+      <c r="P9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X9" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y9" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z9" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA9" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB9" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC9" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD9" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE9" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF9" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG9" s="59" t="s">
+      <c r="X9" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y9" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z9" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA9" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC9" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD9" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE9" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF9" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG9" s="57" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="57" t="s">
         <v>1223</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>1211</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="57" t="s">
         <v>1175</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="58" t="s">
         <v>1173</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="57" t="s">
         <v>1174</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="57" t="s">
         <v>1168</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="57" t="s">
         <v>1169</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="57" t="s">
         <v>1227</v>
       </c>
-      <c r="I10" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="60" t="s">
+      <c r="I10" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="58" t="s">
         <v>1228</v>
       </c>
-      <c r="L10" s="59" t="s">
+      <c r="L10" s="57" t="s">
         <v>1229</v>
       </c>
-      <c r="M10" s="59" t="s">
+      <c r="M10" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="59" t="s">
+      <c r="N10" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="59" t="s">
+      <c r="O10" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R10" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S10" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T10" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U10" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="V10" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W10" s="55" t="s">
+      <c r="P10" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X10" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y10" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z10" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA10" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB10" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC10" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD10" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE10" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF10" s="59" t="s">
+      <c r="X10" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y10" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z10" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA10" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB10" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC10" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD10" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE10" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF10" s="57" t="s">
         <v>1171</v>
       </c>
-      <c r="AG10" s="26" t="s">
+      <c r="AG10" s="59" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="57" t="s">
         <v>1226</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="57" t="s">
         <v>1211</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="57" t="s">
         <v>1175</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="58" t="s">
         <v>1173</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="57" t="s">
         <v>1174</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="57" t="s">
         <v>1168</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="57" t="s">
         <v>1169</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="57" t="s">
         <v>1231</v>
       </c>
-      <c r="I11" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="60" t="s">
+      <c r="I11" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="58" t="s">
         <v>1232</v>
       </c>
-      <c r="L11" s="59" t="s">
+      <c r="L11" s="57" t="s">
         <v>1233</v>
       </c>
-      <c r="M11" s="59" t="s">
+      <c r="M11" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="59" t="s">
+      <c r="N11" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="59" t="s">
+      <c r="O11" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="P11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="V11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W11" s="55" t="s">
+      <c r="P11" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W11" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X11" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y11" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z11" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA11" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB11" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC11" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD11" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE11" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF11" s="59" t="s">
+      <c r="X11" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y11" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z11" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA11" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB11" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC11" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD11" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE11" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF11" s="57" t="s">
         <v>1171</v>
       </c>
-      <c r="AG11" s="26" t="s">
+      <c r="AG11" s="59" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="57" t="s">
         <v>1230</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="57" t="s">
         <v>1211</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="57" t="s">
         <v>1175</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="58" t="s">
         <v>1173</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="57" t="s">
         <v>1174</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="57" t="s">
         <v>1168</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="57" t="s">
         <v>1169</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="57" t="s">
         <v>1235</v>
       </c>
-      <c r="I12" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="60" t="s">
+      <c r="I12" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="58" t="s">
         <v>1236</v>
       </c>
-      <c r="L12" s="59" t="s">
+      <c r="L12" s="57" t="s">
         <v>1237</v>
       </c>
-      <c r="M12" s="59" t="s">
+      <c r="M12" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="59" t="s">
+      <c r="N12" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="59" t="s">
+      <c r="O12" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="P12" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q12" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R12" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U12" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="V12" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W12" s="55" t="s">
+      <c r="P12" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X12" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y12" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z12" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA12" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB12" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC12" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD12" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE12" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF12" s="59" t="s">
+      <c r="X12" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y12" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z12" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA12" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB12" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC12" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD12" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE12" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF12" s="57" t="s">
         <v>1171</v>
       </c>
-      <c r="AG12" s="26" t="s">
+      <c r="AG12" s="59" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="62" t="s">
         <v>1234</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="62" t="s">
         <v>1273</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="57" t="s">
         <v>1175</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="58" t="s">
         <v>1173</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="57" t="s">
         <v>1174</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="57" t="s">
         <v>1168</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="57" t="s">
         <v>1251</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="57" t="s">
         <v>1198</v>
       </c>
-      <c r="I13" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="59" t="s">
+      <c r="I13" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="57" t="s">
         <v>1241</v>
       </c>
-      <c r="M13" s="59" t="s">
+      <c r="M13" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="N13" s="59" t="s">
+      <c r="N13" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="59" t="s">
+      <c r="O13" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R13" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S13" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T13" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U13" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="V13" s="26" t="s">
+      <c r="P13" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" s="59" t="s">
         <v>1274</v>
       </c>
-      <c r="W13" s="55" t="s">
+      <c r="W13" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X13" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y13" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z13" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA13" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB13" s="26" t="s">
+      <c r="X13" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y13" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z13" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA13" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB13" s="59" t="s">
         <v>1238</v>
       </c>
-      <c r="AC13" s="60" t="s">
+      <c r="AC13" s="58" t="s">
         <v>605</v>
       </c>
-      <c r="AD13" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE13" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF13" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG13" s="26" t="s">
+      <c r="AD13" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE13" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF13" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG13" s="59" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="57" t="s">
         <v>1242</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="57" t="s">
         <v>1253</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="60" t="s">
         <v>1173</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="59" t="s">
         <v>1174</v>
       </c>
-      <c r="F14" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="26" t="s">
+      <c r="F14" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="59" t="s">
         <v>1198</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="59" t="s">
         <v>1172</v>
       </c>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="60" t="s">
         <v>1265</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="57" t="s">
         <v>1267</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="N14" s="26" t="s">
+      <c r="N14" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="26" t="s">
+      <c r="O14" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="P14" s="26" t="s">
+      <c r="P14" s="59" t="s">
         <v>1186</v>
       </c>
-      <c r="Q14" s="26" t="s">
+      <c r="Q14" s="59" t="s">
         <v>1187</v>
       </c>
-      <c r="R14" s="26" t="s">
+      <c r="R14" s="59" t="s">
         <v>1188</v>
       </c>
-      <c r="S14" s="26" t="s">
+      <c r="S14" s="59" t="s">
         <v>1189</v>
       </c>
-      <c r="T14" s="55" t="s">
+      <c r="T14" s="60" t="s">
         <v>1190</v>
       </c>
-      <c r="U14" s="55" t="s">
+      <c r="U14" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="V14" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W14" s="55" t="s">
+      <c r="V14" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W14" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X14" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y14" s="55" t="s">
+      <c r="X14" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y14" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="Z14" s="55" t="s">
+      <c r="Z14" s="60" t="s">
         <v>1192</v>
       </c>
-      <c r="AA14" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB14" s="26" t="s">
+      <c r="AA14" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB14" s="59" t="s">
         <v>1238</v>
       </c>
-      <c r="AC14" s="56" t="s">
+      <c r="AC14" s="63" t="s">
         <v>605</v>
       </c>
-      <c r="AD14" s="56" t="s">
+      <c r="AD14" s="63" t="s">
         <v>605</v>
       </c>
-      <c r="AE14" s="26" t="s">
+      <c r="AE14" s="59" t="s">
         <v>1163</v>
       </c>
-      <c r="AF14" s="26" t="s">
+      <c r="AF14" s="59" t="s">
         <v>1171</v>
       </c>
-      <c r="AG14" s="26" t="s">
+      <c r="AG14" s="59" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="57" t="s">
         <v>1243</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="57" t="s">
         <v>1254</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="60" t="s">
         <v>1173</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="59" t="s">
         <v>1174</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="26" t="s">
+      <c r="F15" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="59" t="s">
         <v>1170</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="59" t="s">
         <v>1257</v>
       </c>
-      <c r="K15" s="55" t="s">
+      <c r="K15" s="60" t="s">
         <v>1266</v>
       </c>
-      <c r="L15" s="59" t="s">
+      <c r="L15" s="57" t="s">
         <v>1268</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="N15" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="26" t="s">
+      <c r="O15" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="P15" s="59" t="s">
         <v>1186</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="Q15" s="59" t="s">
         <v>1187</v>
       </c>
-      <c r="R15" s="26" t="s">
+      <c r="R15" s="59" t="s">
         <v>1188</v>
       </c>
-      <c r="S15" s="26" t="s">
+      <c r="S15" s="59" t="s">
         <v>1189</v>
       </c>
-      <c r="T15" s="55" t="s">
+      <c r="T15" s="60" t="s">
         <v>1190</v>
       </c>
-      <c r="U15" s="55" t="s">
+      <c r="U15" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="V15" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W15" s="55" t="s">
+      <c r="V15" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W15" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X15" s="55" t="s">
+      <c r="X15" s="60" t="s">
         <v>1265</v>
       </c>
-      <c r="Y15" s="55" t="s">
+      <c r="Y15" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="Z15" s="55" t="s">
+      <c r="Z15" s="60" t="s">
         <v>1192</v>
       </c>
-      <c r="AA15" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB15" s="26" t="s">
+      <c r="AA15" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB15" s="59" t="s">
         <v>1238</v>
       </c>
-      <c r="AC15" s="56" t="s">
+      <c r="AC15" s="63" t="s">
         <v>605</v>
       </c>
-      <c r="AD15" s="56" t="s">
+      <c r="AD15" s="63" t="s">
         <v>605</v>
       </c>
-      <c r="AE15" s="26" t="s">
+      <c r="AE15" s="59" t="s">
         <v>1163</v>
       </c>
-      <c r="AF15" s="26" t="s">
+      <c r="AF15" s="59" t="s">
         <v>1171</v>
       </c>
-      <c r="AG15" s="26" t="s">
+      <c r="AG15" s="59" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="57" t="s">
         <v>1244</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="57" t="s">
         <v>1255</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="60" t="s">
         <v>1173</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="59" t="s">
         <v>1174</v>
       </c>
-      <c r="F16" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="26" t="s">
+      <c r="F16" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="59" t="s">
         <v>1203</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="59" t="s">
         <v>1258</v>
       </c>
-      <c r="K16" s="55" t="s">
+      <c r="K16" s="60" t="s">
         <v>1178</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="59" t="s">
         <v>1181</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="N16" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="26" t="s">
+      <c r="O16" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="26" t="s">
+      <c r="P16" s="59" t="s">
         <v>1186</v>
       </c>
-      <c r="Q16" s="26" t="s">
+      <c r="Q16" s="59" t="s">
         <v>1187</v>
       </c>
-      <c r="R16" s="26" t="s">
+      <c r="R16" s="59" t="s">
         <v>1188</v>
       </c>
-      <c r="S16" s="26" t="s">
+      <c r="S16" s="59" t="s">
         <v>1189</v>
       </c>
-      <c r="T16" s="55" t="s">
+      <c r="T16" s="60" t="s">
         <v>1190</v>
       </c>
-      <c r="U16" s="55" t="s">
+      <c r="U16" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="V16" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W16" s="55" t="s">
+      <c r="V16" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X16" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y16" s="55" t="s">
+      <c r="X16" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y16" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="Z16" s="55" t="s">
+      <c r="Z16" s="60" t="s">
         <v>1192</v>
       </c>
-      <c r="AA16" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB16" s="26" t="s">
+      <c r="AA16" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB16" s="59" t="s">
         <v>1238</v>
       </c>
-      <c r="AC16" s="56" t="s">
+      <c r="AC16" s="63" t="s">
         <v>605</v>
       </c>
-      <c r="AD16" s="56" t="s">
+      <c r="AD16" s="63" t="s">
         <v>605</v>
       </c>
-      <c r="AE16" s="26" t="s">
+      <c r="AE16" s="59" t="s">
         <v>1163</v>
       </c>
-      <c r="AF16" s="26" t="s">
+      <c r="AF16" s="59" t="s">
         <v>1171</v>
       </c>
-      <c r="AG16" s="26" t="s">
+      <c r="AG16" s="59" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="57" t="s">
         <v>1245</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="57" t="s">
         <v>1256</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="60" t="s">
         <v>1173</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="59" t="s">
         <v>1174</v>
       </c>
-      <c r="F17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="26" t="s">
+      <c r="F17" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="59" t="s">
         <v>1207</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="59" t="s">
         <v>1259</v>
       </c>
-      <c r="K17" s="55" t="s">
+      <c r="K17" s="60" t="s">
         <v>1200</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="59" t="s">
         <v>1269</v>
       </c>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="26" t="s">
+      <c r="N17" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="26" t="s">
+      <c r="O17" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="P17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T17" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="U17" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="V17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W17" s="55" t="s">
+      <c r="P17" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="U17" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="V17" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W17" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X17" s="55" t="s">
+      <c r="X17" s="60" t="s">
         <v>1265</v>
       </c>
-      <c r="Y17" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z17" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA17" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC17" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD17" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF17" s="26" t="s">
+      <c r="Y17" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z17" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA17" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB17" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC17" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD17" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE17" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF17" s="59" t="s">
         <v>1171</v>
       </c>
-      <c r="AG17" s="26" t="s">
+      <c r="AG17" s="59" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="57" t="s">
         <v>1246</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="57" t="s">
         <v>1256</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="60" t="s">
         <v>1173</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="59" t="s">
         <v>1174</v>
       </c>
-      <c r="F18" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="26" t="s">
+      <c r="F18" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="59" t="s">
         <v>1212</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="59" t="s">
         <v>1260</v>
       </c>
-      <c r="K18" s="55" t="s">
+      <c r="K18" s="60" t="s">
         <v>1204</v>
       </c>
-      <c r="L18" s="26" t="s">
+      <c r="L18" s="59" t="s">
         <v>1277</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="26" t="s">
+      <c r="O18" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q18" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R18" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S18" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T18" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="U18" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="V18" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W18" s="55" t="s">
+      <c r="P18" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S18" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="U18" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W18" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X18" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y18" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z18" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA18" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB18" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC18" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD18" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE18" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF18" s="26" t="s">
+      <c r="X18" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z18" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA18" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB18" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC18" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD18" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE18" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF18" s="59" t="s">
         <v>1171</v>
       </c>
-      <c r="AG18" s="26" t="s">
+      <c r="AG18" s="59" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="57" t="s">
         <v>1247</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="57" t="s">
         <v>1256</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="60" t="s">
         <v>1173</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="59" t="s">
         <v>1174</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="26" t="s">
+      <c r="F19" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="59" t="s">
         <v>1216</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="59" t="s">
         <v>1261</v>
       </c>
-      <c r="K19" s="55" t="s">
+      <c r="K19" s="60" t="s">
         <v>1208</v>
       </c>
-      <c r="L19" s="26" t="s">
+      <c r="L19" s="59" t="s">
         <v>1278</v>
       </c>
-      <c r="M19" s="26" t="s">
+      <c r="M19" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="26" t="s">
+      <c r="N19" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="26" t="s">
+      <c r="O19" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="26" t="s">
+      <c r="P19" s="59" t="s">
         <v>1186</v>
       </c>
-      <c r="Q19" s="26" t="s">
+      <c r="Q19" s="59" t="s">
         <v>1187</v>
       </c>
-      <c r="R19" s="26" t="s">
+      <c r="R19" s="59" t="s">
         <v>1188</v>
       </c>
-      <c r="S19" s="26" t="s">
+      <c r="S19" s="59" t="s">
         <v>1189</v>
       </c>
-      <c r="T19" s="55" t="s">
+      <c r="T19" s="60" t="s">
         <v>1190</v>
       </c>
-      <c r="U19" s="55" t="s">
+      <c r="U19" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="V19" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W19" s="55" t="s">
+      <c r="V19" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W19" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X19" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y19" s="55" t="s">
+      <c r="X19" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y19" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="Z19" s="55" t="s">
+      <c r="Z19" s="60" t="s">
         <v>1192</v>
       </c>
-      <c r="AA19" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB19" s="26" t="s">
+      <c r="AA19" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB19" s="59" t="s">
         <v>1238</v>
       </c>
-      <c r="AC19" s="56" t="s">
+      <c r="AC19" s="63" t="s">
         <v>605</v>
       </c>
-      <c r="AD19" s="56" t="s">
+      <c r="AD19" s="63" t="s">
         <v>605</v>
       </c>
-      <c r="AE19" s="26" t="s">
+      <c r="AE19" s="59" t="s">
         <v>1163</v>
       </c>
-      <c r="AF19" s="26" t="s">
+      <c r="AF19" s="59" t="s">
         <v>1171</v>
       </c>
-      <c r="AG19" s="26" t="s">
+      <c r="AG19" s="59" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="57" t="s">
         <v>1248</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="57" t="s">
         <v>1256</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="60" t="s">
         <v>1173</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="59" t="s">
         <v>1174</v>
       </c>
-      <c r="F20" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="26" t="s">
+      <c r="F20" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="59" t="s">
         <v>1220</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="59" t="s">
         <v>1262</v>
       </c>
-      <c r="K20" s="55" t="s">
+      <c r="K20" s="60" t="s">
         <v>1213</v>
       </c>
-      <c r="L20" s="26" t="s">
+      <c r="L20" s="59" t="s">
         <v>1279</v>
       </c>
-      <c r="M20" s="26" t="s">
+      <c r="M20" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="N20" s="26" t="s">
+      <c r="N20" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="26" t="s">
+      <c r="O20" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="P20" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q20" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R20" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S20" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T20" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="U20" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="V20" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W20" s="55" t="s">
+      <c r="P20" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R20" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="U20" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="V20" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X20" s="55" t="s">
+      <c r="X20" s="60" t="s">
         <v>1265</v>
       </c>
-      <c r="Y20" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z20" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA20" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB20" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC20" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD20" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE20" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF20" s="26" t="s">
+      <c r="Y20" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z20" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA20" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB20" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC20" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD20" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE20" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF20" s="59" t="s">
         <v>1171</v>
       </c>
-      <c r="AG20" s="26" t="s">
+      <c r="AG20" s="59" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="57" t="s">
         <v>1249</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="57" t="s">
         <v>1256</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="60" t="s">
         <v>1173</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="59" t="s">
         <v>1174</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="26" t="s">
+      <c r="F21" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="59" t="s">
         <v>1224</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="59" t="s">
         <v>1263</v>
       </c>
-      <c r="K21" s="60" t="s">
+      <c r="K21" s="58" t="s">
         <v>1217</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="L21" s="59" t="s">
         <v>1280</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="M21" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="N21" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="O21" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="P21" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q21" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R21" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S21" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T21" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="U21" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="V21" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W21" s="55" t="s">
+      <c r="P21" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S21" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T21" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="V21" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W21" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X21" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y21" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z21" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA21" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB21" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC21" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD21" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE21" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF21" s="26" t="s">
+      <c r="X21" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y21" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z21" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA21" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB21" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC21" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD21" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE21" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF21" s="59" t="s">
         <v>1171</v>
       </c>
-      <c r="AG21" s="26" t="s">
+      <c r="AG21" s="59" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="57" t="s">
         <v>1250</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="57" t="s">
         <v>1256</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="60" t="s">
         <v>1173</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="59" t="s">
         <v>1174</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="26" t="s">
+      <c r="F22" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="59" t="s">
         <v>1227</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="59" t="s">
         <v>1264</v>
       </c>
-      <c r="K22" s="60" t="s">
+      <c r="K22" s="58" t="s">
         <v>1221</v>
       </c>
-      <c r="L22" s="26" t="s">
+      <c r="L22" s="59" t="s">
         <v>1281</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="M22" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="26" t="s">
+      <c r="N22" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="O22" s="26" t="s">
+      <c r="O22" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="P22" s="26" t="s">
+      <c r="P22" s="59" t="s">
         <v>1186</v>
       </c>
-      <c r="Q22" s="26" t="s">
+      <c r="Q22" s="59" t="s">
         <v>1187</v>
       </c>
-      <c r="R22" s="26" t="s">
+      <c r="R22" s="59" t="s">
         <v>1188</v>
       </c>
-      <c r="S22" s="26" t="s">
+      <c r="S22" s="59" t="s">
         <v>1189</v>
       </c>
-      <c r="T22" s="55" t="s">
+      <c r="T22" s="60" t="s">
         <v>1190</v>
       </c>
-      <c r="U22" s="55" t="s">
+      <c r="U22" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="V22" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W22" s="55" t="s">
+      <c r="V22" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W22" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X22" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y22" s="55" t="s">
+      <c r="X22" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y22" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="Z22" s="55" t="s">
+      <c r="Z22" s="60" t="s">
         <v>1192</v>
       </c>
-      <c r="AA22" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB22" s="26" t="s">
+      <c r="AA22" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB22" s="59" t="s">
         <v>1238</v>
       </c>
-      <c r="AC22" s="56" t="s">
+      <c r="AC22" s="63" t="s">
         <v>605</v>
       </c>
-      <c r="AD22" s="56" t="s">
+      <c r="AD22" s="63" t="s">
         <v>605</v>
       </c>
-      <c r="AE22" s="26" t="s">
+      <c r="AE22" s="59" t="s">
         <v>1163</v>
       </c>
-      <c r="AF22" s="26" t="s">
+      <c r="AF22" s="59" t="s">
         <v>1171</v>
       </c>
-      <c r="AG22" s="26" t="s">
+      <c r="AG22" s="59" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="57" t="s">
         <v>1275</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="57" t="s">
         <v>1256</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="60" t="s">
         <v>1173</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="59" t="s">
         <v>1174</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="26" t="s">
+      <c r="F23" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="59" t="s">
         <v>1231</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="59" t="s">
         <v>1172</v>
       </c>
-      <c r="K23" s="60" t="s">
+      <c r="K23" s="58" t="s">
         <v>1225</v>
       </c>
-      <c r="L23" s="26" t="s">
+      <c r="L23" s="59" t="s">
         <v>1282</v>
       </c>
-      <c r="M23" s="26" t="s">
+      <c r="M23" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="N23" s="26" t="s">
+      <c r="N23" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="O23" s="26" t="s">
+      <c r="O23" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="P23" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q23" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R23" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S23" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T23" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="U23" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="V23" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W23" s="55" t="s">
+      <c r="P23" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q23" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S23" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="U23" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="V23" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W23" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X23" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y23" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z23" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA23" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB23" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC23" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD23" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE23" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF23" s="26" t="s">
+      <c r="X23" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y23" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z23" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA23" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB23" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC23" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD23" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE23" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF23" s="59" t="s">
         <v>1171</v>
       </c>
-      <c r="AG23" s="26" t="s">
+      <c r="AG23" s="59" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="57" t="s">
         <v>1276</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="57" t="s">
         <v>1256</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="60" t="s">
         <v>1173</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="59" t="s">
         <v>1174</v>
       </c>
-      <c r="F24" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="26" t="s">
+      <c r="F24" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="59" t="s">
         <v>1235</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="59" t="s">
         <v>1257</v>
       </c>
-      <c r="K24" s="60" t="s">
+      <c r="K24" s="58" t="s">
         <v>1228</v>
       </c>
-      <c r="L24" s="26" t="s">
+      <c r="L24" s="59" t="s">
         <v>1283</v>
       </c>
-      <c r="M24" s="26" t="s">
+      <c r="M24" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="N24" s="26" t="s">
+      <c r="N24" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="26" t="s">
+      <c r="O24" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="P24" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q24" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R24" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S24" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T24" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="U24" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="V24" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W24" s="55" t="s">
+      <c r="P24" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q24" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="U24" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="V24" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W24" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="X24" s="55" t="s">
+      <c r="X24" s="60" t="s">
         <v>1265</v>
       </c>
-      <c r="Y24" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z24" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA24" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB24" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC24" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD24" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE24" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF24" s="26" t="s">
+      <c r="Y24" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z24" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA24" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB24" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC24" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD24" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE24" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF24" s="59" t="s">
         <v>1171</v>
       </c>
-      <c r="AG24" s="26" t="s">
+      <c r="AG24" s="59" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H25" s="64" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I25" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="65" t="s">
+        <v>482</v>
+      </c>
+      <c r="L25" s="64" t="s">
+        <v>1240</v>
+      </c>
+      <c r="M25" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S25" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="U25" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="V25" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W25" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X25" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y25" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z25" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA25" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB25" s="54" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AC25" s="65" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD25" s="67" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE25" s="54" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AF25" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG25" s="54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H26" s="64" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I26" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="65" t="s">
+        <v>1307</v>
+      </c>
+      <c r="L26" s="64" t="s">
+        <v>1239</v>
+      </c>
+      <c r="M26" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q26" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R26" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S26" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="U26" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="V26" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W26" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X26" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y26" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z26" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA26" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB26" s="54" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AC26" s="65" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD26" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE26" s="54" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AF26" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG26" s="54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F27" s="64" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G27" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H27" s="64" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I27" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="65" t="s">
+        <v>1308</v>
+      </c>
+      <c r="L27" s="64" t="s">
+        <v>1241</v>
+      </c>
+      <c r="M27" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="P27" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R27" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S27" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="T27" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="U27" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="V27" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W27" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X27" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y27" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z27" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA27" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB27" s="54" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AC27" s="65" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD27" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE27" s="54" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AF27" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG27" s="54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E28" s="64" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F28" s="64" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G28" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H28" s="64" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I28" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="65" t="s">
+        <v>1309</v>
+      </c>
+      <c r="L28" s="64" t="s">
+        <v>1209</v>
+      </c>
+      <c r="M28" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q28" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R28" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S28" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="T28" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="U28" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="V28" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W28" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X28" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y28" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z28" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA28" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB28" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC28" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD28" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE28" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF28" s="64" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG28" s="54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F29" s="64" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H29" s="64" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I29" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="65" t="s">
+        <v>1310</v>
+      </c>
+      <c r="L29" s="64" t="s">
+        <v>1334</v>
+      </c>
+      <c r="M29" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="O29" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q29" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="U29" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="V29" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W29" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X29" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y29" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z29" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA29" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB29" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC29" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD29" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE29" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF29" s="64" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG29" s="54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H30" s="64" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I30" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="65" t="s">
+        <v>1311</v>
+      </c>
+      <c r="L30" s="64" t="s">
+        <v>1218</v>
+      </c>
+      <c r="M30" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="O30" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q30" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R30" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S30" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="U30" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="V30" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W30" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X30" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y30" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z30" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA30" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB30" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC30" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD30" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE30" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF30" s="64" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG30" s="54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G31" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H31" s="64" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I31" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="65" t="s">
+        <v>1312</v>
+      </c>
+      <c r="L31" s="64" t="s">
+        <v>1222</v>
+      </c>
+      <c r="M31" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R31" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S31" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="T31" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="U31" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="V31" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W31" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X31" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y31" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z31" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA31" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB31" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC31" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD31" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE31" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF31" s="64" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG31" s="54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F32" s="64" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H32" s="64" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I32" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="65" t="s">
+        <v>1313</v>
+      </c>
+      <c r="L32" s="64" t="s">
+        <v>1270</v>
+      </c>
+      <c r="M32" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="P32" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q32" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R32" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S32" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="T32" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="U32" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="V32" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W32" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X32" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y32" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z32" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA32" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB32" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC32" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD32" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE32" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF32" s="64" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG32" s="54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F33" s="64" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H33" s="64" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I33" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="65" t="s">
+        <v>1314</v>
+      </c>
+      <c r="L33" s="64" t="s">
+        <v>1332</v>
+      </c>
+      <c r="M33" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="P33" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q33" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R33" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S33" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="T33" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="U33" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="V33" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W33" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X33" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y33" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z33" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA33" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB33" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC33" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD33" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE33" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF33" s="64" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG33" s="54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="64" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E34" s="64" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F34" s="64" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G34" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H34" s="64" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I34" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="65" t="s">
+        <v>1315</v>
+      </c>
+      <c r="L34" s="64" t="s">
+        <v>1233</v>
+      </c>
+      <c r="M34" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="O34" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="P34" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q34" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R34" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S34" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="T34" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="U34" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="V34" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W34" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X34" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y34" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z34" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA34" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB34" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC34" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD34" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE34" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF34" s="64" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG34" s="54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" s="64" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C35" s="64" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E35" s="64" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F35" s="64" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G35" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H35" s="64" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I35" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="65" t="s">
+        <v>1316</v>
+      </c>
+      <c r="L35" s="64" t="s">
+        <v>1237</v>
+      </c>
+      <c r="M35" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="O35" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R35" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S35" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="T35" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="U35" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="V35" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W35" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X35" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y35" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z35" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA35" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB35" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC35" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD35" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE35" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF35" s="64" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG35" s="54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D36" s="66" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F36" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H36" s="54" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I36" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="54" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K36" s="65" t="s">
+        <v>1317</v>
+      </c>
+      <c r="L36" s="64" t="s">
+        <v>1267</v>
+      </c>
+      <c r="M36" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="O36" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P36" s="54" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Q36" s="54" t="s">
+        <v>1187</v>
+      </c>
+      <c r="R36" s="54" t="s">
+        <v>1188</v>
+      </c>
+      <c r="S36" s="54" t="s">
+        <v>1189</v>
+      </c>
+      <c r="T36" s="66" t="s">
+        <v>1190</v>
+      </c>
+      <c r="U36" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="V36" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W36" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X36" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y36" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z36" s="66" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AA36" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB36" s="54" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AC36" s="68" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD36" s="68" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE36" s="54" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AF36" s="54" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG36" s="54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D37" s="66" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H37" s="54" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I37" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="54" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K37" s="65" t="s">
+        <v>1318</v>
+      </c>
+      <c r="L37" s="64" t="s">
+        <v>1268</v>
+      </c>
+      <c r="M37" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="O37" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" s="54" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Q37" s="54" t="s">
+        <v>1187</v>
+      </c>
+      <c r="R37" s="54" t="s">
+        <v>1188</v>
+      </c>
+      <c r="S37" s="54" t="s">
+        <v>1189</v>
+      </c>
+      <c r="T37" s="66" t="s">
+        <v>1190</v>
+      </c>
+      <c r="U37" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="V37" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W37" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X37" s="66" t="s">
+        <v>1328</v>
+      </c>
+      <c r="Y37" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z37" s="66" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AA37" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB37" s="54" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AC37" s="68" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD37" s="68" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE37" s="54" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AF37" s="54" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG37" s="54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B38" s="64" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F38" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I38" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="54" t="s">
+        <v>1258</v>
+      </c>
+      <c r="K38" s="65" t="s">
+        <v>1319</v>
+      </c>
+      <c r="L38" s="54" t="s">
+        <v>1181</v>
+      </c>
+      <c r="M38" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="O38" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="54" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Q38" s="54" t="s">
+        <v>1187</v>
+      </c>
+      <c r="R38" s="54" t="s">
+        <v>1188</v>
+      </c>
+      <c r="S38" s="54" t="s">
+        <v>1189</v>
+      </c>
+      <c r="T38" s="66" t="s">
+        <v>1190</v>
+      </c>
+      <c r="U38" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="V38" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W38" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X38" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y38" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z38" s="66" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AA38" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB38" s="54" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AC38" s="68" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD38" s="68" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE38" s="54" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AF38" s="54" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG38" s="54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" s="64" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D39" s="66" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I39" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="54" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K39" s="65" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L39" s="54" t="s">
+        <v>1269</v>
+      </c>
+      <c r="M39" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="O39" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P39" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q39" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R39" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S39" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="T39" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="U39" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="V39" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W39" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X39" s="66" t="s">
+        <v>1329</v>
+      </c>
+      <c r="Y39" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z39" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA39" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB39" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC39" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD39" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE39" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF39" s="54" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG39" s="54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F40" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H40" s="54" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I40" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="54" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K40" s="65" t="s">
+        <v>1321</v>
+      </c>
+      <c r="L40" s="54" t="s">
+        <v>1333</v>
+      </c>
+      <c r="M40" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N40" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="O40" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P40" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q40" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R40" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S40" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="T40" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="U40" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="V40" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W40" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X40" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y40" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z40" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA40" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB40" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC40" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD40" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE40" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF40" s="54" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG40" s="54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" s="64" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D41" s="66" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H41" s="54" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I41" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="54" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K41" s="65" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L41" s="54" t="s">
+        <v>1278</v>
+      </c>
+      <c r="M41" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="O41" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P41" s="54" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Q41" s="54" t="s">
+        <v>1187</v>
+      </c>
+      <c r="R41" s="54" t="s">
+        <v>1188</v>
+      </c>
+      <c r="S41" s="54" t="s">
+        <v>1189</v>
+      </c>
+      <c r="T41" s="66" t="s">
+        <v>1190</v>
+      </c>
+      <c r="U41" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="V41" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W41" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X41" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y41" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z41" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA41" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB41" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC41" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD41" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE41" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF41" s="54" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG41" s="54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D42" s="66" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E42" s="54" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F42" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H42" s="54" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I42" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="54" t="s">
+        <v>1262</v>
+      </c>
+      <c r="K42" s="65" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L42" s="54" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M42" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N42" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="O42" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P42" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q42" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R42" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S42" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="T42" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="U42" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="V42" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W42" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X42" s="66" t="s">
+        <v>1330</v>
+      </c>
+      <c r="Y42" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z42" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA42" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB42" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC42" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD42" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE42" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF42" s="54" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG42" s="54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" s="64" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C43" s="54" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D43" s="66" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I43" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="54" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K43" s="65" t="s">
+        <v>1324</v>
+      </c>
+      <c r="L43" s="54" t="s">
+        <v>1280</v>
+      </c>
+      <c r="M43" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="O43" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q43" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R43" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S43" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="T43" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="U43" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="V43" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W43" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X43" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y43" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z43" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA43" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB43" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC43" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD43" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE43" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF43" s="54" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG43" s="54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="64" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C44" s="54" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D44" s="66" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E44" s="54" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F44" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H44" s="54" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I44" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="54" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K44" s="65" t="s">
+        <v>1325</v>
+      </c>
+      <c r="L44" s="54" t="s">
+        <v>1281</v>
+      </c>
+      <c r="M44" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N44" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="O44" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P44" s="54" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Q44" s="54" t="s">
+        <v>1187</v>
+      </c>
+      <c r="R44" s="54" t="s">
+        <v>1188</v>
+      </c>
+      <c r="S44" s="54" t="s">
+        <v>1189</v>
+      </c>
+      <c r="T44" s="66" t="s">
+        <v>1190</v>
+      </c>
+      <c r="U44" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="V44" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W44" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X44" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y44" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z44" s="66" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AA44" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB44" s="54" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AC44" s="68" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD44" s="68" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE44" s="54" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AF44" s="54" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG44" s="54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" s="64" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D45" s="66" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E45" s="54" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F45" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H45" s="54" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I45" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="54" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K45" s="65" t="s">
+        <v>1326</v>
+      </c>
+      <c r="L45" s="54" t="s">
+        <v>1282</v>
+      </c>
+      <c r="M45" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N45" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="O45" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P45" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q45" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R45" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S45" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="T45" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="U45" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="V45" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W45" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X45" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y45" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z45" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA45" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB45" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC45" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD45" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE45" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF45" s="54" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG45" s="54" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" s="64" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D46" s="66" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E46" s="54" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F46" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="64" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H46" s="54" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I46" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="54" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K46" s="65" t="s">
+        <v>1327</v>
+      </c>
+      <c r="L46" s="54" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M46" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N46" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="O46" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P46" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q46" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R46" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S46" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="T46" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="U46" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="V46" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W46" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="X46" s="66" t="s">
+        <v>1331</v>
+      </c>
+      <c r="Y46" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z46" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA46" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB46" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC46" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD46" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE46" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF46" s="54" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG46" s="54" t="s">
         <v>1174</v>
       </c>
     </row>

--- a/src/test/resources/DataSheet/Data.xlsx
+++ b/src/test/resources/DataSheet/Data.xlsx
@@ -37600,14 +37600,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>

--- a/src/test/resources/DataSheet/Data.xlsx
+++ b/src/test/resources/DataSheet/Data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5910" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5976" uniqueCount="479">
   <si>
     <t>AutomationID</t>
   </si>
@@ -1000,9 +1000,6 @@
     <t>124777</t>
   </si>
   <si>
-    <t>96089</t>
-  </si>
-  <si>
     <t>8000</t>
   </si>
   <si>
@@ -1318,24 +1315,6 @@
     <t>230750</t>
   </si>
   <si>
-    <t>640690</t>
-  </si>
-  <si>
-    <t>1520260</t>
-  </si>
-  <si>
-    <t>640691</t>
-  </si>
-  <si>
-    <t>1520261</t>
-  </si>
-  <si>
-    <t>96148</t>
-  </si>
-  <si>
-    <t>96149</t>
-  </si>
-  <si>
     <t>96150</t>
   </si>
   <si>
@@ -1445,6 +1424,36 @@
   </si>
   <si>
     <t>96164</t>
+  </si>
+  <si>
+    <t>PEP/SanctionCheck</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>1520276</t>
+  </si>
+  <si>
+    <t>1520277</t>
+  </si>
+  <si>
+    <t>640701</t>
+  </si>
+  <si>
+    <t>1520278</t>
+  </si>
+  <si>
+    <t>96167</t>
+  </si>
+  <si>
+    <t>96168</t>
+  </si>
+  <si>
+    <t>870065</t>
+  </si>
+  <si>
+    <t>758079</t>
   </si>
 </sst>
 </file>
@@ -1918,10 +1927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU150"/>
+  <dimension ref="A1:AV150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,37 +1955,37 @@
     <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="69.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="19.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="19.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="11.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="14.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="21.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="17.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="18.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="19.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="19.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="27.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="17.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="22.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="25.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="15" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="18.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="17.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="27.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="18.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="21" max="22" width="22" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="69.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="19.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="15" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="14.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="21.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="17.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="18.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="19.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="16.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="19.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="27.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="17.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="22.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="25.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="15" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="18.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="17.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="27.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="18.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2037,89 +2046,92 @@
       <c r="T1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AH1" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AI1" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AK1" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AL1" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AM1" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AN1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AO1" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AP1" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AR1" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AS1" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AT1" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AU1" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="AV1" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="AU1" s="15" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>87</v>
       </c>
@@ -2183,10 +2195,10 @@
       <c r="U2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V2"/>
-      <c r="W2" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="V2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2"/>
       <c r="X2" s="4" t="s">
         <v>8</v>
       </c>
@@ -2259,8 +2271,11 @@
       <c r="AU2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>49</v>
       </c>
@@ -2324,12 +2339,12 @@
       <c r="U3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="V3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2402,8 +2417,11 @@
       <c r="AU3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>50</v>
       </c>
@@ -2420,7 +2438,7 @@
         <v>42</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>48</v>
@@ -2450,7 +2468,7 @@
         <v>8</v>
       </c>
       <c r="P4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>5</v>
@@ -2467,12 +2485,12 @@
       <c r="U4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="V4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2545,8 +2563,11 @@
       <c r="AU4" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>51</v>
       </c>
@@ -2563,7 +2584,7 @@
         <v>42</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>48</v>
@@ -2578,7 +2599,7 @@
         <v>44</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>16</v>
@@ -2610,12 +2631,12 @@
       <c r="U5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="22" t="s">
+      <c r="V5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2688,8 +2709,11 @@
       <c r="AU5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>58</v>
       </c>
@@ -2706,7 +2730,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>48</v>
@@ -2753,12 +2777,12 @@
       <c r="U6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="22" t="s">
+      <c r="V6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X6" s="4" t="s">
         <v>8</v>
       </c>
@@ -2831,8 +2855,11 @@
       <c r="AU6" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>78</v>
       </c>
@@ -2849,7 +2876,7 @@
         <v>42</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>48</v>
@@ -2896,12 +2923,12 @@
       <c r="U7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="22" t="s">
+      <c r="V7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W7" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X7" s="4" t="s">
         <v>8</v>
       </c>
@@ -2974,8 +3001,11 @@
       <c r="AU7" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>80</v>
       </c>
@@ -2992,7 +3022,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>5</v>
@@ -3039,12 +3069,12 @@
       <c r="U8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="22" t="s">
+      <c r="V8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W8" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X8" s="4" t="s">
         <v>8</v>
       </c>
@@ -3117,8 +3147,11 @@
       <c r="AU8" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>110</v>
       </c>
@@ -3129,13 +3162,13 @@
         <v>108</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>5</v>
@@ -3153,7 +3186,7 @@
         <v>59</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>8</v>
@@ -3182,12 +3215,12 @@
       <c r="U9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="22" t="s">
+      <c r="V9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W9" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X9" s="4" t="s">
         <v>8</v>
       </c>
@@ -3260,8 +3293,11 @@
       <c r="AU9" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>114</v>
       </c>
@@ -3278,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>5</v>
@@ -3325,10 +3361,10 @@
       <c r="U10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="4" t="s">
+      <c r="V10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X10" s="4" t="s">
@@ -3403,8 +3439,11 @@
       <c r="AU10" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>135</v>
       </c>
@@ -3421,7 +3460,7 @@
         <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>5</v>
@@ -3468,10 +3507,10 @@
       <c r="U11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="4" t="s">
+      <c r="V11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="4" t="s">
@@ -3546,13 +3585,16 @@
       <c r="AU11" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>144</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>108</v>
@@ -3564,7 +3606,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>48</v>
@@ -3594,7 +3636,7 @@
         <v>8</v>
       </c>
       <c r="P12" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>8</v>
@@ -3611,10 +3653,10 @@
       <c r="U12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W12" s="4" t="s">
+      <c r="V12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X12" s="4" t="s">
@@ -3689,13 +3731,16 @@
       <c r="AU12" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>145</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>108</v>
@@ -3707,7 +3752,7 @@
         <v>42</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>5</v>
@@ -3754,10 +3799,10 @@
       <c r="U13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="4" t="s">
+      <c r="V13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X13" s="4" t="s">
@@ -3832,8 +3877,11 @@
       <c r="AU13" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>146</v>
       </c>
@@ -3850,7 +3898,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>5</v>
@@ -3897,10 +3945,10 @@
       <c r="U14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="4" t="s">
+      <c r="V14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X14" s="4" t="s">
@@ -3975,8 +4023,11 @@
       <c r="AU14" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>147</v>
       </c>
@@ -3993,7 +4044,7 @@
         <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>48</v>
@@ -4040,10 +4091,10 @@
       <c r="U15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W15" s="4" t="s">
+      <c r="V15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X15" s="4" t="s">
@@ -4118,8 +4169,11 @@
       <c r="AU15" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>268</v>
       </c>
@@ -4136,7 +4190,7 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>5</v>
@@ -4154,7 +4208,7 @@
         <v>313</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>273</v>
+        <v>338</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>116</v>
@@ -4183,86 +4237,89 @@
       <c r="U16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V16" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W16" s="4" t="s">
+      <c r="V16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W16" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z16" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="Z16" s="5" t="s">
+      <c r="AA16" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="AA16" s="4" t="s">
+      <c r="AB16" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AB16" s="4" t="s">
+      <c r="AC16" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AC16" s="4" t="s">
+      <c r="AD16" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AD16" s="5" t="s">
+      <c r="AE16" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="AE16" s="4" t="s">
+      <c r="AF16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF16" s="5" t="s">
+      <c r="AG16" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="AG16" s="5" t="s">
+      <c r="AH16" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="AH16" s="5" t="s">
+      <c r="AI16" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="AI16" s="4" t="s">
+      <c r="AJ16" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="AJ16" s="4" t="s">
+      <c r="AK16" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AK16" s="4" t="s">
+      <c r="AL16" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AL16" s="4" t="s">
+      <c r="AM16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AM16" s="5" t="s">
+      <c r="AN16" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AN16" s="4" t="s">
+      <c r="AO16" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AO16" s="4" t="s">
+      <c r="AP16" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AP16" s="4" t="s">
+      <c r="AQ16" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AQ16" s="4" t="s">
+      <c r="AR16" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AR16" s="5" t="s">
+      <c r="AS16" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="AS16" s="4" t="s">
+      <c r="AT16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AT16" s="5" t="s">
+      <c r="AU16" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AU16" s="4" t="s">
+      <c r="AV16" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>269</v>
       </c>
@@ -4279,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>48</v>
@@ -4297,7 +4354,7 @@
         <v>59</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>148</v>
+        <v>273</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>158</v>
@@ -4326,86 +4383,89 @@
       <c r="U17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V17" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="4" t="s">
+      <c r="V17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="Z17" s="5" t="s">
+      <c r="AA17" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="AA17" s="4" t="s">
+      <c r="AB17" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="AB17" s="4" t="s">
+      <c r="AC17" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AC17" s="4" t="s">
+      <c r="AD17" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="AD17" s="5" t="s">
+      <c r="AE17" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AE17" s="4" t="s">
+      <c r="AF17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF17" s="5" t="s">
+      <c r="AG17" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="AG17" s="5" t="s">
+      <c r="AH17" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="AH17" s="5" t="s">
+      <c r="AI17" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="AI17" s="4" t="s">
+      <c r="AJ17" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="AJ17" s="4" t="s">
+      <c r="AK17" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="AK17" s="4" t="s">
+      <c r="AL17" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AL17" s="4" t="s">
+      <c r="AM17" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AM17" s="5" t="s">
+      <c r="AN17" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AN17" s="4" t="s">
+      <c r="AO17" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="AO17" s="4" t="s">
+      <c r="AP17" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="AP17" s="4" t="s">
+      <c r="AQ17" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AQ17" s="4" t="s">
+      <c r="AR17" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="AR17" s="5" t="s">
+      <c r="AS17" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AS17" s="4" t="s">
+      <c r="AT17" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AT17" s="5" t="s">
+      <c r="AU17" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AU17" s="4" t="s">
+      <c r="AV17" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>308</v>
       </c>
@@ -4416,13 +4476,13 @@
         <v>108</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>327</v>
+        <v>477</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>5</v>
@@ -4440,7 +4500,7 @@
         <v>103</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>339</v>
+        <v>470</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>116</v>
@@ -4469,86 +4529,89 @@
       <c r="U18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V18" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W18" s="4" t="s">
+      <c r="V18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W18" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="Z18" s="5" t="s">
+      <c r="AA18" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="AA18" s="4" t="s">
+      <c r="AB18" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AB18" s="4" t="s">
+      <c r="AC18" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AC18" s="4" t="s">
+      <c r="AD18" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AD18" s="5" t="s">
+      <c r="AE18" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="AE18" s="4" t="s">
+      <c r="AF18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF18" s="5" t="s">
+      <c r="AG18" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="AG18" s="5" t="s">
+      <c r="AH18" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="AH18" s="5" t="s">
+      <c r="AI18" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="AI18" s="4" t="s">
+      <c r="AJ18" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="AJ18" s="4" t="s">
+      <c r="AK18" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AK18" s="4" t="s">
+      <c r="AL18" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AL18" s="4" t="s">
+      <c r="AM18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AM18" s="5" t="s">
+      <c r="AN18" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AN18" s="4" t="s">
+      <c r="AO18" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AO18" s="4" t="s">
+      <c r="AP18" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AP18" s="4" t="s">
+      <c r="AQ18" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AQ18" s="4" t="s">
+      <c r="AR18" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AR18" s="5" t="s">
+      <c r="AS18" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="AS18" s="4" t="s">
+      <c r="AT18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AT18" s="5" t="s">
+      <c r="AU18" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AU18" s="4" t="s">
+      <c r="AV18" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>309</v>
       </c>
@@ -4565,7 +4628,7 @@
         <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>48</v>
@@ -4583,7 +4646,7 @@
         <v>59</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>158</v>
@@ -4612,86 +4675,89 @@
       <c r="U19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V19" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W19" s="4" t="s">
+      <c r="V19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W19" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z19" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="Z19" s="5" t="s">
+      <c r="AA19" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="AA19" s="4" t="s">
+      <c r="AB19" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="AB19" s="4" t="s">
+      <c r="AC19" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AC19" s="4" t="s">
+      <c r="AD19" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="AD19" s="5" t="s">
+      <c r="AE19" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AE19" s="4" t="s">
+      <c r="AF19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF19" s="5" t="s">
+      <c r="AG19" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="AG19" s="5" t="s">
+      <c r="AH19" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="AH19" s="5" t="s">
+      <c r="AI19" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="AI19" s="4" t="s">
+      <c r="AJ19" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="AJ19" s="4" t="s">
+      <c r="AK19" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="AK19" s="4" t="s">
+      <c r="AL19" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AL19" s="4" t="s">
+      <c r="AM19" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AM19" s="5" t="s">
+      <c r="AN19" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AN19" s="4" t="s">
+      <c r="AO19" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="AO19" s="4" t="s">
+      <c r="AP19" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="AP19" s="4" t="s">
+      <c r="AQ19" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AQ19" s="4" t="s">
+      <c r="AR19" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="AR19" s="5" t="s">
+      <c r="AS19" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AS19" s="4" t="s">
+      <c r="AT19" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AT19" s="5" t="s">
+      <c r="AU19" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AU19" s="4" t="s">
+      <c r="AV19" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>314</v>
       </c>
@@ -4708,7 +4774,7 @@
         <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>5</v>
@@ -4755,86 +4821,89 @@
       <c r="U20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V20" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W20" s="4" t="s">
+      <c r="V20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W20" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="Z20" s="5" t="s">
+      <c r="AA20" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="AA20" s="4" t="s">
+      <c r="AB20" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AB20" s="4" t="s">
+      <c r="AC20" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AC20" s="4" t="s">
+      <c r="AD20" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AD20" s="5" t="s">
+      <c r="AE20" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="AE20" s="4" t="s">
+      <c r="AF20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF20" s="5" t="s">
+      <c r="AG20" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="AG20" s="5" t="s">
+      <c r="AH20" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="AH20" s="5" t="s">
+      <c r="AI20" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="AI20" s="4" t="s">
+      <c r="AJ20" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="AJ20" s="4" t="s">
+      <c r="AK20" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AK20" s="4" t="s">
+      <c r="AL20" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AL20" s="4" t="s">
+      <c r="AM20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AM20" s="5" t="s">
+      <c r="AN20" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AN20" s="4" t="s">
+      <c r="AO20" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AO20" s="4" t="s">
+      <c r="AP20" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AP20" s="4" t="s">
+      <c r="AQ20" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AQ20" s="4" t="s">
+      <c r="AR20" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AR20" s="5" t="s">
+      <c r="AS20" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="AS20" s="4" t="s">
+      <c r="AT20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AT20" s="5" t="s">
+      <c r="AU20" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AU20" s="4" t="s">
+      <c r="AV20" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>315</v>
       </c>
@@ -4851,7 +4920,7 @@
         <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>48</v>
@@ -4898,86 +4967,89 @@
       <c r="U21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V21" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="4" t="s">
+      <c r="V21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="Z21" s="5" t="s">
+      <c r="AA21" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="AA21" s="4" t="s">
+      <c r="AB21" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="AB21" s="4" t="s">
+      <c r="AC21" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AC21" s="4" t="s">
+      <c r="AD21" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="AD21" s="5" t="s">
+      <c r="AE21" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AE21" s="4" t="s">
+      <c r="AF21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF21" s="5" t="s">
+      <c r="AG21" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="AG21" s="5" t="s">
+      <c r="AH21" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="AH21" s="5" t="s">
+      <c r="AI21" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="AI21" s="4" t="s">
+      <c r="AJ21" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="AJ21" s="4" t="s">
+      <c r="AK21" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="AK21" s="4" t="s">
+      <c r="AL21" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AL21" s="4" t="s">
+      <c r="AM21" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AM21" s="5" t="s">
+      <c r="AN21" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AN21" s="4" t="s">
+      <c r="AO21" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="AO21" s="4" t="s">
+      <c r="AP21" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="AP21" s="4" t="s">
+      <c r="AQ21" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AQ21" s="4" t="s">
+      <c r="AR21" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="AR21" s="5" t="s">
+      <c r="AS21" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AS21" s="4" t="s">
+      <c r="AT21" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AT21" s="5" t="s">
+      <c r="AU21" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AU21" s="4" t="s">
+      <c r="AV21" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>316</v>
       </c>
@@ -4994,7 +5066,7 @@
         <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>5</v>
@@ -5041,86 +5113,89 @@
       <c r="U22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W22" s="4" t="s">
+      <c r="V22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="Z22" s="5" t="s">
+      <c r="AA22" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="AA22" s="4" t="s">
+      <c r="AB22" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AB22" s="4" t="s">
+      <c r="AC22" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AC22" s="4" t="s">
+      <c r="AD22" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AD22" s="5" t="s">
+      <c r="AE22" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="AE22" s="4" t="s">
+      <c r="AF22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF22" s="5" t="s">
+      <c r="AG22" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="AG22" s="5" t="s">
+      <c r="AH22" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="AH22" s="5" t="s">
+      <c r="AI22" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="AI22" s="4" t="s">
+      <c r="AJ22" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="AJ22" s="4" t="s">
+      <c r="AK22" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AK22" s="4" t="s">
+      <c r="AL22" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AL22" s="4" t="s">
+      <c r="AM22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AM22" s="5" t="s">
+      <c r="AN22" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AN22" s="4" t="s">
+      <c r="AO22" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AO22" s="4" t="s">
+      <c r="AP22" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AP22" s="4" t="s">
+      <c r="AQ22" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AQ22" s="4" t="s">
+      <c r="AR22" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AR22" s="5" t="s">
+      <c r="AS22" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="AS22" s="4" t="s">
+      <c r="AT22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AT22" s="5" t="s">
+      <c r="AU22" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AU22" s="4" t="s">
+      <c r="AV22" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="23" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>317</v>
       </c>
@@ -5131,13 +5206,13 @@
         <v>108</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>48</v>
@@ -5184,86 +5259,89 @@
       <c r="U23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V23" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W23" s="4" t="s">
+      <c r="V23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W23" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z23" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="Z23" s="5" t="s">
+      <c r="AA23" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="AA23" s="4" t="s">
+      <c r="AB23" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="AB23" s="4" t="s">
+      <c r="AC23" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AC23" s="4" t="s">
+      <c r="AD23" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="AD23" s="5" t="s">
+      <c r="AE23" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AE23" s="4" t="s">
+      <c r="AF23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF23" s="5" t="s">
+      <c r="AG23" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="AG23" s="5" t="s">
+      <c r="AH23" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="AH23" s="5" t="s">
+      <c r="AI23" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="AI23" s="4" t="s">
+      <c r="AJ23" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="AJ23" s="4" t="s">
+      <c r="AK23" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="AK23" s="4" t="s">
+      <c r="AL23" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AL23" s="4" t="s">
+      <c r="AM23" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AM23" s="5" t="s">
+      <c r="AN23" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AN23" s="4" t="s">
+      <c r="AO23" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="AO23" s="4" t="s">
+      <c r="AP23" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="AP23" s="4" t="s">
+      <c r="AQ23" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AQ23" s="4" t="s">
+      <c r="AR23" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="AR23" s="5" t="s">
+      <c r="AS23" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AS23" s="4" t="s">
+      <c r="AT23" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AT23" s="5" t="s">
+      <c r="AU23" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AU23" s="4" t="s">
+      <c r="AV23" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>53</v>
       </c>
@@ -5280,7 +5358,7 @@
         <v>42</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>48</v>
@@ -5295,7 +5373,7 @@
         <v>44</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>148</v>
@@ -5307,7 +5385,7 @@
         <v>8</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>8</v>
@@ -5327,12 +5405,12 @@
       <c r="U24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V24" s="22" t="s">
+      <c r="V24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W24" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W24" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X24" s="4" t="s">
         <v>8</v>
       </c>
@@ -5405,8 +5483,11 @@
       <c r="AU24" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV24" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>56</v>
       </c>
@@ -5423,7 +5504,7 @@
         <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>48</v>
@@ -5470,12 +5551,12 @@
       <c r="U25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V25" s="22" t="s">
+      <c r="V25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W25" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X25" s="4" t="s">
         <v>8</v>
       </c>
@@ -5548,8 +5629,11 @@
       <c r="AU25" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>86</v>
       </c>
@@ -5566,7 +5650,7 @@
         <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>48</v>
@@ -5575,7 +5659,7 @@
         <v>46</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>44</v>
@@ -5602,7 +5686,7 @@
         <v>5</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S26" s="5" t="s">
         <v>88</v>
@@ -5613,12 +5697,12 @@
       <c r="U26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V26" s="22" t="s">
+      <c r="V26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W26" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W26" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X26" s="4" t="s">
         <v>8</v>
       </c>
@@ -5691,8 +5775,11 @@
       <c r="AU26" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV26" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>90</v>
       </c>
@@ -5709,7 +5796,7 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>48</v>
@@ -5718,7 +5805,7 @@
         <v>46</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>44</v>
@@ -5745,7 +5832,7 @@
         <v>5</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S27" s="5" t="s">
         <v>88</v>
@@ -5756,12 +5843,12 @@
       <c r="U27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V27" s="22" t="s">
+      <c r="V27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W27" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W27" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X27" s="4" t="s">
         <v>8</v>
       </c>
@@ -5834,13 +5921,16 @@
       <c r="AU27" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>108</v>
@@ -5852,7 +5942,7 @@
         <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>5</v>
@@ -5861,7 +5951,7 @@
         <v>46</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>44</v>
@@ -5888,7 +5978,7 @@
         <v>5</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="S28" s="5" t="s">
         <v>88</v>
@@ -5899,12 +5989,12 @@
       <c r="U28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V28" s="22" t="s">
+      <c r="V28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W28" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W28" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X28" s="4" t="s">
         <v>8</v>
       </c>
@@ -5977,8 +6067,11 @@
       <c r="AU28" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV28" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>92</v>
       </c>
@@ -5995,7 +6088,7 @@
         <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>5</v>
@@ -6004,16 +6097,16 @@
         <v>46</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>313</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>116</v>
@@ -6031,7 +6124,7 @@
         <v>5</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S29" s="5" t="s">
         <v>88</v>
@@ -6039,15 +6132,15 @@
       <c r="T29" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="5" t="s">
+      <c r="U29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="22" t="s">
+      <c r="W29" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W29" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X29" s="4" t="s">
         <v>8</v>
       </c>
@@ -6120,8 +6213,11 @@
       <c r="AU29" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV29" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>141</v>
       </c>
@@ -6179,8 +6275,7 @@
       <c r="S30" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V30"/>
-      <c r="Y30"/>
+      <c r="W30"/>
       <c r="Z30"/>
       <c r="AA30"/>
       <c r="AB30"/>
@@ -6203,8 +6298,9 @@
       <c r="AS30"/>
       <c r="AT30"/>
       <c r="AU30"/>
-    </row>
-    <row r="31" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV30"/>
+    </row>
+    <row r="31" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>142</v>
       </c>
@@ -6262,8 +6358,7 @@
       <c r="S31" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V31"/>
-      <c r="Y31"/>
+      <c r="W31"/>
       <c r="Z31"/>
       <c r="AA31"/>
       <c r="AB31"/>
@@ -6286,8 +6381,9 @@
       <c r="AS31"/>
       <c r="AT31"/>
       <c r="AU31"/>
-    </row>
-    <row r="32" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV31"/>
+    </row>
+    <row r="32" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>143</v>
       </c>
@@ -6345,8 +6441,7 @@
       <c r="S32" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V32"/>
-      <c r="Y32"/>
+      <c r="W32"/>
       <c r="Z32"/>
       <c r="AA32"/>
       <c r="AB32"/>
@@ -6369,8 +6464,9 @@
       <c r="AS32"/>
       <c r="AT32"/>
       <c r="AU32"/>
-    </row>
-    <row r="33" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV32"/>
+    </row>
+    <row r="33" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>159</v>
       </c>
@@ -6407,8 +6503,7 @@
       <c r="L33" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V33"/>
-      <c r="Y33"/>
+      <c r="W33"/>
       <c r="Z33"/>
       <c r="AA33"/>
       <c r="AB33"/>
@@ -6431,8 +6526,9 @@
       <c r="AS33"/>
       <c r="AT33"/>
       <c r="AU33"/>
-    </row>
-    <row r="34" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV33"/>
+    </row>
+    <row r="34" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>160</v>
       </c>
@@ -6469,8 +6565,7 @@
       <c r="L34" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V34"/>
-      <c r="Y34"/>
+      <c r="W34"/>
       <c r="Z34"/>
       <c r="AA34"/>
       <c r="AB34"/>
@@ -6493,8 +6588,9 @@
       <c r="AS34"/>
       <c r="AT34"/>
       <c r="AU34"/>
-    </row>
-    <row r="35" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV34"/>
+    </row>
+    <row r="35" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>161</v>
       </c>
@@ -6531,8 +6627,7 @@
       <c r="L35" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V35"/>
-      <c r="Y35"/>
+      <c r="W35"/>
       <c r="Z35"/>
       <c r="AA35"/>
       <c r="AB35"/>
@@ -6555,8 +6650,9 @@
       <c r="AS35"/>
       <c r="AT35"/>
       <c r="AU35"/>
-    </row>
-    <row r="36" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV35"/>
+    </row>
+    <row r="36" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>162</v>
       </c>
@@ -6593,8 +6689,7 @@
       <c r="L36" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V36"/>
-      <c r="Y36"/>
+      <c r="W36"/>
       <c r="Z36"/>
       <c r="AA36"/>
       <c r="AB36"/>
@@ -6617,8 +6712,9 @@
       <c r="AS36"/>
       <c r="AT36"/>
       <c r="AU36"/>
-    </row>
-    <row r="37" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV36"/>
+    </row>
+    <row r="37" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>163</v>
       </c>
@@ -6655,8 +6751,7 @@
       <c r="L37" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V37"/>
-      <c r="Y37"/>
+      <c r="W37"/>
       <c r="Z37"/>
       <c r="AA37"/>
       <c r="AB37"/>
@@ -6679,8 +6774,9 @@
       <c r="AS37"/>
       <c r="AT37"/>
       <c r="AU37"/>
-    </row>
-    <row r="38" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV37"/>
+    </row>
+    <row r="38" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>164</v>
       </c>
@@ -6717,8 +6813,7 @@
       <c r="L38" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V38"/>
-      <c r="Y38"/>
+      <c r="W38"/>
       <c r="Z38"/>
       <c r="AA38"/>
       <c r="AB38"/>
@@ -6741,8 +6836,9 @@
       <c r="AS38"/>
       <c r="AT38"/>
       <c r="AU38"/>
-    </row>
-    <row r="39" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV38"/>
+    </row>
+    <row r="39" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>165</v>
       </c>
@@ -6779,8 +6875,7 @@
       <c r="L39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V39"/>
-      <c r="Y39"/>
+      <c r="W39"/>
       <c r="Z39"/>
       <c r="AA39"/>
       <c r="AB39"/>
@@ -6803,8 +6898,9 @@
       <c r="AS39"/>
       <c r="AT39"/>
       <c r="AU39"/>
-    </row>
-    <row r="40" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV39"/>
+    </row>
+    <row r="40" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>166</v>
       </c>
@@ -6841,8 +6937,7 @@
       <c r="L40" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V40"/>
-      <c r="Y40"/>
+      <c r="W40"/>
       <c r="Z40"/>
       <c r="AA40"/>
       <c r="AB40"/>
@@ -6865,8 +6960,9 @@
       <c r="AS40"/>
       <c r="AT40"/>
       <c r="AU40"/>
-    </row>
-    <row r="41" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV40"/>
+    </row>
+    <row r="41" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>167</v>
       </c>
@@ -6903,8 +6999,7 @@
       <c r="L41" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V41"/>
-      <c r="Y41"/>
+      <c r="W41"/>
       <c r="Z41"/>
       <c r="AA41"/>
       <c r="AB41"/>
@@ -6927,8 +7022,9 @@
       <c r="AS41"/>
       <c r="AT41"/>
       <c r="AU41"/>
-    </row>
-    <row r="42" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV41"/>
+    </row>
+    <row r="42" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>168</v>
       </c>
@@ -6965,8 +7061,7 @@
       <c r="L42" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V42"/>
-      <c r="Y42"/>
+      <c r="W42"/>
       <c r="Z42"/>
       <c r="AA42"/>
       <c r="AB42"/>
@@ -6989,8 +7084,9 @@
       <c r="AS42"/>
       <c r="AT42"/>
       <c r="AU42"/>
-    </row>
-    <row r="43" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV42"/>
+    </row>
+    <row r="43" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>169</v>
       </c>
@@ -7027,8 +7123,7 @@
       <c r="L43" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V43"/>
-      <c r="Y43"/>
+      <c r="W43"/>
       <c r="Z43"/>
       <c r="AA43"/>
       <c r="AB43"/>
@@ -7051,8 +7146,9 @@
       <c r="AS43"/>
       <c r="AT43"/>
       <c r="AU43"/>
-    </row>
-    <row r="44" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV43"/>
+    </row>
+    <row r="44" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>170</v>
       </c>
@@ -7089,8 +7185,7 @@
       <c r="L44" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V44"/>
-      <c r="Y44"/>
+      <c r="W44"/>
       <c r="Z44"/>
       <c r="AA44"/>
       <c r="AB44"/>
@@ -7113,8 +7208,9 @@
       <c r="AS44"/>
       <c r="AT44"/>
       <c r="AU44"/>
-    </row>
-    <row r="45" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV44"/>
+    </row>
+    <row r="45" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>171</v>
       </c>
@@ -7151,8 +7247,7 @@
       <c r="L45" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V45"/>
-      <c r="Y45"/>
+      <c r="W45"/>
       <c r="Z45"/>
       <c r="AA45"/>
       <c r="AB45"/>
@@ -7175,8 +7270,9 @@
       <c r="AS45"/>
       <c r="AT45"/>
       <c r="AU45"/>
-    </row>
-    <row r="46" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV45"/>
+    </row>
+    <row r="46" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>172</v>
       </c>
@@ -7213,8 +7309,7 @@
       <c r="L46" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V46"/>
-      <c r="Y46"/>
+      <c r="W46"/>
       <c r="Z46"/>
       <c r="AA46"/>
       <c r="AB46"/>
@@ -7237,8 +7332,9 @@
       <c r="AS46"/>
       <c r="AT46"/>
       <c r="AU46"/>
-    </row>
-    <row r="47" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV46"/>
+    </row>
+    <row r="47" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>173</v>
       </c>
@@ -7275,8 +7371,7 @@
       <c r="L47" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V47"/>
-      <c r="Y47"/>
+      <c r="W47"/>
       <c r="Z47"/>
       <c r="AA47"/>
       <c r="AB47"/>
@@ -7299,8 +7394,9 @@
       <c r="AS47"/>
       <c r="AT47"/>
       <c r="AU47"/>
-    </row>
-    <row r="48" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV47"/>
+    </row>
+    <row r="48" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>174</v>
       </c>
@@ -7337,8 +7433,7 @@
       <c r="L48" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V48"/>
-      <c r="Y48"/>
+      <c r="W48"/>
       <c r="Z48"/>
       <c r="AA48"/>
       <c r="AB48"/>
@@ -7361,8 +7456,9 @@
       <c r="AS48"/>
       <c r="AT48"/>
       <c r="AU48"/>
-    </row>
-    <row r="49" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV48"/>
+    </row>
+    <row r="49" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>175</v>
       </c>
@@ -7399,8 +7495,7 @@
       <c r="L49" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V49"/>
-      <c r="Y49"/>
+      <c r="W49"/>
       <c r="Z49"/>
       <c r="AA49"/>
       <c r="AB49"/>
@@ -7423,8 +7518,9 @@
       <c r="AS49"/>
       <c r="AT49"/>
       <c r="AU49"/>
-    </row>
-    <row r="50" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV49"/>
+    </row>
+    <row r="50" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>176</v>
       </c>
@@ -7461,8 +7557,7 @@
       <c r="L50" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V50"/>
-      <c r="Y50"/>
+      <c r="W50"/>
       <c r="Z50"/>
       <c r="AA50"/>
       <c r="AB50"/>
@@ -7485,8 +7580,9 @@
       <c r="AS50"/>
       <c r="AT50"/>
       <c r="AU50"/>
-    </row>
-    <row r="51" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV50"/>
+    </row>
+    <row r="51" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>177</v>
       </c>
@@ -7523,8 +7619,7 @@
       <c r="L51" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V51"/>
-      <c r="Y51"/>
+      <c r="W51"/>
       <c r="Z51"/>
       <c r="AA51"/>
       <c r="AB51"/>
@@ -7547,8 +7642,9 @@
       <c r="AS51"/>
       <c r="AT51"/>
       <c r="AU51"/>
-    </row>
-    <row r="52" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV51"/>
+    </row>
+    <row r="52" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>178</v>
       </c>
@@ -7585,8 +7681,7 @@
       <c r="L52" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V52"/>
-      <c r="Y52"/>
+      <c r="W52"/>
       <c r="Z52"/>
       <c r="AA52"/>
       <c r="AB52"/>
@@ -7609,8 +7704,9 @@
       <c r="AS52"/>
       <c r="AT52"/>
       <c r="AU52"/>
-    </row>
-    <row r="53" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV52"/>
+    </row>
+    <row r="53" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>179</v>
       </c>
@@ -7647,8 +7743,7 @@
       <c r="L53" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V53"/>
-      <c r="Y53"/>
+      <c r="W53"/>
       <c r="Z53"/>
       <c r="AA53"/>
       <c r="AB53"/>
@@ -7671,8 +7766,9 @@
       <c r="AS53"/>
       <c r="AT53"/>
       <c r="AU53"/>
-    </row>
-    <row r="54" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV53"/>
+    </row>
+    <row r="54" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>180</v>
       </c>
@@ -7709,8 +7805,7 @@
       <c r="L54" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V54"/>
-      <c r="Y54"/>
+      <c r="W54"/>
       <c r="Z54"/>
       <c r="AA54"/>
       <c r="AB54"/>
@@ -7733,8 +7828,9 @@
       <c r="AS54"/>
       <c r="AT54"/>
       <c r="AU54"/>
-    </row>
-    <row r="55" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV54"/>
+    </row>
+    <row r="55" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>181</v>
       </c>
@@ -7771,8 +7867,7 @@
       <c r="L55" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V55"/>
-      <c r="Y55"/>
+      <c r="W55"/>
       <c r="Z55"/>
       <c r="AA55"/>
       <c r="AB55"/>
@@ -7795,8 +7890,9 @@
       <c r="AS55"/>
       <c r="AT55"/>
       <c r="AU55"/>
-    </row>
-    <row r="56" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV55"/>
+    </row>
+    <row r="56" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>182</v>
       </c>
@@ -7833,8 +7929,7 @@
       <c r="L56" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V56"/>
-      <c r="Y56"/>
+      <c r="W56"/>
       <c r="Z56"/>
       <c r="AA56"/>
       <c r="AB56"/>
@@ -7857,8 +7952,9 @@
       <c r="AS56"/>
       <c r="AT56"/>
       <c r="AU56"/>
-    </row>
-    <row r="57" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV56"/>
+    </row>
+    <row r="57" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>183</v>
       </c>
@@ -7895,8 +7991,7 @@
       <c r="L57" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V57"/>
-      <c r="Y57"/>
+      <c r="W57"/>
       <c r="Z57"/>
       <c r="AA57"/>
       <c r="AB57"/>
@@ -7919,8 +8014,9 @@
       <c r="AS57"/>
       <c r="AT57"/>
       <c r="AU57"/>
-    </row>
-    <row r="58" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV57"/>
+    </row>
+    <row r="58" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>184</v>
       </c>
@@ -7957,8 +8053,7 @@
       <c r="L58" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V58"/>
-      <c r="Y58"/>
+      <c r="W58"/>
       <c r="Z58"/>
       <c r="AA58"/>
       <c r="AB58"/>
@@ -7981,8 +8076,9 @@
       <c r="AS58"/>
       <c r="AT58"/>
       <c r="AU58"/>
-    </row>
-    <row r="59" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV58"/>
+    </row>
+    <row r="59" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>185</v>
       </c>
@@ -8019,8 +8115,7 @@
       <c r="L59" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V59"/>
-      <c r="Y59"/>
+      <c r="W59"/>
       <c r="Z59"/>
       <c r="AA59"/>
       <c r="AB59"/>
@@ -8043,8 +8138,9 @@
       <c r="AS59"/>
       <c r="AT59"/>
       <c r="AU59"/>
-    </row>
-    <row r="60" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV59"/>
+    </row>
+    <row r="60" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>186</v>
       </c>
@@ -8081,8 +8177,7 @@
       <c r="L60" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V60"/>
-      <c r="Y60"/>
+      <c r="W60"/>
       <c r="Z60"/>
       <c r="AA60"/>
       <c r="AB60"/>
@@ -8105,8 +8200,9 @@
       <c r="AS60"/>
       <c r="AT60"/>
       <c r="AU60"/>
-    </row>
-    <row r="61" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV60"/>
+    </row>
+    <row r="61" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>187</v>
       </c>
@@ -8143,8 +8239,7 @@
       <c r="L61" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V61"/>
-      <c r="Y61"/>
+      <c r="W61"/>
       <c r="Z61"/>
       <c r="AA61"/>
       <c r="AB61"/>
@@ -8167,8 +8262,9 @@
       <c r="AS61"/>
       <c r="AT61"/>
       <c r="AU61"/>
-    </row>
-    <row r="62" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV61"/>
+    </row>
+    <row r="62" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>188</v>
       </c>
@@ -8205,8 +8301,7 @@
       <c r="L62" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V62"/>
-      <c r="Y62"/>
+      <c r="W62"/>
       <c r="Z62"/>
       <c r="AA62"/>
       <c r="AB62"/>
@@ -8229,8 +8324,9 @@
       <c r="AS62"/>
       <c r="AT62"/>
       <c r="AU62"/>
-    </row>
-    <row r="63" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV62"/>
+    </row>
+    <row r="63" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>189</v>
       </c>
@@ -8267,8 +8363,7 @@
       <c r="L63" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V63"/>
-      <c r="Y63"/>
+      <c r="W63"/>
       <c r="Z63"/>
       <c r="AA63"/>
       <c r="AB63"/>
@@ -8291,8 +8386,9 @@
       <c r="AS63"/>
       <c r="AT63"/>
       <c r="AU63"/>
-    </row>
-    <row r="64" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV63"/>
+    </row>
+    <row r="64" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>190</v>
       </c>
@@ -8329,8 +8425,7 @@
       <c r="L64" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V64"/>
-      <c r="Y64"/>
+      <c r="W64"/>
       <c r="Z64"/>
       <c r="AA64"/>
       <c r="AB64"/>
@@ -8353,8 +8448,9 @@
       <c r="AS64"/>
       <c r="AT64"/>
       <c r="AU64"/>
-    </row>
-    <row r="65" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV64"/>
+    </row>
+    <row r="65" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>191</v>
       </c>
@@ -8391,8 +8487,7 @@
       <c r="L65" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V65"/>
-      <c r="Y65"/>
+      <c r="W65"/>
       <c r="Z65"/>
       <c r="AA65"/>
       <c r="AB65"/>
@@ -8415,8 +8510,9 @@
       <c r="AS65"/>
       <c r="AT65"/>
       <c r="AU65"/>
-    </row>
-    <row r="66" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV65"/>
+    </row>
+    <row r="66" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>192</v>
       </c>
@@ -8453,8 +8549,7 @@
       <c r="L66" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V66"/>
-      <c r="Y66"/>
+      <c r="W66"/>
       <c r="Z66"/>
       <c r="AA66"/>
       <c r="AB66"/>
@@ -8477,8 +8572,9 @@
       <c r="AS66"/>
       <c r="AT66"/>
       <c r="AU66"/>
-    </row>
-    <row r="67" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV66"/>
+    </row>
+    <row r="67" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>193</v>
       </c>
@@ -8515,8 +8611,7 @@
       <c r="L67" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V67"/>
-      <c r="Y67"/>
+      <c r="W67"/>
       <c r="Z67"/>
       <c r="AA67"/>
       <c r="AB67"/>
@@ -8539,8 +8634,9 @@
       <c r="AS67"/>
       <c r="AT67"/>
       <c r="AU67"/>
-    </row>
-    <row r="68" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV67"/>
+    </row>
+    <row r="68" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>194</v>
       </c>
@@ -8577,8 +8673,7 @@
       <c r="L68" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V68"/>
-      <c r="Y68"/>
+      <c r="W68"/>
       <c r="Z68"/>
       <c r="AA68"/>
       <c r="AB68"/>
@@ -8601,8 +8696,9 @@
       <c r="AS68"/>
       <c r="AT68"/>
       <c r="AU68"/>
-    </row>
-    <row r="69" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV68"/>
+    </row>
+    <row r="69" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>195</v>
       </c>
@@ -8639,8 +8735,7 @@
       <c r="L69" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V69"/>
-      <c r="Y69"/>
+      <c r="W69"/>
       <c r="Z69"/>
       <c r="AA69"/>
       <c r="AB69"/>
@@ -8663,8 +8758,9 @@
       <c r="AS69"/>
       <c r="AT69"/>
       <c r="AU69"/>
-    </row>
-    <row r="70" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV69"/>
+    </row>
+    <row r="70" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>196</v>
       </c>
@@ -8701,8 +8797,7 @@
       <c r="L70" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V70"/>
-      <c r="Y70"/>
+      <c r="W70"/>
       <c r="Z70"/>
       <c r="AA70"/>
       <c r="AB70"/>
@@ -8725,8 +8820,9 @@
       <c r="AS70"/>
       <c r="AT70"/>
       <c r="AU70"/>
-    </row>
-    <row r="71" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV70"/>
+    </row>
+    <row r="71" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>197</v>
       </c>
@@ -8763,8 +8859,7 @@
       <c r="L71" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V71"/>
-      <c r="Y71"/>
+      <c r="W71"/>
       <c r="Z71"/>
       <c r="AA71"/>
       <c r="AB71"/>
@@ -8787,8 +8882,9 @@
       <c r="AS71"/>
       <c r="AT71"/>
       <c r="AU71"/>
-    </row>
-    <row r="72" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV71"/>
+    </row>
+    <row r="72" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>198</v>
       </c>
@@ -8825,8 +8921,7 @@
       <c r="L72" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V72"/>
-      <c r="Y72"/>
+      <c r="W72"/>
       <c r="Z72"/>
       <c r="AA72"/>
       <c r="AB72"/>
@@ -8849,8 +8944,9 @@
       <c r="AS72"/>
       <c r="AT72"/>
       <c r="AU72"/>
-    </row>
-    <row r="73" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV72"/>
+    </row>
+    <row r="73" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>199</v>
       </c>
@@ -8887,8 +8983,7 @@
       <c r="L73" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V73"/>
-      <c r="Y73"/>
+      <c r="W73"/>
       <c r="Z73"/>
       <c r="AA73"/>
       <c r="AB73"/>
@@ -8911,8 +9006,9 @@
       <c r="AS73"/>
       <c r="AT73"/>
       <c r="AU73"/>
-    </row>
-    <row r="74" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV73"/>
+    </row>
+    <row r="74" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>200</v>
       </c>
@@ -8949,8 +9045,7 @@
       <c r="L74" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V74"/>
-      <c r="Y74"/>
+      <c r="W74"/>
       <c r="Z74"/>
       <c r="AA74"/>
       <c r="AB74"/>
@@ -8973,8 +9068,9 @@
       <c r="AS74"/>
       <c r="AT74"/>
       <c r="AU74"/>
-    </row>
-    <row r="75" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV74"/>
+    </row>
+    <row r="75" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>201</v>
       </c>
@@ -9011,8 +9107,7 @@
       <c r="L75" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V75"/>
-      <c r="Y75"/>
+      <c r="W75"/>
       <c r="Z75"/>
       <c r="AA75"/>
       <c r="AB75"/>
@@ -9035,8 +9130,9 @@
       <c r="AS75"/>
       <c r="AT75"/>
       <c r="AU75"/>
-    </row>
-    <row r="76" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV75"/>
+    </row>
+    <row r="76" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>202</v>
       </c>
@@ -9073,8 +9169,7 @@
       <c r="L76" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V76"/>
-      <c r="Y76"/>
+      <c r="W76"/>
       <c r="Z76"/>
       <c r="AA76"/>
       <c r="AB76"/>
@@ -9097,8 +9192,9 @@
       <c r="AS76"/>
       <c r="AT76"/>
       <c r="AU76"/>
-    </row>
-    <row r="77" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV76"/>
+    </row>
+    <row r="77" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>203</v>
       </c>
@@ -9135,8 +9231,7 @@
       <c r="L77" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V77"/>
-      <c r="Y77"/>
+      <c r="W77"/>
       <c r="Z77"/>
       <c r="AA77"/>
       <c r="AB77"/>
@@ -9159,8 +9254,9 @@
       <c r="AS77"/>
       <c r="AT77"/>
       <c r="AU77"/>
-    </row>
-    <row r="78" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV77"/>
+    </row>
+    <row r="78" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>204</v>
       </c>
@@ -9197,8 +9293,7 @@
       <c r="L78" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V78"/>
-      <c r="Y78"/>
+      <c r="W78"/>
       <c r="Z78"/>
       <c r="AA78"/>
       <c r="AB78"/>
@@ -9221,8 +9316,9 @@
       <c r="AS78"/>
       <c r="AT78"/>
       <c r="AU78"/>
-    </row>
-    <row r="79" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV78"/>
+    </row>
+    <row r="79" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>205</v>
       </c>
@@ -9259,8 +9355,7 @@
       <c r="L79" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V79"/>
-      <c r="Y79"/>
+      <c r="W79"/>
       <c r="Z79"/>
       <c r="AA79"/>
       <c r="AB79"/>
@@ -9283,10 +9378,11 @@
       <c r="AS79"/>
       <c r="AT79"/>
       <c r="AU79"/>
-    </row>
-    <row r="80" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV79"/>
+    </row>
+    <row r="80" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>95</v>
@@ -9301,7 +9397,7 @@
         <v>42</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>48</v>
@@ -9348,12 +9444,12 @@
       <c r="U80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V80" s="22" t="s">
+      <c r="V80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W80" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W80" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X80" s="4" t="s">
         <v>8</v>
       </c>
@@ -9426,10 +9522,13 @@
       <c r="AU80" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV80" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>100</v>
@@ -9444,7 +9543,7 @@
         <v>42</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>48</v>
@@ -9491,12 +9590,12 @@
       <c r="U81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V81" s="22" t="s">
+      <c r="V81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W81" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W81" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X81" s="4" t="s">
         <v>8</v>
       </c>
@@ -9569,10 +9668,13 @@
       <c r="AU81" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV81" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>101</v>
@@ -9587,7 +9689,7 @@
         <v>42</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>48</v>
@@ -9634,12 +9736,12 @@
       <c r="U82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V82" s="22" t="s">
+      <c r="V82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W82" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W82" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X82" s="4" t="s">
         <v>8</v>
       </c>
@@ -9712,10 +9814,13 @@
       <c r="AU82" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV82" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>105</v>
@@ -9730,7 +9835,7 @@
         <v>42</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>48</v>
@@ -9777,12 +9882,12 @@
       <c r="U83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V83" s="22" t="s">
+      <c r="V83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W83" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W83" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X83" s="4" t="s">
         <v>8</v>
       </c>
@@ -9855,10 +9960,13 @@
       <c r="AU83" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV83" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>106</v>
@@ -9873,7 +9981,7 @@
         <v>42</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>5</v>
@@ -9920,12 +10028,12 @@
       <c r="U84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V84" s="22" t="s">
+      <c r="V84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W84" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W84" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X84" s="4" t="s">
         <v>8</v>
       </c>
@@ -9998,10 +10106,13 @@
       <c r="AU84" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV84" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>111</v>
@@ -10016,7 +10127,7 @@
         <v>42</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>5</v>
@@ -10063,12 +10174,12 @@
       <c r="U85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V85" s="22" t="s">
+      <c r="V85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W85" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W85" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X85" s="4" t="s">
         <v>8</v>
       </c>
@@ -10141,10 +10252,13 @@
       <c r="AU85" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV85" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>152</v>
@@ -10159,7 +10273,7 @@
         <v>42</v>
       </c>
       <c r="F86" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>5</v>
@@ -10206,10 +10320,10 @@
       <c r="U86" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V86" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W86" s="4" t="s">
+      <c r="V86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W86" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X86" s="4" t="s">
@@ -10284,10 +10398,13 @@
       <c r="AU86" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV86" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>150</v>
@@ -10302,7 +10419,7 @@
         <v>42</v>
       </c>
       <c r="F87" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>5</v>
@@ -10320,7 +10437,7 @@
         <v>313</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M87" s="5" t="s">
         <v>116</v>
@@ -10349,10 +10466,10 @@
       <c r="U87" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V87" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W87" s="4" t="s">
+      <c r="V87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W87" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X87" s="4" t="s">
@@ -10427,10 +10544,13 @@
       <c r="AU87" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV87" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>149</v>
@@ -10439,13 +10559,13 @@
         <v>108</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F88" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>48</v>
@@ -10492,10 +10612,10 @@
       <c r="U88" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V88" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W88" s="4" t="s">
+      <c r="V88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W88" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X88" s="4" t="s">
@@ -10570,10 +10690,13 @@
       <c r="AU88" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV88" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>151</v>
@@ -10582,7 +10705,7 @@
         <v>108</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>42</v>
@@ -10635,10 +10758,10 @@
       <c r="U89" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V89" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W89" s="4" t="s">
+      <c r="V89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W89" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X89" s="4" t="s">
@@ -10713,10 +10836,13 @@
       <c r="AU89" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV89" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>153</v>
@@ -10731,7 +10857,7 @@
         <v>42</v>
       </c>
       <c r="F90" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>5</v>
@@ -10778,10 +10904,10 @@
       <c r="U90" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V90" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W90" s="4" t="s">
+      <c r="V90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W90" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X90" s="4" t="s">
@@ -10856,10 +10982,13 @@
       <c r="AU90" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV90" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>136</v>
@@ -10874,7 +11003,7 @@
         <v>42</v>
       </c>
       <c r="F91" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>48</v>
@@ -10921,10 +11050,10 @@
       <c r="U91" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W91" s="4" t="s">
+      <c r="V91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W91" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X91" s="4" t="s">
@@ -10999,10 +11128,13 @@
       <c r="AU91" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV91" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>270</v>
@@ -11017,7 +11149,7 @@
         <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>5</v>
@@ -11064,88 +11196,91 @@
       <c r="U92" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V92" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W92" s="4" t="s">
+      <c r="V92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W92" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X92" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z92" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="Z92" s="5" t="s">
+      <c r="AA92" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="AA92" s="4" t="s">
+      <c r="AB92" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AB92" s="4" t="s">
+      <c r="AC92" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AC92" s="4" t="s">
+      <c r="AD92" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AD92" s="5" t="s">
+      <c r="AE92" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="AE92" s="4" t="s">
+      <c r="AF92" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF92" s="5" t="s">
+      <c r="AG92" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="AG92" s="5" t="s">
+      <c r="AH92" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="AH92" s="5" t="s">
+      <c r="AI92" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="AI92" s="4" t="s">
+      <c r="AJ92" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="AJ92" s="4" t="s">
+      <c r="AK92" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AK92" s="4" t="s">
+      <c r="AL92" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AL92" s="4" t="s">
+      <c r="AM92" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AM92" s="5" t="s">
+      <c r="AN92" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AN92" s="4" t="s">
+      <c r="AO92" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AO92" s="4" t="s">
+      <c r="AP92" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AP92" s="4" t="s">
+      <c r="AQ92" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AQ92" s="4" t="s">
+      <c r="AR92" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AR92" s="5" t="s">
+      <c r="AS92" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="AS92" s="4" t="s">
+      <c r="AT92" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AT92" s="5" t="s">
+      <c r="AU92" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AU92" s="4" t="s">
+      <c r="AV92" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="93" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>271</v>
@@ -11207,88 +11342,91 @@
       <c r="U93" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V93" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W93" s="4" t="s">
+      <c r="V93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W93" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X93" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z93" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="Z93" s="5" t="s">
+      <c r="AA93" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="AA93" s="4" t="s">
+      <c r="AB93" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="AB93" s="4" t="s">
+      <c r="AC93" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AC93" s="4" t="s">
+      <c r="AD93" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="AD93" s="5" t="s">
+      <c r="AE93" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AE93" s="4" t="s">
+      <c r="AF93" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF93" s="5" t="s">
+      <c r="AG93" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="AG93" s="5" t="s">
+      <c r="AH93" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="AH93" s="5" t="s">
+      <c r="AI93" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="AI93" s="4" t="s">
+      <c r="AJ93" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="AJ93" s="4" t="s">
+      <c r="AK93" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="AK93" s="4" t="s">
+      <c r="AL93" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AL93" s="4" t="s">
+      <c r="AM93" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AM93" s="5" t="s">
+      <c r="AN93" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AN93" s="4" t="s">
+      <c r="AO93" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="AO93" s="4" t="s">
+      <c r="AP93" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="AP93" s="4" t="s">
+      <c r="AQ93" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AQ93" s="4" t="s">
+      <c r="AR93" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="AR93" s="5" t="s">
+      <c r="AS93" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AS93" s="4" t="s">
+      <c r="AT93" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AT93" s="5" t="s">
+      <c r="AU93" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AU93" s="4" t="s">
+      <c r="AV93" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="94" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>310</v>
@@ -11303,7 +11441,7 @@
         <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>5</v>
@@ -11350,88 +11488,91 @@
       <c r="U94" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V94" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W94" s="4" t="s">
+      <c r="V94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X94" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z94" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="Z94" s="5" t="s">
+      <c r="AA94" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="AA94" s="4" t="s">
+      <c r="AB94" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AB94" s="4" t="s">
+      <c r="AC94" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AC94" s="4" t="s">
+      <c r="AD94" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AD94" s="5" t="s">
+      <c r="AE94" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="AE94" s="4" t="s">
+      <c r="AF94" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF94" s="5" t="s">
+      <c r="AG94" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="AG94" s="5" t="s">
+      <c r="AH94" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="AH94" s="5" t="s">
+      <c r="AI94" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="AI94" s="4" t="s">
+      <c r="AJ94" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="AJ94" s="4" t="s">
+      <c r="AK94" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AK94" s="4" t="s">
+      <c r="AL94" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AL94" s="4" t="s">
+      <c r="AM94" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AM94" s="5" t="s">
+      <c r="AN94" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AN94" s="4" t="s">
+      <c r="AO94" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AO94" s="4" t="s">
+      <c r="AP94" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AP94" s="4" t="s">
+      <c r="AQ94" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AQ94" s="4" t="s">
+      <c r="AR94" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AR94" s="5" t="s">
+      <c r="AS94" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="AS94" s="4" t="s">
+      <c r="AT94" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AT94" s="5" t="s">
+      <c r="AU94" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AU94" s="4" t="s">
+      <c r="AV94" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="95" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>311</v>
@@ -11440,13 +11581,13 @@
         <v>108</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F95" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>48</v>
@@ -11493,88 +11634,91 @@
       <c r="U95" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V95" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W95" s="4" t="s">
+      <c r="V95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W95" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X95" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z95" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="Z95" s="5" t="s">
+      <c r="AA95" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="AA95" s="4" t="s">
+      <c r="AB95" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="AB95" s="4" t="s">
+      <c r="AC95" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AC95" s="4" t="s">
+      <c r="AD95" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="AD95" s="5" t="s">
+      <c r="AE95" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AE95" s="4" t="s">
+      <c r="AF95" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF95" s="5" t="s">
+      <c r="AG95" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="AG95" s="5" t="s">
+      <c r="AH95" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="AH95" s="5" t="s">
+      <c r="AI95" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="AI95" s="4" t="s">
+      <c r="AJ95" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="AJ95" s="4" t="s">
+      <c r="AK95" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="AK95" s="4" t="s">
+      <c r="AL95" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AL95" s="4" t="s">
+      <c r="AM95" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AM95" s="5" t="s">
+      <c r="AN95" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AN95" s="4" t="s">
+      <c r="AO95" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="AO95" s="4" t="s">
+      <c r="AP95" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="AP95" s="4" t="s">
+      <c r="AQ95" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AQ95" s="4" t="s">
+      <c r="AR95" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="AR95" s="5" t="s">
+      <c r="AS95" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AS95" s="4" t="s">
+      <c r="AT95" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AT95" s="5" t="s">
+      <c r="AU95" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AU95" s="4" t="s">
+      <c r="AV95" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="96" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>270</v>
@@ -11607,7 +11751,7 @@
         <v>103</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M96" s="5" t="s">
         <v>116</v>
@@ -11636,88 +11780,91 @@
       <c r="U96" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V96" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W96" s="4" t="s">
+      <c r="V96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W96" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X96" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z96" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="Z96" s="5" t="s">
+      <c r="AA96" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="AA96" s="4" t="s">
+      <c r="AB96" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AB96" s="4" t="s">
+      <c r="AC96" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AC96" s="4" t="s">
+      <c r="AD96" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AD96" s="5" t="s">
+      <c r="AE96" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="AE96" s="4" t="s">
+      <c r="AF96" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF96" s="5" t="s">
+      <c r="AG96" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="AG96" s="5" t="s">
+      <c r="AH96" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="AH96" s="5" t="s">
+      <c r="AI96" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="AI96" s="4" t="s">
+      <c r="AJ96" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="AJ96" s="4" t="s">
+      <c r="AK96" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AK96" s="4" t="s">
+      <c r="AL96" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AL96" s="4" t="s">
+      <c r="AM96" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AM96" s="5" t="s">
+      <c r="AN96" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AN96" s="4" t="s">
+      <c r="AO96" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AO96" s="4" t="s">
+      <c r="AP96" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AP96" s="4" t="s">
+      <c r="AQ96" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AQ96" s="4" t="s">
+      <c r="AR96" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AR96" s="5" t="s">
+      <c r="AS96" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="AS96" s="4" t="s">
+      <c r="AT96" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AT96" s="5" t="s">
+      <c r="AU96" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AU96" s="4" t="s">
+      <c r="AV96" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="97" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>271</v>
@@ -11750,7 +11897,7 @@
         <v>59</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M97" s="5" t="s">
         <v>158</v>
@@ -11779,88 +11926,91 @@
       <c r="U97" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V97" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W97" s="4" t="s">
+      <c r="V97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W97" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X97" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z97" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="Z97" s="5" t="s">
+      <c r="AA97" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="AA97" s="4" t="s">
+      <c r="AB97" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="AB97" s="4" t="s">
+      <c r="AC97" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AC97" s="4" t="s">
+      <c r="AD97" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="AD97" s="5" t="s">
+      <c r="AE97" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AE97" s="4" t="s">
+      <c r="AF97" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF97" s="5" t="s">
+      <c r="AG97" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="AG97" s="5" t="s">
+      <c r="AH97" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="AH97" s="5" t="s">
+      <c r="AI97" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="AI97" s="4" t="s">
+      <c r="AJ97" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="AJ97" s="4" t="s">
+      <c r="AK97" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="AK97" s="4" t="s">
+      <c r="AL97" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AL97" s="4" t="s">
+      <c r="AM97" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AM97" s="5" t="s">
+      <c r="AN97" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AN97" s="4" t="s">
+      <c r="AO97" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="AO97" s="4" t="s">
+      <c r="AP97" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="AP97" s="4" t="s">
+      <c r="AQ97" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AQ97" s="4" t="s">
+      <c r="AR97" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="AR97" s="5" t="s">
+      <c r="AS97" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AS97" s="4" t="s">
+      <c r="AT97" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AT97" s="5" t="s">
+      <c r="AU97" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AU97" s="4" t="s">
+      <c r="AV97" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="98" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>310</v>
@@ -11875,7 +12025,7 @@
         <v>42</v>
       </c>
       <c r="F98" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>5</v>
@@ -11922,88 +12072,91 @@
       <c r="U98" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V98" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W98" s="4" t="s">
+      <c r="V98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W98" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X98" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z98" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="Z98" s="5" t="s">
+      <c r="AA98" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="AA98" s="4" t="s">
+      <c r="AB98" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AB98" s="4" t="s">
+      <c r="AC98" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AC98" s="4" t="s">
+      <c r="AD98" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AD98" s="5" t="s">
+      <c r="AE98" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="AE98" s="4" t="s">
+      <c r="AF98" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF98" s="5" t="s">
+      <c r="AG98" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="AG98" s="5" t="s">
+      <c r="AH98" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="AH98" s="5" t="s">
+      <c r="AI98" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="AI98" s="4" t="s">
+      <c r="AJ98" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="AJ98" s="4" t="s">
+      <c r="AK98" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AK98" s="4" t="s">
+      <c r="AL98" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AL98" s="4" t="s">
+      <c r="AM98" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AM98" s="5" t="s">
+      <c r="AN98" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AN98" s="4" t="s">
+      <c r="AO98" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AO98" s="4" t="s">
+      <c r="AP98" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AP98" s="4" t="s">
+      <c r="AQ98" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AQ98" s="4" t="s">
+      <c r="AR98" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AR98" s="5" t="s">
+      <c r="AS98" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="AS98" s="4" t="s">
+      <c r="AT98" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AT98" s="5" t="s">
+      <c r="AU98" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AU98" s="4" t="s">
+      <c r="AV98" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="99" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>311</v>
@@ -12018,7 +12171,7 @@
         <v>42</v>
       </c>
       <c r="F99" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>48</v>
@@ -12065,91 +12218,94 @@
       <c r="U99" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V99" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W99" s="4" t="s">
+      <c r="V99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W99" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X99" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z99" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="Z99" s="5" t="s">
+      <c r="AA99" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="AA99" s="4" t="s">
+      <c r="AB99" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="AB99" s="4" t="s">
+      <c r="AC99" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AC99" s="4" t="s">
+      <c r="AD99" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="AD99" s="5" t="s">
+      <c r="AE99" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AE99" s="4" t="s">
+      <c r="AF99" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF99" s="5" t="s">
+      <c r="AG99" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="AG99" s="5" t="s">
+      <c r="AH99" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="AH99" s="5" t="s">
+      <c r="AI99" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="AI99" s="4" t="s">
+      <c r="AJ99" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="AJ99" s="4" t="s">
+      <c r="AK99" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="AK99" s="4" t="s">
+      <c r="AL99" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AL99" s="4" t="s">
+      <c r="AM99" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AM99" s="5" t="s">
+      <c r="AN99" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AN99" s="4" t="s">
+      <c r="AO99" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="AO99" s="4" t="s">
+      <c r="AP99" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="AP99" s="4" t="s">
+      <c r="AQ99" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AQ99" s="4" t="s">
+      <c r="AR99" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="AR99" s="5" t="s">
+      <c r="AS99" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AS99" s="4" t="s">
+      <c r="AT99" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AT99" s="5" t="s">
+      <c r="AU99" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AU99" s="4" t="s">
+      <c r="AV99" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="100" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>108</v>
@@ -12161,7 +12317,7 @@
         <v>42</v>
       </c>
       <c r="F100" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>5</v>
@@ -12206,12 +12362,12 @@
         <v>8</v>
       </c>
       <c r="U100" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V100" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W100" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X100" s="4" t="s">
@@ -12286,13 +12442,16 @@
       <c r="AU100" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV100" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>108</v>
@@ -12304,7 +12463,7 @@
         <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>48</v>
@@ -12349,12 +12508,12 @@
         <v>8</v>
       </c>
       <c r="U101" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V101" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W101" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W101" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X101" s="4" t="s">
@@ -12429,13 +12588,16 @@
       <c r="AU101" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV101" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>108</v>
@@ -12447,7 +12609,7 @@
         <v>42</v>
       </c>
       <c r="F102" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>5</v>
@@ -12489,96 +12651,99 @@
         <v>8</v>
       </c>
       <c r="T102" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U102" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V102" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W102" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W102" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X102" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z102" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="Z102" s="5" t="s">
+      <c r="AA102" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="AA102" s="4" t="s">
+      <c r="AB102" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AB102" s="4" t="s">
+      <c r="AC102" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AC102" s="4" t="s">
+      <c r="AD102" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AD102" s="5" t="s">
+      <c r="AE102" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="AE102" s="4" t="s">
+      <c r="AF102" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF102" s="5" t="s">
+      <c r="AG102" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="AG102" s="5" t="s">
+      <c r="AH102" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="AH102" s="5" t="s">
+      <c r="AI102" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="AI102" s="4" t="s">
+      <c r="AJ102" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="AJ102" s="4" t="s">
+      <c r="AK102" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AK102" s="4" t="s">
+      <c r="AL102" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AL102" s="4" t="s">
+      <c r="AM102" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AM102" s="5" t="s">
+      <c r="AN102" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AN102" s="4" t="s">
+      <c r="AO102" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AO102" s="4" t="s">
+      <c r="AP102" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AP102" s="4" t="s">
+      <c r="AQ102" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AQ102" s="4" t="s">
+      <c r="AR102" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AR102" s="5" t="s">
+      <c r="AS102" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="AS102" s="4" t="s">
+      <c r="AT102" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AT102" s="5" t="s">
+      <c r="AU102" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AU102" s="4" t="s">
+      <c r="AV102" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="103" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>108</v>
@@ -12590,7 +12755,7 @@
         <v>42</v>
       </c>
       <c r="F103" t="s">
-        <v>321</v>
+        <v>478</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>48</v>
@@ -12608,7 +12773,7 @@
         <v>59</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>148</v>
+        <v>273</v>
       </c>
       <c r="M103" s="5" t="s">
         <v>158</v>
@@ -12635,88 +12800,91 @@
         <v>8</v>
       </c>
       <c r="U103" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V103" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W103" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W103" s="20" t="s">
         <v>8</v>
       </c>
       <c r="X103" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z103" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="Z103" s="5" t="s">
+      <c r="AA103" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="AA103" s="4" t="s">
+      <c r="AB103" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="AB103" s="4" t="s">
+      <c r="AC103" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AC103" s="4" t="s">
+      <c r="AD103" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="AD103" s="5" t="s">
+      <c r="AE103" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AE103" s="4" t="s">
+      <c r="AF103" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF103" s="5" t="s">
+      <c r="AG103" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="AG103" s="5" t="s">
+      <c r="AH103" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="AH103" s="5" t="s">
+      <c r="AI103" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="AI103" s="4" t="s">
+      <c r="AJ103" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="AJ103" s="4" t="s">
+      <c r="AK103" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="AK103" s="4" t="s">
+      <c r="AL103" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AL103" s="4" t="s">
+      <c r="AM103" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AM103" s="5" t="s">
+      <c r="AN103" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AN103" s="4" t="s">
+      <c r="AO103" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="AO103" s="4" t="s">
+      <c r="AP103" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="AP103" s="4" t="s">
+      <c r="AQ103" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AQ103" s="4" t="s">
+      <c r="AR103" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="AR103" s="5" t="s">
+      <c r="AS103" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AS103" s="4" t="s">
+      <c r="AT103" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AT103" s="5" t="s">
+      <c r="AU103" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AU103" s="4" t="s">
+      <c r="AV103" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="104" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>53</v>
       </c>
@@ -12733,7 +12901,7 @@
         <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>48</v>
@@ -12760,7 +12928,7 @@
         <v>8</v>
       </c>
       <c r="O104" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P104" s="4" t="s">
         <v>8</v>
@@ -12780,12 +12948,12 @@
       <c r="U104" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V104" s="22" t="s">
+      <c r="V104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W104" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W104" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X104" s="4" t="s">
         <v>8</v>
       </c>
@@ -12858,8 +13026,11 @@
       <c r="AU104" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV104" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>56</v>
       </c>
@@ -12876,7 +13047,7 @@
         <v>42</v>
       </c>
       <c r="F105" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>48</v>
@@ -12923,21 +13094,21 @@
       <c r="U105" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V105" s="22" t="s">
+      <c r="V105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W105" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W105" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X105" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z105" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="Z105" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AA105" s="4" t="s">
         <v>8</v>
       </c>
@@ -13001,25 +13172,28 @@
       <c r="AU105" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV105" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F106" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>48</v>
@@ -13028,10 +13202,10 @@
         <v>46</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K106" s="4" t="s">
         <v>313</v>
@@ -13055,7 +13229,7 @@
         <v>5</v>
       </c>
       <c r="R106" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="S106" s="5" t="s">
         <v>88</v>
@@ -13066,21 +13240,21 @@
       <c r="U106" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V106" s="22" t="s">
+      <c r="V106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W106" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W106" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X106" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z106" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="Z106" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AA106" s="4" t="s">
         <v>8</v>
       </c>
@@ -13117,15 +13291,15 @@
       <c r="AL106" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AM106" s="5" t="s">
+      <c r="AM106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN106" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AN106" s="4" t="s">
+      <c r="AO106" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AO106" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AP106" s="4" t="s">
         <v>8</v>
       </c>
@@ -13138,19 +13312,22 @@
       <c r="AS106" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AT106" s="5" t="s">
+      <c r="AT106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU106" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AU106" s="4" t="s">
+      <c r="AV106" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="107" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>108</v>
@@ -13162,7 +13339,7 @@
         <v>42</v>
       </c>
       <c r="F107" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>48</v>
@@ -13171,16 +13348,16 @@
         <v>46</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K107" s="4" t="s">
         <v>313</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M107" s="5" t="s">
         <v>158</v>
@@ -13198,7 +13375,7 @@
         <v>5</v>
       </c>
       <c r="R107" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S107" s="5" t="s">
         <v>88</v>
@@ -13209,21 +13386,21 @@
       <c r="U107" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V107" s="22" t="s">
+      <c r="V107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W107" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W107" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X107" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z107" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="Z107" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AA107" s="4" t="s">
         <v>8</v>
       </c>
@@ -13260,15 +13437,15 @@
       <c r="AL107" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AM107" s="5" t="s">
+      <c r="AM107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN107" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AN107" s="4" t="s">
+      <c r="AO107" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="AO107" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AP107" s="4" t="s">
         <v>8</v>
       </c>
@@ -13281,31 +13458,34 @@
       <c r="AS107" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AT107" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="AU107" s="4" t="s">
+      <c r="AT107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU107" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AV107" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="108" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>5</v>
@@ -13314,10 +13494,10 @@
         <v>46</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K108" s="4" t="s">
         <v>313</v>
@@ -13341,7 +13521,7 @@
         <v>5</v>
       </c>
       <c r="R108" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S108" s="5" t="s">
         <v>88</v>
@@ -13352,21 +13532,21 @@
       <c r="U108" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V108" s="22" t="s">
+      <c r="V108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W108" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W108" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X108" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z108" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="Z108" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AA108" s="4" t="s">
         <v>8</v>
       </c>
@@ -13403,15 +13583,15 @@
       <c r="AL108" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AM108" s="5" t="s">
+      <c r="AM108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN108" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AN108" s="4" t="s">
+      <c r="AO108" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AO108" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AP108" s="4" t="s">
         <v>8</v>
       </c>
@@ -13424,19 +13604,22 @@
       <c r="AS108" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AT108" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="AU108" s="4" t="s">
+      <c r="AT108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU108" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="AV108" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="109" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>108</v>
@@ -13448,7 +13631,7 @@
         <v>42</v>
       </c>
       <c r="F109" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>48</v>
@@ -13457,10 +13640,10 @@
         <v>46</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K109" s="4" t="s">
         <v>313</v>
@@ -13484,7 +13667,7 @@
         <v>5</v>
       </c>
       <c r="R109" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S109" s="5" t="s">
         <v>88</v>
@@ -13493,23 +13676,23 @@
         <v>5</v>
       </c>
       <c r="U109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="V109" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="V109" s="22" t="s">
+      <c r="W109" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W109" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X109" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z109" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="Z109" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AA109" s="4" t="s">
         <v>8</v>
       </c>
@@ -13546,15 +13729,15 @@
       <c r="AL109" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AM109" s="5" t="s">
+      <c r="AM109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN109" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AN109" s="4" t="s">
+      <c r="AO109" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="AO109" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AP109" s="4" t="s">
         <v>8</v>
       </c>
@@ -13567,19 +13750,22 @@
       <c r="AS109" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AT109" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="AU109" s="4" t="s">
+      <c r="AT109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU109" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="AV109" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="110" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>108</v>
@@ -13591,7 +13777,7 @@
         <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>48</v>
@@ -13600,10 +13786,10 @@
         <v>46</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K110" s="4" t="s">
         <v>313</v>
@@ -13627,7 +13813,7 @@
         <v>5</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S110" s="5" t="s">
         <v>88</v>
@@ -13638,21 +13824,21 @@
       <c r="U110" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V110" s="22" t="s">
+      <c r="V110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W110" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W110" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X110" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z110" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="Z110" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AA110" s="4" t="s">
         <v>8</v>
       </c>
@@ -13689,15 +13875,15 @@
       <c r="AL110" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AM110" s="5" t="s">
+      <c r="AM110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN110" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AN110" s="4" t="s">
+      <c r="AO110" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AO110" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AP110" s="4" t="s">
         <v>8</v>
       </c>
@@ -13710,31 +13896,34 @@
       <c r="AS110" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AT110" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="AU110" s="4" t="s">
+      <c r="AT110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU110" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="AV110" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="111" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>5</v>
@@ -13743,10 +13932,10 @@
         <v>46</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K111" s="4" t="s">
         <v>313</v>
@@ -13770,7 +13959,7 @@
         <v>5</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="S111" s="5" t="s">
         <v>88</v>
@@ -13781,21 +13970,21 @@
       <c r="U111" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V111" s="22" t="s">
+      <c r="V111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W111" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W111" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X111" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z111" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="Z111" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AA111" s="4" t="s">
         <v>8</v>
       </c>
@@ -13832,15 +14021,15 @@
       <c r="AL111" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AM111" s="5" t="s">
+      <c r="AM111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN111" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AN111" s="4" t="s">
+      <c r="AO111" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="AO111" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AP111" s="4" t="s">
         <v>8</v>
       </c>
@@ -13853,31 +14042,34 @@
       <c r="AS111" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AT111" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="AU111" s="4" t="s">
+      <c r="AT111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU111" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="AV111" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="112" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F112" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>5</v>
@@ -13886,16 +14078,16 @@
         <v>46</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K112" s="4" t="s">
         <v>313</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M112" s="5" t="s">
         <v>116</v>
@@ -13913,7 +14105,7 @@
         <v>5</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S112" s="5" t="s">
         <v>88</v>
@@ -13921,24 +14113,24 @@
       <c r="T112" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="U112" s="5" t="s">
+      <c r="U112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="V112" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="V112" s="22" t="s">
+      <c r="W112" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W112" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X112" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z112" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="Z112" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AA112" s="4" t="s">
         <v>8</v>
       </c>
@@ -13975,15 +14167,15 @@
       <c r="AL112" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AM112" s="5" t="s">
+      <c r="AM112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN112" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AN112" s="4" t="s">
+      <c r="AO112" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AO112" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AP112" s="4" t="s">
         <v>8</v>
       </c>
@@ -13996,31 +14188,34 @@
       <c r="AS112" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AT112" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="AU112" s="4" t="s">
+      <c r="AT112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU112" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="AV112" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="113" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F113" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>48</v>
@@ -14029,16 +14224,16 @@
         <v>46</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K113" s="4" t="s">
         <v>313</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M113" s="5" t="s">
         <v>158</v>
@@ -14056,7 +14251,7 @@
         <v>5</v>
       </c>
       <c r="R113" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S113" s="5" t="s">
         <v>88</v>
@@ -14065,23 +14260,23 @@
         <v>5</v>
       </c>
       <c r="U113" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V113" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="V113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W113" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W113" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X113" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z113" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="Z113" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AA113" s="4" t="s">
         <v>8</v>
       </c>
@@ -14118,15 +14313,15 @@
       <c r="AL113" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AM113" s="5" t="s">
+      <c r="AM113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN113" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AN113" s="4" t="s">
+      <c r="AO113" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="AO113" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AP113" s="4" t="s">
         <v>8</v>
       </c>
@@ -14139,31 +14334,34 @@
       <c r="AS113" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AT113" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="AU113" s="4" t="s">
+      <c r="AT113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU113" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AV113" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="114" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F114" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>48</v>
@@ -14172,16 +14370,16 @@
         <v>46</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K114" s="4" t="s">
         <v>313</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="M114" s="5" t="s">
         <v>116</v>
@@ -14199,7 +14397,7 @@
         <v>5</v>
       </c>
       <c r="R114" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S114" s="5" t="s">
         <v>88</v>
@@ -14208,23 +14406,23 @@
         <v>5</v>
       </c>
       <c r="U114" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V114" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="V114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W114" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W114" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X114" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Y114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z114" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="Z114" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AA114" s="4" t="s">
         <v>8</v>
       </c>
@@ -14261,15 +14459,15 @@
       <c r="AL114" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AM114" s="5" t="s">
+      <c r="AM114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN114" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AN114" s="4" t="s">
+      <c r="AO114" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AO114" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AP114" s="4" t="s">
         <v>8</v>
       </c>
@@ -14282,19 +14480,22 @@
       <c r="AS114" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AT114" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="AU114" s="4" t="s">
+      <c r="AT114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU114" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="AV114" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="115" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>108</v>
@@ -14306,7 +14507,7 @@
         <v>42</v>
       </c>
       <c r="F115" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>48</v>
@@ -14315,7 +14516,7 @@
         <v>46</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J115" s="4" t="s">
         <v>44</v>
@@ -14342,7 +14543,7 @@
         <v>5</v>
       </c>
       <c r="R115" s="5" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="S115" s="5" t="s">
         <v>88</v>
@@ -14351,14 +14552,14 @@
         <v>5</v>
       </c>
       <c r="U115" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V115" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="V115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W115" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W115" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X115" s="4" t="s">
         <v>8</v>
       </c>
@@ -14431,13 +14632,16 @@
       <c r="AU115" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV115" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>108</v>
@@ -14449,7 +14653,7 @@
         <v>42</v>
       </c>
       <c r="F116" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>5</v>
@@ -14458,7 +14662,7 @@
         <v>46</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J116" s="4" t="s">
         <v>44</v>
@@ -14485,7 +14689,7 @@
         <v>5</v>
       </c>
       <c r="R116" s="5" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="S116" s="5" t="s">
         <v>88</v>
@@ -14494,14 +14698,14 @@
         <v>5</v>
       </c>
       <c r="U116" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V116" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="V116" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W116" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W116" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="X116" s="4" t="s">
         <v>8</v>
       </c>
@@ -14574,10 +14778,12 @@
       <c r="AU116" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V117"/>
-      <c r="Y117"/>
+      <c r="AV116" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W117"/>
       <c r="Z117"/>
       <c r="AA117"/>
       <c r="AB117"/>
@@ -14600,10 +14806,10 @@
       <c r="AS117"/>
       <c r="AT117"/>
       <c r="AU117"/>
-    </row>
-    <row r="118" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V118"/>
-      <c r="Y118"/>
+      <c r="AV117"/>
+    </row>
+    <row r="118" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W118"/>
       <c r="Z118"/>
       <c r="AA118"/>
       <c r="AB118"/>
@@ -14626,10 +14832,10 @@
       <c r="AS118"/>
       <c r="AT118"/>
       <c r="AU118"/>
-    </row>
-    <row r="119" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V119"/>
-      <c r="Y119"/>
+      <c r="AV118"/>
+    </row>
+    <row r="119" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W119"/>
       <c r="Z119"/>
       <c r="AA119"/>
       <c r="AB119"/>
@@ -14652,10 +14858,10 @@
       <c r="AS119"/>
       <c r="AT119"/>
       <c r="AU119"/>
-    </row>
-    <row r="120" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V120"/>
-      <c r="Y120"/>
+      <c r="AV119"/>
+    </row>
+    <row r="120" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W120"/>
       <c r="Z120"/>
       <c r="AA120"/>
       <c r="AB120"/>
@@ -14678,10 +14884,10 @@
       <c r="AS120"/>
       <c r="AT120"/>
       <c r="AU120"/>
-    </row>
-    <row r="121" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V121"/>
-      <c r="Y121"/>
+      <c r="AV120"/>
+    </row>
+    <row r="121" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W121"/>
       <c r="Z121"/>
       <c r="AA121"/>
       <c r="AB121"/>
@@ -14704,10 +14910,10 @@
       <c r="AS121"/>
       <c r="AT121"/>
       <c r="AU121"/>
-    </row>
-    <row r="122" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V122"/>
-      <c r="Y122"/>
+      <c r="AV121"/>
+    </row>
+    <row r="122" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W122"/>
       <c r="Z122"/>
       <c r="AA122"/>
       <c r="AB122"/>
@@ -14730,10 +14936,10 @@
       <c r="AS122"/>
       <c r="AT122"/>
       <c r="AU122"/>
-    </row>
-    <row r="123" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V123"/>
-      <c r="Y123"/>
+      <c r="AV122"/>
+    </row>
+    <row r="123" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W123"/>
       <c r="Z123"/>
       <c r="AA123"/>
       <c r="AB123"/>
@@ -14756,10 +14962,10 @@
       <c r="AS123"/>
       <c r="AT123"/>
       <c r="AU123"/>
-    </row>
-    <row r="124" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V124"/>
-      <c r="Y124"/>
+      <c r="AV123"/>
+    </row>
+    <row r="124" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W124"/>
       <c r="Z124"/>
       <c r="AA124"/>
       <c r="AB124"/>
@@ -14782,8 +14988,9 @@
       <c r="AS124"/>
       <c r="AT124"/>
       <c r="AU124"/>
-    </row>
-    <row r="125" spans="1:47" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV124"/>
+    </row>
+    <row r="125" spans="1:48" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -14831,10 +15038,10 @@
       <c r="AS125"/>
       <c r="AT125"/>
       <c r="AU125"/>
-    </row>
-    <row r="126" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V126"/>
-      <c r="Y126"/>
+      <c r="AV125"/>
+    </row>
+    <row r="126" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W126"/>
       <c r="Z126"/>
       <c r="AA126"/>
       <c r="AB126"/>
@@ -14857,10 +15064,10 @@
       <c r="AS126"/>
       <c r="AT126"/>
       <c r="AU126"/>
-    </row>
-    <row r="127" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V127"/>
-      <c r="Y127"/>
+      <c r="AV126"/>
+    </row>
+    <row r="127" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W127"/>
       <c r="Z127"/>
       <c r="AA127"/>
       <c r="AB127"/>
@@ -14883,8 +15090,9 @@
       <c r="AS127"/>
       <c r="AT127"/>
       <c r="AU127"/>
-    </row>
-    <row r="128" spans="1:47" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV127"/>
+    </row>
+    <row r="128" spans="1:48" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -14932,8 +15140,9 @@
       <c r="AS128"/>
       <c r="AT128"/>
       <c r="AU128"/>
-    </row>
-    <row r="129" spans="1:47" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV128"/>
+    </row>
+    <row r="129" spans="1:48" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -14981,10 +15190,10 @@
       <c r="AS129"/>
       <c r="AT129"/>
       <c r="AU129"/>
-    </row>
-    <row r="130" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V130"/>
-      <c r="Y130"/>
+      <c r="AV129"/>
+    </row>
+    <row r="130" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W130"/>
       <c r="Z130"/>
       <c r="AA130"/>
       <c r="AB130"/>
@@ -15007,10 +15216,10 @@
       <c r="AS130"/>
       <c r="AT130"/>
       <c r="AU130"/>
-    </row>
-    <row r="131" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V131"/>
-      <c r="Y131"/>
+      <c r="AV130"/>
+    </row>
+    <row r="131" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W131"/>
       <c r="Z131"/>
       <c r="AA131"/>
       <c r="AB131"/>
@@ -15033,8 +15242,9 @@
       <c r="AS131"/>
       <c r="AT131"/>
       <c r="AU131"/>
-    </row>
-    <row r="132" spans="1:47" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV131"/>
+    </row>
+    <row r="132" spans="1:48" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -15082,8 +15292,9 @@
       <c r="AS132"/>
       <c r="AT132"/>
       <c r="AU132"/>
-    </row>
-    <row r="133" spans="1:47" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV132"/>
+    </row>
+    <row r="133" spans="1:48" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -15131,8 +15342,9 @@
       <c r="AS133"/>
       <c r="AT133"/>
       <c r="AU133"/>
-    </row>
-    <row r="134" spans="1:47" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV133"/>
+    </row>
+    <row r="134" spans="1:48" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -15180,8 +15392,9 @@
       <c r="AS134"/>
       <c r="AT134"/>
       <c r="AU134"/>
-    </row>
-    <row r="135" spans="1:47" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV134"/>
+    </row>
+    <row r="135" spans="1:48" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -15229,8 +15442,9 @@
       <c r="AS135"/>
       <c r="AT135"/>
       <c r="AU135"/>
-    </row>
-    <row r="136" spans="1:47" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV135"/>
+    </row>
+    <row r="136" spans="1:48" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -15278,8 +15492,9 @@
       <c r="AS136"/>
       <c r="AT136"/>
       <c r="AU136"/>
-    </row>
-    <row r="137" spans="1:47" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV136"/>
+    </row>
+    <row r="137" spans="1:48" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -15327,8 +15542,9 @@
       <c r="AS137"/>
       <c r="AT137"/>
       <c r="AU137"/>
-    </row>
-    <row r="138" spans="1:47" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV137"/>
+    </row>
+    <row r="138" spans="1:48" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -15376,8 +15592,9 @@
       <c r="AS138"/>
       <c r="AT138"/>
       <c r="AU138"/>
-    </row>
-    <row r="139" spans="1:47" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV138"/>
+    </row>
+    <row r="139" spans="1:48" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -15425,8 +15642,9 @@
       <c r="AS139"/>
       <c r="AT139"/>
       <c r="AU139"/>
-    </row>
-    <row r="140" spans="1:47" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV139"/>
+    </row>
+    <row r="140" spans="1:48" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -15474,8 +15692,9 @@
       <c r="AS140"/>
       <c r="AT140"/>
       <c r="AU140"/>
-    </row>
-    <row r="141" spans="1:47" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV140"/>
+    </row>
+    <row r="141" spans="1:48" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -15523,8 +15742,9 @@
       <c r="AS141"/>
       <c r="AT141"/>
       <c r="AU141"/>
-    </row>
-    <row r="142" spans="1:47" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV141"/>
+    </row>
+    <row r="142" spans="1:48" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -15572,8 +15792,9 @@
       <c r="AS142"/>
       <c r="AT142"/>
       <c r="AU142"/>
-    </row>
-    <row r="143" spans="1:47" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV142"/>
+    </row>
+    <row r="143" spans="1:48" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -15621,8 +15842,9 @@
       <c r="AS143"/>
       <c r="AT143"/>
       <c r="AU143"/>
-    </row>
-    <row r="144" spans="1:47" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV143"/>
+    </row>
+    <row r="144" spans="1:48" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -15670,8 +15892,9 @@
       <c r="AS144"/>
       <c r="AT144"/>
       <c r="AU144"/>
-    </row>
-    <row r="145" spans="1:47" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV144"/>
+    </row>
+    <row r="145" spans="1:48" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -15719,8 +15942,9 @@
       <c r="AS145"/>
       <c r="AT145"/>
       <c r="AU145"/>
-    </row>
-    <row r="146" spans="1:47" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV145"/>
+    </row>
+    <row r="146" spans="1:48" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
@@ -15768,8 +15992,9 @@
       <c r="AS146"/>
       <c r="AT146"/>
       <c r="AU146"/>
-    </row>
-    <row r="147" spans="1:47" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV146"/>
+    </row>
+    <row r="147" spans="1:48" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
@@ -15817,8 +16042,9 @@
       <c r="AS147"/>
       <c r="AT147"/>
       <c r="AU147"/>
-    </row>
-    <row r="148" spans="1:47" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV147"/>
+    </row>
+    <row r="148" spans="1:48" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
@@ -15866,8 +16092,9 @@
       <c r="AS148"/>
       <c r="AT148"/>
       <c r="AU148"/>
-    </row>
-    <row r="149" spans="1:47" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV148"/>
+    </row>
+    <row r="149" spans="1:48" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -15915,8 +16142,9 @@
       <c r="AS149"/>
       <c r="AT149"/>
       <c r="AU149"/>
-    </row>
-    <row r="150" spans="1:47" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV149"/>
+    </row>
+    <row r="150" spans="1:48" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
@@ -15964,6 +16192,7 @@
       <c r="AS150"/>
       <c r="AT150"/>
       <c r="AU150"/>
+      <c r="AV150"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16100,8 +16329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S137"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16253,13 +16482,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>379</v>
+        <v>73</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>380</v>
+        <v>74</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>75</v>
@@ -17778,7 +18007,7 @@
     </row>
     <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>89</v>
@@ -17837,7 +18066,7 @@
     </row>
     <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>89</v>
@@ -17896,7 +18125,7 @@
     </row>
     <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>89</v>
@@ -17955,7 +18184,7 @@
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>89</v>
@@ -18014,7 +18243,7 @@
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>89</v>
@@ -18073,7 +18302,7 @@
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>89</v>
@@ -18132,7 +18361,7 @@
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>89</v>
@@ -18191,7 +18420,7 @@
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>89</v>
@@ -18250,7 +18479,7 @@
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>89</v>
@@ -18309,7 +18538,7 @@
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>89</v>
@@ -18368,7 +18597,7 @@
     </row>
     <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>89</v>
@@ -18427,7 +18656,7 @@
     </row>
     <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>89</v>
@@ -18486,7 +18715,7 @@
     </row>
     <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>89</v>
@@ -18545,7 +18774,7 @@
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>89</v>
@@ -18604,7 +18833,7 @@
     </row>
     <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>89</v>
@@ -18663,7 +18892,7 @@
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>89</v>
@@ -18722,7 +18951,7 @@
     </row>
     <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>89</v>
@@ -18781,7 +19010,7 @@
     </row>
     <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>89</v>
@@ -18840,7 +19069,7 @@
     </row>
     <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>89</v>
@@ -18899,7 +19128,7 @@
     </row>
     <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>89</v>
@@ -18958,7 +19187,7 @@
     </row>
     <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>89</v>
@@ -18967,13 +19196,13 @@
         <v>5</v>
       </c>
       <c r="D49" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="12" t="s">
         <v>380</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>381</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>75</v>
@@ -19017,7 +19246,7 @@
     </row>
     <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>89</v>
@@ -19026,13 +19255,13 @@
         <v>5</v>
       </c>
       <c r="D50" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="12" t="s">
         <v>416</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>417</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>75</v>
@@ -19076,7 +19305,7 @@
     </row>
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>89</v>
@@ -19085,13 +19314,13 @@
         <v>5</v>
       </c>
       <c r="D51" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>412</v>
-      </c>
       <c r="F51" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>75</v>
@@ -19135,7 +19364,7 @@
     </row>
     <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -19144,13 +19373,13 @@
         <v>5</v>
       </c>
       <c r="D52" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>414</v>
-      </c>
       <c r="F52" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>75</v>
@@ -19194,7 +19423,7 @@
     </row>
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>89</v>
@@ -19253,7 +19482,7 @@
     </row>
     <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>89</v>
@@ -19312,7 +19541,7 @@
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>89</v>
@@ -19371,7 +19600,7 @@
     </row>
     <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>89</v>
@@ -19430,7 +19659,7 @@
     </row>
     <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>89</v>
@@ -19489,7 +19718,7 @@
     </row>
     <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>89</v>
@@ -19548,7 +19777,7 @@
     </row>
     <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>89</v>
@@ -19607,7 +19836,7 @@
     </row>
     <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>89</v>
@@ -19616,13 +19845,13 @@
         <v>5</v>
       </c>
       <c r="D60" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="F60" s="12" t="s">
         <v>380</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>381</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>75</v>
@@ -19666,7 +19895,7 @@
     </row>
     <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>89</v>
@@ -19675,13 +19904,13 @@
         <v>5</v>
       </c>
       <c r="D61" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="F61" s="12" t="s">
         <v>416</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>417</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>75</v>
@@ -19725,7 +19954,7 @@
     </row>
     <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>89</v>
@@ -19734,13 +19963,13 @@
         <v>5</v>
       </c>
       <c r="D62" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>412</v>
-      </c>
       <c r="F62" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>75</v>
@@ -19784,7 +20013,7 @@
     </row>
     <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>89</v>
@@ -19793,13 +20022,13 @@
         <v>5</v>
       </c>
       <c r="D63" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>414</v>
-      </c>
       <c r="F63" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>75</v>
